--- a/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/hsnote/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_23F921EDA0834F171B2D4C5A7558C52464B8D920" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{246B014C-804A-4D77-A247-0704E5861DBE}"/>
   <bookViews>
-    <workbookView xWindow="4065" yWindow="0" windowWidth="23865" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>section_name</t>
   </si>
@@ -31,13 +25,13 @@
     <t>vi_notes</t>
   </si>
   <si>
-    <t>PHẦN I:</t>
-  </si>
-  <si>
-    <t>Phần II:</t>
-  </si>
-  <si>
-    <t>PHẦN III:</t>
+    <t>PHẦN I</t>
+  </si>
+  <si>
+    <t>PHẦN II</t>
+  </si>
+  <si>
+    <t>PHẦN III</t>
   </si>
   <si>
     <t>PHẦN IV</t>
@@ -49,16 +43,16 @@
     <t>PHẦN VI</t>
   </si>
   <si>
-    <t>Phần VII:</t>
+    <t>PHẦN VII</t>
   </si>
   <si>
     <t>PHẦN VIII</t>
   </si>
   <si>
-    <t>Phần IX</t>
-  </si>
-  <si>
-    <t>PHẦN X:</t>
+    <t>PHẦN IX</t>
+  </si>
+  <si>
+    <t>PHẦN X</t>
   </si>
   <si>
     <t>PHẦN XI</t>
@@ -79,82 +73,19 @@
     <t>PHẦN XVI</t>
   </si>
   <si>
-    <t>Phần XVII</t>
+    <t>PHẦN XVII</t>
   </si>
   <si>
     <t>PHẦN XVIII</t>
   </si>
   <si>
-    <t>Phần XIX</t>
-  </si>
-  <si>
-    <t>Phần XX</t>
-  </si>
-  <si>
-    <t>Phần XXI:</t>
-  </si>
-  <si>
-    <t>['ĐỘNG VẬT SỐNG; CÁC SẢN PHẨM TỪ ĐỘNG VẬT']</t>
-  </si>
-  <si>
-    <t>['CÁC SẢN PHẨM THỰC VẬT']</t>
-  </si>
-  <si>
-    <t>['CHẤT BÉO VÀ DẦU CÓ NGUỒN GỐC TỪ ĐỘNG VẬT, THỰC VẬT HOẶC VI SINH VẬT VÀ CÁC SẢN PHẨM TÁCH TỪ CHÚNG; CHẤT BÉO ĂN ĐƯỢC ĐÃ CHẾ BIẾN; CÁC LOẠI SÁP ĐỘNG VẬT HOẶC THỰC VẬT']</t>
-  </si>
-  <si>
-    <t>['TH’THỰC PHẨM CHẾ BIẾN; ĐỒ UỐNG, RƯỢU MẠNH VÀ GIẤM; THUỐC LÁ VÀ NGUYÊN LIỆU THAY THẾ THUỐC LÁ ĐÃ CHẾ BIẾN; CÁC SẢN PHẨM CHỨA HOẶC KHÔNG CHỨA NICOTIN, DÙNG ĐỂ HÚT MÀ KHÔNG CẦN ĐỐT CHÁY; CÁC SẢN PHẨM CHỨA NICOTIN KHÁC DÙNG ĐỂ NẠP NICOTIN VÀO CƠ THỂ CON NGƯỜI']</t>
-  </si>
-  <si>
-    <t>['KHOÁNG SẢN']</t>
-  </si>
-  <si>
-    <t>['SẢN PHẨM CỦA NGÀNH CÔNG NGHIỆP HÓA CHẤT HOẶC CÁC NGÀNH CÔNG NGHIỆP LIÊN QUAN']</t>
-  </si>
-  <si>
-    <t>['PLASTIC VÀ CÁC SẢN PHẨM BẰNG PLASTIC; CAO SU VÀ CÁC SẢN PHẨM BẰNG CAO SU']</t>
-  </si>
-  <si>
-    <t>['DA SỐNG, DA THUỘC, DA LÔNG VÀ CÁC SẢN PHẨM TỪ DA; YÊN CƯƠNG VÀ BỘ ĐỒ YÊN CƯƠNG; HÀNG DU LỊCH, TÚI XÁCH TAY VÀ CÁC LOẠI ĐỒ CHỨA TƯƠNG TỰ; CÁC MẶT HÀNG TỪ RUỘT ĐỘNG VẬT (TRỪ RUỘT CON TẰM)']</t>
-  </si>
-  <si>
-    <t>['GỖ VÀ CÁC MẶT HÀNG BẰNG GỖ; THAN TỪ GỖ; LIE VÀ CÁC SẢN PHẨM BẰNG LIE; CÁC SẢN PHẨM TỪ RƠM, CỎ GIẤY HOẶC CÁC VẬT LIỆU TẾT BỆN KHÁC; CÁC SẢN PHẨM BẰNG LIỄU GAI VÀ SONG MÂY']</t>
-  </si>
-  <si>
-    <t>['BỘT GIẤY TỪ GỖ HOẶC TỪ NGUYÊN LIỆU XƠ SỢI XENLULO KHÁC; GIẤY LOẠI HOẶC BÌA LOẠI THU HỒI (PHẾ LIỆU VÀ VỤN THỪA); GIẤY VÀ BÌA VÀ CÁC SẢN PHẨM CỦA CHÚNG']</t>
-  </si>
-  <si>
-    <t>['NGUYÊN LIỆU DỆT VÀ CÁC SẢN PHẨM DỆT']</t>
-  </si>
-  <si>
-    <t>['GIÀY, DÉP, MŨ VÀ CÁC VẬT ĐỘI ĐẦU KHÁC, Ô, DÙ, BA TOONG, GẬY TAY CẦM CÓ THỂ CHUYỂN THÀNH GHẾ, ROI, GẬY ĐIỀU KHIỂN, ROI ĐIỀU KHIỂN SÚC VẬT THÔ KÉO VÀ CÁC BỘ PHẬN CỦA CÁC LOẠI HÀNG TRÊN; LÔNG VŨ CHẾ BIẾN VÀ CÁC SẢN PHẨM LÀM TỪ LÔNG VŨ CHẾ BIẾN; HOA NHÂN TẠO; CÁC SẢN PHẨM LÀM TỪ TÓC NGƯỜI']</t>
-  </si>
-  <si>
-    <t>['SẢN PHẨM BẰNG ĐÁ, THẠCH CAO, XI MĂNG, AMIĂNG, MICA HOẶC CÁC VẬT LIỆU TƯƠNG TỰ; ĐỒ GỐM; SỨ (CERAMIC); THỦY TINH VÀ CÁC SẢN PHẨM BẰNG THỦY TINH']</t>
-  </si>
-  <si>
-    <t>['NGỌC TRAI TỰ NHIÊN HOẶC NUÔI CẤY, ĐÁ QUÝ HOẶC ĐÁ BÁN QUÝ, KIM LOẠI QUÝ, KIM LOẠI ĐƯỢC DÁT PHỦ KIM LOẠI QUÝ, VÀ CÁC SẢN PHẨM CỦA CHÚNG; ĐỒ TRANG SỨC LÀM BẰNG CHẤT LIỆU KHÁC; TIỀN KIM LOẠI']</t>
-  </si>
-  <si>
-    <t>['KIM LOẠI CƠ BẢN VÀ CÁC SẢN PHẨM BẰNG KIM LOẠI CƠ BẢN']</t>
-  </si>
-  <si>
-    <t>['MÁY VÀ CÁC TRANG THIẾT BỊ CƠ KHÍ; THIẾT BỊ ĐIỆN; CÁC BỘ PHẬN CỦA CHÚNG; THIẾT BỊ GHI VÀ TÁI TẠO ÂM THANH, THIẾT BỊ GHI VÀ TÁI TẠO HÌNH ẢNH, ÂM THANH TRUYỀN HÌNH VÀ CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CÁC THIẾT BỊ TRÊN']</t>
-  </si>
-  <si>
-    <t>['XE CỘ, PHƯƠNG TIỆN BAY, TÀU THUYỀN VÀ CÁC THIẾT BỊ VẬN TẢI LIÊN HỢP']</t>
-  </si>
-  <si>
-    <t>['DỤNG CỤ VÀ THIẾT BỊ QUANG HỌC, NHIẾP ẢNH, ĐIỆN ẢNH, ĐO LƯỜNG, KIỂM TRA, CHÍNH XÁC, Y TẾ HOẶC PHẪU THUẬT; ĐỒNG HỒ THỜI GIAN VÀ ĐỒNG HỒ CÁ NHÂN; NHẠC CỤ; CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CHÚNG']</t>
-  </si>
-  <si>
-    <t>['VŨ KHÍ VÀ ĐẠN; CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CHÚNG']</t>
-  </si>
-  <si>
-    <t>['CÁC MẶT HÀNG KHÁC']</t>
-  </si>
-  <si>
-    <t>['CÁC TÁC PHẨM NGHỆ THUẬT, ĐỒ SƯU TẦM VÀ ĐỒ CỔ']</t>
+    <t>PHẦN XIX</t>
+  </si>
+  <si>
+    <t>PHẦN XX</t>
+  </si>
+  <si>
+    <t>PHẦN XXI</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Trong phần này, khi đề cập đến một giống hoặc một loài động vật, trừ khi có yêu cầu khác, cần phải kể đến cả giống hoặc loài động vật đó còn non.', '2. Trừ khi có yêu cầu khác, trong toàn bộ Danh mục này bất cứ đề cập nào liên quan đến các sản phẩm "được làm khô" cũng bao gồm các sản phẩm được khử nước, làm bay hơi hoặc làm khô bằng đông lạnh.']</t>
@@ -190,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,21 +185,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -306,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -340,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -375,10 +297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -551,17 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="80.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,235 +490,172 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
       <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
       <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
       <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
       <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
       <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
       <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
       <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
       <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
       <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/hsnote/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED6BCBCA03932D4C85DDDAE3BA65B8D92E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5190D98F-0E2F-4EC4-BE34-6817DDF5FC25}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>section_name</t>
   </si>
@@ -86,6 +92,69 @@
   </si>
   <si>
     <t>PHẦN XXI</t>
+  </si>
+  <si>
+    <t>['ĐỘNG VẬT SỐNG; CÁC SẢN PHẨM TỪ ĐỘNG VẬT']</t>
+  </si>
+  <si>
+    <t>['CÁC SẢN PHẨM THỰC VẬT']</t>
+  </si>
+  <si>
+    <t>['CHẤT BÉO VÀ DẦU CÓ NGUỒN GỐC TỪ ĐỘNG VẬT, THỰC VẬT HOẶC VI SINH VẬT VÀ CÁC SẢN PHẨM TÁCH TỪ CHÚNG; CHẤT BÉO ĂN ĐƯỢC ĐÃ CHẾ BIẾN; CÁC LOẠI SÁP ĐỘNG VẬT HOẶC THỰC VẬT']</t>
+  </si>
+  <si>
+    <t>['TH’THỰC PHẨM CHẾ BIẾN; ĐỒ UỐNG, RƯỢU MẠNH VÀ GIẤM; THUỐC LÁ VÀ NGUYÊN LIỆU THAY THẾ THUỐC LÁ ĐÃ CHẾ BIẾN; CÁC SẢN PHẨM CHỨA HOẶC KHÔNG CHỨA NICOTIN, DÙNG ĐỂ HÚT MÀ KHÔNG CẦN ĐỐT CHÁY; CÁC SẢN PHẨM CHỨA NICOTIN KHÁC DÙNG ĐỂ NẠP NICOTIN VÀO CƠ THỂ CON NGƯỜI']</t>
+  </si>
+  <si>
+    <t>['KHOÁNG SẢN']</t>
+  </si>
+  <si>
+    <t>['SẢN PHẨM CỦA NGÀNH CÔNG NGHIỆP HÓA CHẤT HOẶC CÁC NGÀNH CÔNG NGHIỆP LIÊN QUAN']</t>
+  </si>
+  <si>
+    <t>['PLASTIC VÀ CÁC SẢN PHẨM BẰNG PLASTIC; CAO SU VÀ CÁC SẢN PHẨM BẰNG CAO SU']</t>
+  </si>
+  <si>
+    <t>['DA SỐNG, DA THUỘC, DA LÔNG VÀ CÁC SẢN PHẨM TỪ DA; YÊN CƯƠNG VÀ BỘ ĐỒ YÊN CƯƠNG; HÀNG DU LỊCH, TÚI XÁCH TAY VÀ CÁC LOẠI ĐỒ CHỨA TƯƠNG TỰ; CÁC MẶT HÀNG TỪ RUỘT ĐỘNG VẬT (TRỪ RUỘT CON TẰM)']</t>
+  </si>
+  <si>
+    <t>['GỖ VÀ CÁC MẶT HÀNG BẰNG GỖ; THAN TỪ GỖ; LIE VÀ CÁC SẢN PHẨM BẰNG LIE; CÁC SẢN PHẨM TỪ RƠM, CỎ GIẤY HOẶC CÁC VẬT LIỆU TẾT BỆN KHÁC; CÁC SẢN PHẨM BẰNG LIỄU GAI VÀ SONG MÂY']</t>
+  </si>
+  <si>
+    <t>['BỘT GIẤY TỪ GỖ HOẶC TỪ NGUYÊN LIỆU XƠ SỢI XENLULO KHÁC; GIẤY LOẠI HOẶC BÌA LOẠI THU HỒI (PHẾ LIỆU VÀ VỤN THỪA); GIẤY VÀ BÌA VÀ CÁC SẢN PHẨM CỦA CHÚNG']</t>
+  </si>
+  <si>
+    <t>['NGUYÊN LIỆU DỆT VÀ CÁC SẢN PHẨM DỆT']</t>
+  </si>
+  <si>
+    <t>['GIÀY, DÉP, MŨ VÀ CÁC VẬT ĐỘI ĐẦU KHÁC, Ô, DÙ, BA TOONG, GẬY TAY CẦM CÓ THỂ CHUYỂN THÀNH GHẾ, ROI, GẬY ĐIỀU KHIỂN, ROI ĐIỀU KHIỂN SÚC VẬT THÔ KÉO VÀ CÁC BỘ PHẬN CỦA CÁC LOẠI HÀNG TRÊN; LÔNG VŨ CHẾ BIẾN VÀ CÁC SẢN PHẨM LÀM TỪ LÔNG VŨ CHẾ BIẾN; HOA NHÂN TẠO; CÁC SẢN PHẨM LÀM TỪ TÓC NGƯỜI']</t>
+  </si>
+  <si>
+    <t>['SẢN PHẨM BẰNG ĐÁ, THẠCH CAO, XI MĂNG, AMIĂNG, MICA HOẶC CÁC VẬT LIỆU TƯƠNG TỰ; ĐỒ GỐM; SỨ (CERAMIC); THỦY TINH VÀ CÁC SẢN PHẨM BẰNG THỦY TINH']</t>
+  </si>
+  <si>
+    <t>['NGỌC TRAI TỰ NHIÊN HOẶC NUÔI CẤY, ĐÁ QUÝ HOẶC ĐÁ BÁN QUÝ, KIM LOẠI QUÝ, KIM LOẠI ĐƯỢC DÁT PHỦ KIM LOẠI QUÝ, VÀ CÁC SẢN PHẨM CỦA CHÚNG; ĐỒ TRANG SỨC LÀM BẰNG CHẤT LIỆU KHÁC; TIỀN KIM LOẠI']</t>
+  </si>
+  <si>
+    <t>['KIM LOẠI CƠ BẢN VÀ CÁC SẢN PHẨM BẰNG KIM LOẠI CƠ BẢN']</t>
+  </si>
+  <si>
+    <t>['MÁY VÀ CÁC TRANG THIẾT BỊ CƠ KHÍ; THIẾT BỊ ĐIỆN; CÁC BỘ PHẬN CỦA CHÚNG; THIẾT BỊ GHI VÀ TÁI TẠO ÂM THANH, THIẾT BỊ GHI VÀ TÁI TẠO HÌNH ẢNH, ÂM THANH TRUYỀN HÌNH VÀ CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CÁC THIẾT BỊ TRÊN']</t>
+  </si>
+  <si>
+    <t>['XE CỘ, PHƯƠNG TIỆN BAY, TÀU THUYỀN VÀ CÁC THIẾT BỊ VẬN TẢI LIÊN HỢP']</t>
+  </si>
+  <si>
+    <t>['DỤNG CỤ VÀ THIẾT BỊ QUANG HỌC, NHIẾP ẢNH, ĐIỆN ẢNH, ĐO LƯỜNG, KIỂM TRA, CHÍNH XÁC, Y TẾ HOẶC PHẪU THUẬT; ĐỒNG HỒ THỜI GIAN VÀ ĐỒNG HỒ CÁ NHÂN; NHẠC CỤ; CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CHÚNG']</t>
+  </si>
+  <si>
+    <t>['VŨ KHÍ VÀ ĐẠN; CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CHÚNG']</t>
+  </si>
+  <si>
+    <t>['CÁC MẶT HÀNG KHÁC']</t>
+  </si>
+  <si>
+    <t>['CÁC TÁC PHẨM NGHỆ THUẬT, ĐỒ SƯU TẦM VÀ ĐỒ CỔ']</t>
   </si>
   <si>
     <t>['Chú giải.', '1. Trong phần này, khi đề cập đến một giống hoặc một loài động vật, trừ khi có yêu cầu khác, cần phải kể đến cả giống hoặc loài động vật đó còn non.', '2. Trừ khi có yêu cầu khác, trong toàn bộ Danh mục này bất cứ đề cập nào liên quan đến các sản phẩm "được làm khô" cũng bao gồm các sản phẩm được khử nước, làm bay hơi hoặc làm khô bằng đông lạnh.']</t>
@@ -121,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,13 +254,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,7 +306,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -263,6 +340,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,9 +375,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -472,14 +551,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="122.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,172 +574,235 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
       <c r="C5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
       <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
       <c r="C20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
+++ b/uni_craw_section_chapter_header/hsnote/vi_sections_notes_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniconsulting079-my.sharepoint.com/personal/cuongnguyen_eximuni_com/Documents/Attachments/Code/uni_craw_tvpl/uni_craw_section_chapter_header/hsnote/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED6BCBCA03932D4C85DDDAE3BA65B8D92E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5190D98F-0E2F-4EC4-BE34-6817DDF5FC25}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_23F921ED9F1B8813AF2C4C46A5B787944E6A606C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E72EC734-736C-4620-ACCC-7203B2AEFDC3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="540" windowWidth="28800" windowHeight="14940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>section_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>vi_notes</t>
   </si>
   <si>
+    <t>vi_general</t>
+  </si>
+  <si>
     <t>PHẦN I</t>
   </si>
   <si>
@@ -169,22 +172,40 @@
     <t>['Chú giải.', '1. Trong Phần này khái niệm "viên" chỉ các sản phẩm được liên kết bằng phương pháp ép trực tiếp hay bằng cách pha thêm chất kết dính theo tỷ lệ không quá 3% tính theo trọng lượng.']</t>
   </si>
   <si>
-    <t>['Chú giải.', '1.- (A) Các mặt hàng (trừ quặng phóng xạ) đáp ứng các mô tả trong nhóm 28.44 hoặc 28.45 phái được xếp vào các nhóm đó và không được đưa vào nhóm nào khác của Danh mục.', '(B) Theo Chú giải mục (A) trên, các mặt hàng đáp ứng các mô tả trong nhóm 28.43, 28.46 hoặc 28.52 được xếp vào các nhóm đó và không được đưa vào nhóm nào khác của Phần này.', '2.- Theo Chú giải 1 ở trên, các mặt hàng xếp vào các nhóm 30.04, 30.05, 30.06, 32.12, 33.03, 33.04, 33.05, 33.06, 33.07, 35.06, 37.07 hoặc 38.08 vì đã được đóng gói theo liều lượng hoặc đóng gói để bán lẻ được xếp vào các nhóm đó và không xếp vào bất cứ nhóm nào khác của Danh mục.', '3.- Các mặt hàng đóng gói thành bộ gồm từ hai hoặc nhiều phần cấu thành riêng biệt, trong đó một vài hoặc tất cả các phần cấu thành của các mặt hàng đó nằm trong Phần này và chúng được trộn với nhau để tạo ra một sản phẩm của Phần VI hoặc VII, phải được xếp vào nhóm phù hợp với sản phẩm đó, với điều kiện là các phần cấu thành phải:', '(a) theo cách thức đóng gói của chúng cho thấy rõ ràng là chúng được sử dụng cùng nhau mà không cần phải đóng gói lại;', '(b) được trình bày cùng nhau; và', '(c) có thể nhận biết là chúng nhằm bổ sung cho nhau, thông qua bản chất hoặc tỷ lệ tương ứng của chúng trong sản phẩm.', '4.- Trường hợp sản phẩm đáp ứng mô tả tại một hoặc nhiều nhóm trong Phần VI do được mô tả theo tên hoặc nhóm chức và đáp ứng nhóm 38.27, thì sản phẩm đó được phân loại vào nhóm tương ứng theo tên hoặc nhóm chức và không phân loại vào nhóm 38.27.', 'KHÁI QUÁT CHUNG', 'Chú giải 1.', 'Theo các quy định của mục (A) của Chú giải này, tất cả các nguyên tố hóa học phóng xạ và các đồng vị phóng xạ, và các hợp chất của các nguyên tố và các chất đồng vị (có thể là vô cơ hoặc hữu cơ, và đã hoặc chưa được xác định về mặt hóa học), được phân loại ở nhóm 28.44, ngay cả khi chúng cũng có thể được phân loại vào nhóm khác của Danh mục. Ví dụ, glyxerin phóng xạ và natri clorua phóng xạ được phân loại vào nhóm 28.44 chứ không được phân loại vào nhóm 25.01 hoặc 29.05. Tương tự, trong mọi trường hợp ethyl alcohol phóng xạ, vàng phóng xạ và coban phóng xạ sẽ được phân loại trong nhóm 28.44. Tuy nhiên, cũng cần chú ý, các loại quặng phóng xạ được phân loại trong Phần V của Danh mục.', 'Trong trường hợp các chất đồng vị không phóng xạ và các hợp chất của chúng, Chú giải quy định các chất này (ở dạng vô cơ hoặc hữu cơ, và đã hoặc chưa được xác định về mặt hóa học) được phân loại ở nhóm 28.45 và không được phân loại ở nơi nào khác trong Danh mục. Như vậy, các đồng vị của cacbon được phân loại vào nhóm 28.45 và không được phân loại vào nhóm 28.03.', 'Mục (B) của Chú giải quy định các hàng hóa được mô tả trong nhóm 28.43, 28.46 hoặc 28.52 được phân loại vào bất kỳ nhóm nào phù hợp trong các nhóm đó và không được phân loại vào nhóm khác ở Phần VI, với điều kiện là chúng không phải là chất phóng xạ hoặc không ở dạng đồng vị (trong trường hợp chúng được phân loại trong nhóm 28.44 hoặc nhóm 28.45). Do đó, mục này của Chú giải quy định, ví dụ, bạc caseinat được phân loại vào nhóm 28.43 chứ không được phân loại vào nhóm 35.01, và nitrat bạc, ngay cả khi được đóng gói để bán lẻ để sử dụng trong chụp ảnh, được phân loại vào nhóm 28.43 chứ không phải ở nhóm 37.07.', 'Tuy nhiên, cũng cần lưu ý các nhóm 28.43, 28.46 và 28.52 chỉ được ưu tiên hơn các nhóm khác trong Phần VI. Khi các hàng hóa được miêu tả trong nhóm 28.43, 28.46 hoặc 28.52 cũng được xếp vào các nhóm trong các Phần khác của Danh mục, việc phân loại các hàng hóa đó phụ thuộc vào việc áp dụng các Chú giải Phần hoặc Chương liên quan và các Quy tắc Tổng quát của Hệ thống Hài hòa. Theo đó, gadolinite, một hợp chất của kim loại đất hiếm và đã được nêu trong nhóm 28.46, vẫn được phân loại vào nhóm 25.30 bởi vì Chú giải 3 (a) của Chương 28 loại trừ tất cả sản phẩm khoáng của Phần V.', 'Chú giải 2.', 'Chú giải Phần 2 quy định các hàng hóa (trừ các loại đã được miêu tả trong nhóm từ 28.43 đến 28.46 hoặc 28.52) đã được nêu trong các nhóm 30.04, 30.05, 30.06, 32.12, 33.03, 33.04, 33.05, 33.06, 33.07, 35.06, 37.07 hoặc 38.08 vì đã được đóng gói theo liều lượng định sẵn hoặc để bán lẻ, sẽ được phân loại vào các nhóm đó mặc dù chúng cũng có thể được phân loại vào một vài nhóm khác của Danh mục. Ví dụ, lưu huỳnh được đóng gói để bán lẻ để điều trị bệnh được phân loại trong nhóm 30.04 và không được phân loại vào nhóm 25.03 hoặc 28.02, và dextrin được đóng gói để bán lẻ như là một loại keo được phân loại vào nhóm 35.06 và không được phân loại vào nhóm 35.05.', 'Chú giải 3.', 'Chú giải này liên quan đến phân loại của các sản phẩm được đóng gói thành bộ gồm hai hoặc nhiều thành phần riêng rẽ, một số hoặc tất cả các thành phần này được phân loại vào Phần VI. Tuy nhiên, Chú giải này được giới hạn bởi các bộ mà thành phần trong đó dự định được trộn cùng nhau để tạo ra một sản phẩm của Phần VI hoặc Phần VII. Những bộ sản phẩm đó sẽ được phân loại trong nhóm phù hợp với sản phẩm này với điều kiện là các bộ phận cấu thành phải đáp ứng các điều kiện từ mục (a) đến mục (c) của Chú giải.', 'Ví dụ về các hàng hóa trong những bộ sản phẩm như vậy là xi măng gắn răng và chất hàn răng khác thuộc nhóm 30.06 và một số loại vec ni và sơn của các nhóm từ 32.08 đến 32.10 và các loại ma tít, v.v, của nhóm 32.14. Liên quan đến phân loại các hàng hóa được đóng gói mà không có chất làm tăng độ cứng cần thiết, - hãy tham khảo Chú giải Chi tiết Tổng quát của Chương 32 và Chú giải Chi tiết nhóm 32.14.', 'Cần lưu ý rằng các hàng hóa được đóng gói thành bộ bao gồm hai hoặc nhiều thành phần riêng rẽ, một số hoặc tất cả các thành phần đó được xếp vào Phần VI, dự định được sử dụng lần lượt mà không cần trộn trước, sẽ không được phân loại theo Chú giải 3 của Phần này. Những hàng hóa được đóng gói để bán lẻ đó sẽ được phân loại khi áp dụng các Quy tắc Giải thích Tổng quát (thường là Quy tắc 3 (b)); trong trường hợp các sản phẩm đó không được đóng gói để bán lẻ thì các bộ phận cấu thành sẽ được phân loại riêng rẽ.', 'Chú giải 4.', 'Chú giải Phần 4 quy định rằng nhóm 38.27 không được ưu tiên hơn các nhóm khác trong Phần VI khi đề cập đến hàng hóa theo tên hoặc nhóm chức. Vì vậy, ví dụ, hàng hóa có thể thuộc loại đầu tiên của nhóm 38.14, như “hỗn hợp dung môi hữu cơ” và nhóm 38.27, sẽ được phân loại vào nhóm 38.14, mặc dù nội dung của các loại đầu tiên của nhóm 38.14 và nhóm 38.27 có cùng cụm từ “chưa được chi tiết hoặc ghi ở nơi khác”. Tuy nhiên, cần lưu ý rằng nhóm 38.27 được ưu tiên hơn nhóm 38.24 vì nhóm này không đề cập đến những hàng hóa đó theo tên hoặc nhóm chức.']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1.- Các mặt hàng xếp thành bộ từ hai hay nhiều phần cấu thành riêng biệt, trong đó một số hoặc tất cả các phần cấu thành của các mặt hàng nằm trong Phần này được trộn với nhau để tạo ra một sản phẩm của Phần VI hay VII, phải được xếp vào nhóm phù hợp với sản phẩm đó, với điều kiện các phần cấu thành đó thoả mãn:', '(a) theo cách thức đóng gói của chúng cho thấy rõ ràng là chúng được sử dụng cùng nhau mà không cần phải đóng gói lại;', '(b) được trình bày cùng nhau; và', '(c) có thể nhận biết là chúng nhằm bổ sung cho nhau, thông qua bản chất hoặc tỷ lệ tương ứng của chúng trong sản phẩm.', '2.- Trừ những mặt hàng trong nhóm 39.18 hoặc 39.19, plastic, cao su và các sản phẩm của chúng, đã in hoa văn, các ký tự hoặc biểu tượng tranh ảnh, mà không chỉ đơn thuần phục vụ cho công dụng chính của sản phẩm đó, được xếp vào Chương 49.', 'TỔNG QUÁT', 'Chú giải Phần 1.', 'Chú giải này liên quan đến việc phân loại hàng hoá được đóng thành bộ bao gồm từ hai hay nhiều cấu thành riêng biệt, một số hoặc toàn bộ các cấu thành đó được xếp vào Phần VII. Tuy nhiên, Chú giải giới hạn ở những bộ hàng hoá mà trong đó các cấu thành dự kiến được trộn với nhau để tạo thành một sản phẩm của Phần VI hoặc Phần VII. Những bộ hàng hoá đó sẽ được phân loại vào nhóm phù hợp với sản phẩm đó với điều kiện các cấu thành đó đáp ứng các điều kiện trong các mục từ (a) đến (c) của Chú giải.', 'Cần lưu ý rằng các hàng hoá được đóng gói thành bộ bao gồm hai hoặc nhiều cấu thành riêng biệt, một số hoặc tất cả các thành phần đó được xếp vào Phần VII, nhằm được sử dụng lần lượt mà không trộn trước, thì không được phân loại theo Chú giải 1 của Phần này. Những hàng hóa như vậy được đóng gói để bán lẻ sẽ được phân loại bằng cách áp dụng các Quy tắc chú giải tổng quát (thường là Quy tắc 3 (b)); trong trường hợp mà các sản phẩm đó không được đóng gói để bán lẻ thì các cấu thành sẽ được phân loại riêng rẽ.', 'Chú giải Phần 2.', 'Hàng hoá của nhóm 39.18 (sản phẩm lát nền và phủ tường hoặc trần bằng plastic) và nhóm 39.19 (các tấm tự dính… bằng plastic), ngay cả khi chúng được in các motip, các ký tự hoặc các biểu tượng tranh ảnh, không chỉ đơn thuần phục vụ cho công dụng chính của sản phẩm đó, không được xếp vào Chương 49 mà vẫn được phân loại vào các nhóm được nhắc đến ở trên. Tuy nhiên, tất cả các hàng hoá khác bằng plastic hoặc cao su thuộc loại được miêu tả trong Phần này được xếp trong Chương 49 nếu như việc in trên chúng không chỉ đơn thuần phục vụ cho công dụng chính của chúng và plastic hoặc cao su chỉ đóng vai trò là trung gian để in.']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1.- Phần này không bao gồm:', '(a) Lông cứng hoặc lông động vật dùng làm bàn chải (nhóm 05.02); lông đuôi hoặc lông bờm ngựa hoặc phế liệu từ lông đuôi hoặc lông bờm ngựa (nhóm 05.11);', '(b) (b) Tóc người hoặc các sản phẩm bằng tóc người (nhóm 05.01, 67.03 hoặc 67.04), trừ vải lọc dùng trong công nghệ ép dầu hoặc tương tự (nhóm 59.11);', '(c) Xơ của cây bông hoặc các vật liệu thực vật khác thuộc Chương 14;', '(d) Amiăng (asbestos) thuộc nhóm 25.24 hoặc các sản phẩm từ amiăng hoặc các sản phẩm khác thuộc nhóm 68.12 hoặc 68.13;', '(e) Các sản phẩm thuộc nhóm 30.05 hoặc 30.06; chỉ sử dụng để làm sạch các kẽ răng (chỉ tơ nha khoa), đóng gói để bán lẻ, thuộc nhóm 33.06;', '(f) Các loại vải dệt có phủ lớp chất nhạy thuộc các nhóm từ 37.01 đến 37.04;', '(g) Sợi monofilament có kích thước mặt cắt ngang bất kỳ trên 1 mm hoặc dải hoặc dạng tương tự (ví dụ, sợi rơm nhân tạo) có chiều rộng biểu kiến trên 5 mm, bằng plastic (Chương 39), hoặc các loại dây tết bện hoặc vải hoặc sản phẩm dạng song mây tre đan khác hoặc liễu gai làm bằng sợi monofilament hoặc dải đó (Chương 46);', '(h) Các loại vải dệt thoi, dệt kim hoặc móc, phớt hoặc sản phẩm không dệt, đã ngâm tẩm, tráng, phủ hoặc ép với plastic, hoặc các sản phẩm làm từ các vật liệu đó, thuộc Chương 39;', '(ij) Các loại vải dệt thoi, dệt kim hoặc móc, phớt hoặc sản phẩm không dệt, đã ngâm tẩm, tráng, phủ hoặc ép với cao su, hoặc các sản phẩm làm từ các vật liệu đó, thuộc Chương 40;', '(k) Da sống còn lông (Chương 41 hoặc 43) hoặc sản phẩm da lông, da lông nhân tạo hoặc các sản phẩm làm bằng các vật liệu đó, thuộc nhóm 43.03 hoặc 43.04;', '(l) Các loại hàng hóa làm bằng vật liệu dệt thuộc nhóm 42.01 hoặc 42.02;', '(m) Các sản phẩm hoặc hàng hóa thuộc Chương 48 (ví dụ, mền xơ xenlulo)', '(n) Giày, dép hoặc các bộ phận của giày dép, ghệt hoặc ống ôm sát chân (leggings) hoặc các mặt hàng tương tự thuộc Chương 64;', '(o) Lưới bao tóc hoặc các vật đội đầu khác hoặc các bộ phận của chúng thuộc Chương 65;', '(p) Hàng hóa thuộc Chương 67;', '(q) Vật liệu dệt đã phủ bột mài (nhóm 68.05) và xơ carbon hoặc các sản phẩm bằng xơ carbon thuộc nhóm 68.15;', '(r) Sợi thủy tinh hoặc các sản phẩm bằng sợi thủy tinh, trừ hàng thêu bằng chỉ thủy tinh trên vải lộ nền (Chương 70);', '(s) Hàng hóa thuộc Chương 94 (ví dụ, đồ nội thất, bộ đồ giường, đèn (luminaires) và bộ đèn);', '(t) Hàng hóa thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ thể thao và lưới);', '(u) Hàng hóa thuộc Chương 96 (ví dụ, bàn chải, bộ đồ khâu du lịch, khoá kéo và ruy băng máy chữ, băng vệ sinh (miếng) và băng vệ sinh dạng ống (tampon), khăn (bỉm) và tã lót; hoặc', '(v) Hàng hóa thuộc Chương 97.', '2. (A) Hàng hóa có thể phân loại vào các Chương từ 50 đến 55 hoặc nhóm 58.09 hoặc 59.02 và được làm từ hỗn hợp của hai hoặc nhiều loại vật liệu dệt được phân loại như sản phẩm đó làm từ vật liệu dệt nào chiếm khối lượng trội hơn.', 'Khi không có một vật liệu dệt nào chiếm khối lượng trội hơn, hàng hóa sẽ được phân loại xem như nó được làm toàn bộ từ một vật liệu dệt của nhóm có thứ tự cuối cùng trong số các nhóm tương đương cùng đưa ra xem xét.', '(B) Quy tắc trên được hiểu là:', '(a) Sợi quấn từ lông đuôi và bờm ngựa (nhóm 51.10) với sợi trộn kim loại (nhóm 56.05) được phân loại như một loại vật liệu dệt đơn có khối lượng bằng tổng khối lượng của các thành phần của nó; để phân loại vải dệt thoi, sợi kim loại được coi như là một vật liệu dệt;', '(b) Để chọn nhóm thích hợp trước tiên phải lựa chọn Chương phù hợp và sau đó lựa chọn nhóm thích hợp trong Chương đó, kể cả trong thành phần hàng hóa có loại vật liệu không thuộc Chương đó;', '(c) Khi cả hai Chương 54 và 55 đều liên quan đến một Chương khác, thì Chương 54 và 55 được xem như một Chương;', '(d) Trường hợp một Chương hoặc một nhóm đề cập đến hàng hóa làm từ các vật liệu dệt khác nhau, các vật liệu dệt này được xem như một loại vật liệu đơn.', '(C) Các nguyên tắc của phần (A) và (B) trên đây cũng áp dụng cho các loại sợi nêu trong Chú giải 3, 4, 5 hoặc 6 dưới đây.', '3.(A) Theo mục đích của Phần này, và những nội dung loại trừ trong phần (B) tiếp theo, các loại sợi (đơn, xe (folded) hoặc cáp) của mô tả dưới đây sẽ được xem như "sợi xe, chão bện (cordage), thừng và cáp":', '(a) Từ tơ tằm hoặc phế liệu tơ tằm, độ mảnh trên 20.000 decitex;', '(b) Từ các xơ nhân tạo (kể cả sợi từ 2 hoặc nhiều sợi monofilament thuộc Chương 54), độ mảnh trên 10.000 decitex;', '(c) Từ gai dầu hoặc lanh:', '(i) Đã chuốt hoặc làm bóng, độ mảnh từ 1.429 decitex trở lên; hoặc', '(ii) Chưa chuốt hoặc chưa làm bóng, độ mảnh trên 20.000 decitex;', '(d) Từ xơ dừa, gồm từ 3 sợi trở lên;', '(e) Từ xơ thực vật khác, độ mảnh trên 20.000 decitex; hoặc', '(f) Được tăng cường bằng chỉ kim loại.', '(B) Loại trừ:', '(a) Sợi bằng lông cừu hoặc lông động vật khác và bằng sợi giấy, trừ sợi được tăng cường bằng sợi kim loại;', '(b) Tô (tow) filament nhân tạo thuộc Chương 55 và sợi multifilament không xoắn hoặc xoắn dưới 5 vòng xoắn trên mét thuộc Chương 54;', '(c) Ruột con tằm thuộc nhóm 50.06, và các sợi monofilament thuộc Chương 54;', '(d) Sợi trộn kim loại thuộc nhóm 56.05; sợi được tăng cường bằng sợi kim loại đã nêu trong Phần (A) (f) trên; và', '(e) Sợi sơnin (chenille), sợi quấn và sợi sùi vòng thuộc nhóm 56.06.', '4. (A) Theo mục đích của các Chương 50, 51, 52, 54 và 55, khái niệm sợi "đóng gói để bán lẻ" có nghĩa là, lưu ý xem xét cả những loại trừ trong Phần (B) dưới đây, sợi (đơn, xe (folded) hoặc cáp) đóng gói ở các dạng:', '(a) Trên bìa, guồng gờ, ống tuýp hoặc cuộn có lõi tương tự, với khối lượng (kể cả lõi) không quá:', '(i) 85 g đối với tơ tằm, phế liệu tơ tằm hoặc sợi filament nhân tạo; hoặc', '(ii) 125 g đối với các loại sợi khác;', '(b) Dạng hình cầu, con sợi hoặc cuộn sợi với khối lượng không quá:', '(i) 85 g đối với sợi filament nhân tạo độ mảnh dưới 3.000 decitex, tơ tằm hoặc phế liệu tơ tằm;', '(ii) 125 g đối với các loại sợi khác có độ mảnh dưới 2.000 decitex; hoặc', '(iii) 500 g đối với các loại sợi khác.', '(c) Dạng con sợi hoặc cuộn sợi gồm các con sợi hoặc cuộn sợi nhỏ hơn được phân cách nhau bởi các đường chỉ làm cho chúng độc lập với nhau, mỗi con sợi hoặc cuộn sợi nhỏ có khối lượng đồng nhất không quá:', '(i) 85 g đối với tơ tằm, phế liệu tơ tằm hoặc sợi filament nhân tạo; hoặc', '(ii) 125 g đối với các loại sợi khác.', '(B) Loại trừ:', '(a) Sợi đơn bằng nguyên liệu dệt bất kỳ, trừ:', '(i) Sợi đơn bằng lông cừu hoặc lông động vật loại mịn, chưa tẩy trắng; và', '(ii) Sợi đơn bằng lông cừu hoặc lông động vật loại mịn, đã tẩy trắng, nhuộm hoặc đã in, độ mảnh trên 5.000 decitex;', '(b) Sợi xe (folded) hoặc sợi cáp, chưa tẩy trắng:', '(i) Bằng tơ tằm hoặc phế liệu tơ tằm, đã đóng gói; hoặc', '(ii) Bằng nguyên liệu dệt khác trừ lông cừu hoặc lông động vật loại mịn, ở dạng con sợi hoặc cuộn sợi;', '(c) Sợi xe (folded) hoặc sợi cáp bằng tơ tằm hoặc phế liệu tơ tằm, đã tẩy trắng, nhuộm hoặc in, độ mảnh từ 133 decitex trở xuống; và', '(d) Sợi đơn, sợi xe (folded) hoặc sợi cáp bằng nguyên liệu dệt bất kỳ:', '(i) Ở dạng con sợi hoặc cuộn sợi được guồng chéo; hoặc', '(ii) Cuộn trên lõi hoặc cuộn cách khác để sử dụng trong công nghiệp dệt (ví dụ, cuộn trên ống sợi con, ống sợi xe, suốt ngang, bobin côn hoặc cọc sợi, hoặc cuốn theo dạng kén tằm dùng cho các máy thêu).', '5. Theo mục đích của các nhóm 52.04, 54.01 và 55.08, khái niệm "chỉ khâu" có nghĩa là loại sợi xe (folded) hoặc sợi cáp:', '(a) Cuộn trên lõi (ví dụ, guồng gờ, ống tuýp) khối lượng không quá 1.000 g (kể cả lõi);', '(b) Đã hoàn tất để sử dụng làm chỉ khâu; và', '(c) Có xoắn "Z" cuối cùng.', '6. Theo mục đích của Phần này, khái niệm "sợi có độ bền cao" có nghĩa là loại sợi có độ bền tương đối đo bằng cN/tex (xen ti newton một tex), lớn hơn các tiêu chuẩn sau đây:', 'Sợi đơn bằng ni lông hoặc các polyamit khác, hoặc bằng polyeste………60cN/tex', 'Sợi xe (folded) hoặc sợi cáp bằng ni lông hoặc các polyamit khác, hoặc bằng polyeste……..53 cN/tex', 'Sợi đơn, sợi xe (folded) hoặc sợi cáp bằng viscose rayon……27 cN/tex.', '7. Theo mục đích của Phần này, khái niệm "hoàn thiện" nghĩa là:', '(a) Đã cắt thành hình trừ hình vuông hoặc hình chữ nhật;', '(b) Được tạo ra trong công đoạn hoàn thiện, sẵn sàng để sử dụng (hoặc chỉ cần tách ra bằng cách cắt các đường chỉ phân chia) mà không cần phải khâu, may hoặc gia công khác (ví dụ, khăn chuyên lau bụi, khăn lau, khăn trải bàn, khăn vuông, mền chăn);', '(c) Cắt theo cỡ và có ít nhất một cạnh được làm kín bằng nhiệt mà đường viền được nén hoặc vuốt thon nhận ra dễ dàng và các cạnh khác được xử lý như đã mô tả trong phần khác bất kỳ của Chú giải này, nhưng trừ các vải có các mép đã được làm cho khỏi sổ bằng cách cắt nóng hoặc bằng các phương pháp đơn giản khác;', '(d) Đã viền lại hoặc cuộn mép, hoặc thắt nút tại bất kỳ mép nào nhưng trừ các loại vải có các mép cắt được làm cho khỏi sổ bằng cách khâu vắt hoặc các cách đơn giản khác;', '(e) Cắt theo cỡ và đã trải qua công đoạn gia công rút chỉ;', '(f) Đã ghép bằng cách khâu, may, dán dính hoặc cách khác (trừ loại hàng dệt tấm gồm hai hoặc nhiều tấm trở lên có cùng chất liệu dệt được ghép nối đuôi nhau và những tấm làm từ hai hoặc nhiều loại vật liệu dệt trở lên được ghép thành lớp, có hoặc không có đệm);', '(g) Dệt kim hoặc móc thành các hình dạng, hoặc trình bày ở dạng các chi tiết riêng biệt hoặc ở dạng một số các chi tiết gắn thành một dải.', '8. Theo mục đích của các Chương từ 50 đến 60:', '(a) Các Chương từ 50 đến 55 và Chương 60 và, trừ khi có yêu cầu khác, các Chương từ 56 đến 59, không áp dụng cho hàng hóa hoàn thiện đã nêu tại Chú giải 7 trên đây; và', '(b) Các Chương từ 50 đến 55 và Chương 60 không áp dụng cho các hàng hóa của các Chương từ 56 đến 59.', '9. Vải dệt thoi thuộc các Chương từ 50 đến 55 kể cả các loại vải có các lớp sợi dệt song song được đan đặt lên nhau theo góc nhọn hoặc góc vuông. Những lớp này được gắn tại các giao điểm của sợi bằng các chất kết dính hoặc liên kết bằng nhiệt.', '10. Sản phẩm có tính đàn hồi bằng những vật liệu dệt kết hợp với sợi cao su cũng được phân loại trong Phần này.', '11. Theo mục đích của Phần này, khái niệm "đã ngâm tẩm" kể cả "đã nhúng".', '12. Theo mục đích của Phần này, khái niệm "polyamit" kể cả "aramit".', '13. Theo mục đích của Phần này và, cũng như một số trường hợp thuộc Danh mục này, khái niệm “sợi đàn hồi” có nghĩa là sợi filament, kể cả monofilament, bằng chất liệu dệt tổng hợp, trừ sợi dún, không bị đứt khi bị kéo dãn ra gấp ba lần độ dài ban đầu và khi kéo dãn ra gấp hai lần độ dài ban đầu trong thời gian năm phút sẽ co lại còn độ dài không lớn hơn 1,5 lần độ dài ban đầu.', '14. Trừ khi có quy định khác, hàng dệt may sẵn thuộc các nhóm khác nhau phải được phân loại theo các nhóm phù hợp của từng loại ngay cả khi sắp xếp theo bộ để bán lẻ. Theo mục đích của Chú giải này, khái niệm "hàng dệt may sẵn" nghĩa là các hàng hóa của các nhóm từ 61.01 đến 61.14 và từ 62.01 đến 62.11.', '15. Theo Chú giải 1 của Phần XI, hàng dệt, may và các mặt hàng dệt khác, kết hợp các thành phần hóa học, cơ khí hoặc điện tử để tạo thêm chức năng, cho dù được kết hợp dưới dạng các thành phần tích hợp hoặc bến trong sợi hoặc vải, được phân loại theo các nhóm tương ứng trong Phần XI với điều kiện là chúng vẫn giữ được đặc tính cơ bản của hàng hóa thuộc Phần này.', 'Chú giải Phân nhóm.', '1. Trong Phần này cũng như những Phần khác của Danh mục, các khái niệm dưới đây có ý nghĩa là:', '(a) Sợi chưa tẩy trắng', 'Là loại sợi:', '(i) có màu tự nhiên của các loại xơ gốc và chưa tẩy trắng, nhuộm (cả khối hoặc không) hoặc in; hoặc', '(ii) có màu không xác định được ("sợi mộc (grey yarn)"), được sản xuất từ nguyên liệu tái sinh.', 'Loại sợi này có thể được xử lý bằng cách hồ không màu hoặc nhuộm không bền màu (mất màu sau khi giặt bình thường bằng xà phòng) và, nếu là xơ nhân tạo thì có thể được xử lý cả khối với tác nhân khử bóng (ví dụ, titan đioxit).', '(b) Sợi đã tẩy trắng', 'Là loại sợi:', '(i) đã qua quá trình tẩy trắng, được làm từ các xơ đã tẩy trắng hoặc, trừ khi có yêu cầu khác, đã được nhuộm tăng trắng (cả khối hoặc không) hoặc đã xử lý bằng hồ trắng;', '(ii) gồm hỗn hợp của xơ đã tẩy trắng và chưa tẩy trắng; hoặc', '(iii) sợi xe (folded) hoặc sợi cáp được làm từ sợi đã tẩy trắng và chưa tẩy trắng.', '(c) Sợi màu (đã nhuộm hoặc đã in)', 'Là loại sợi:', '(i) đã nhuộm (cả khối hoặc không) trừ màu trắng hoặc màu không bền, hoặc đã in, hoặc làm từ các loại xơ đã nhuộm hoặc đã in;', '(ii) gồm hỗn hợp của các xơ đã nhuộm từ màu khác nhau hoặc hỗn hợp của xơ chưa tẩy trắng hoặc đã tẩy trắng với các xơ màu (sợi macnơ hoặc sợi hỗn hợp), hoặc được in một hoặc nhiều màu cách khoảng tạo thành các chấm đốm;', '(iii) làm từ cúi hoặc sợi thô đã in; hoặc', '(iv) là sợi xe (folded) hoặc sợi cáp và gồm cả sợi đã tẩy trắng hoặc chưa tẩy trắng và sợi màu', 'Những định nghĩa trên đây cũng áp dụng, một cách tương tự, cho sợi monofilament và dải hoặc dạng tương tự của Chương 54.', '(d) Vải dệt thoi chưa tẩy trắng', 'Vải dệt thoi được làm từ sợi chưa tẩy trắng và vải đó chưa được tẩy trắng, nhuộm hoặc in. Loại vải này có thể được xử lý bằng cách hồ không màu hoặc nhuộm không bền màu.', '(e) Vải dệt thoi đã tẩy trắng', 'Loại vải dệt thoi:', '(i) đã được tẩy trắng hoặc, trừ khi có yêu cầu khác, nhuộm tăng trắng, hoặc xử lý bằng loại hồ tăng trắng, ở dạng mảnh;', '(ii) dệt từ sợi đã tẩy trắng; hoặc', '(iii) dệt từ sợi đã tẩy trắng và sợi chưa tẩy trắng.', '(f) Vải dệt thoi đã nhuộm', 'Là loại vải dệt thoi:', '(i) đã được nhuộm đồng đều một màu trừ màu trắng (trừ một số trường hợp có yêu cầu khác) hoặc được xử lý bằng sự hoàn thiện màu trừ màu trắng (trừ một số trường hợp có yêu cầu khác), ở dạng mảnh; hoặc', '(ii) dệt từ sợi được nhuộm đồng đều một màu.', '(g) Vải dệt thoi bằng các loại sợi màu khác nhau', 'Là vải dệt thoi (trừ vải dệt thoi đã in):', '(i) bằng các loại sợi có màu khác nhau hoặc các loại sợi cùng màu có độ đậm nhạt (shades) khác nhau (trừ màu tự nhiên của các loại xơ hợp thành);', '(ii) bằng các loại sợi chưa tẩy trắng hoặc đã tẩy trắng và soi màu; hoặc', '(iii) dệt bằng sợi macnơ hoặc sợi hỗn hợp', '(Trong mọi trường hợp, các loại sợi dùng làm sợi biên hoặc sợi đầu tấm không được xem xét).', '(h) Vải dệt thoi đã in', 'Là loại vải dệt thoi đã được in ở dạng mảnh, được dệt hoặc không dệt từ các sợi có màu khác nhau.', '(Các loại sau đây cũng được xem như vải dệt thoi đã in: vải dệt thoi có các hình được tạo ra bằng cách, ví dụ, dùng bàn chải hoặc súng phun, dùng giấy chuyển màu, bằng cấy nhung hoặc bằng quá trình batik.)', 'Quá trình kiềm bóng không ảnh hưởng đến việc phân loại của các loại sợi hoặc các loại vải kể trên..', 'Các định nghĩa tại các phần từ (d) đến (h) nêu trên cũng được áp dụng tương tự với các loại vải dệt kim hoặc móc.', '(ij) Vải dệt vân điểm', 'Là loại vải có cấu trúc trong đó mỗi sợi ngang tuần tự đan xen ở trên và ở dưới sợi dọc kế tiếp và mỗi sợi dọc tuần tự đan xen ở trên và ở dưới sợi ngang kế tiếp.', '2. (A) Các sản phẩm thuộc các Chương 56 đến 63 làm từ hai hoặc nhiều vật liệu dệt được xem như làm từ toàn bộ một loại vật liệu dệt mà loại vật liệu dệt đó được lựa chọn theo Chú giải 2 Phần này để phân loại một sản phẩm thuộc các Chương từ 50 đến 55 hoặc thuộc nhóm 58.09 làm từ các vật liệu dệt giống nhau.', '(B) Để áp dụng qui tắc này:', '(a) trong trường hợp thích hợp, chỉ có phần quyết định việc phân loại theo Qui tắc tổng quát 3 mới được đưa ra xem xét;', '(b) trường hợp sản phẩm dệt làm từ một lớp vải nền và lớp bề mặt có tuyết hoặc vòng thì không cần xem xét đến vải nền;', '(c) trường hợp hàng thêu thuộc nhóm 58.10 và sản phẩm của nó, chỉ cần phân loại theo vải nền. Tuy nhiên, đồ thêu không lộ nền, và cả sản phẩm của nó, được phân loại theo chỉ thêu.', 'TỔNG QUÁT', 'Nói chung, Phần XI bao gồm những loại nguyên liệu thô của công nghiệp dệt (tơ, lông cừu, bông, sợi nhân tạo, v.v.), các bán thành phẩm (Ví dụ như sợi và vải dệt thoi) và các mặt hàng hoàn chỉnh làm từ các bán thành phẩm này. Mặc dù vậy, phần XI loại trừ một số nguyên liệu và sản phẩm như đã đề cập trong Chú giải 1 Phần XI, Chú giải (của) các Chương nhất định hay theo các Chú giải chi tiết sau ở các nhóm trong phần này. Đặc biệt, những nhóm sau không được phân loại trong Phần XI:', '(a) Tóc người và các mặt hàng làm từ nó (thông thường thuộc nhóm 05.01, 67.03 hoặc 67.04), loại trừ loại vải lọc được sử dụng trong ép dầu hay loại tương tự (nhóm 59.11).', '(b) Sợi amiăng và các mặt hàng (sợi, vải , quần áo, v.v...) từ sợi amiăng (nhóm 25.24, 68.12 hay 68.13).', '(c) Sợi, xơ carbon và các loại sợi khoáng phi kim (Ví dụ: cacbua silicon, bông len đá) và các sản phẩm từ các loại sợi này (Chương 68).', '(d) Sợi thủy tinh, sợi, vải và các mặt hàng làm từ chúng, và các loại sản phẩm hỗn hợp làm từ sợi thủy tinh và sợi dệt có đặc tính như sản phẩm dệt từ sợi thủy tinh (Chương 70), trừ hàng thêu bằng chỉ thủy tinh trên vải lộ nền.', 'Phần XI được chia làm 14 Chương và có thể phân ra làm 2 phần nhỏ. Phần thứ nhất (các Chương từ 50 đến 55) được chia theo bản chất của vật liệu dệt và phần thứ hai (các Chương từ 56 đến 63), trừ các nhóm từ 58.09 và 59.02, bao gồm các sản phẩm không có sự phân biệt, ở cấp độ nhóm, theo bản chất của vật liệu dệt.', '(I) CÁC CHƯƠNG 50 ĐẾN 55', 'Các Chương từ 50 đến 55, mỗi chương đề cập đến một hay nhiều loại vật liệu dệt, những vật liệu này ở dạng đơn hoặc hỗn hợp, ở các giai đoạn sản xuất khác nhau bao gồm cả giai đoạn chuyển hoá thành vải dệt thoi như đã mô tả trong Phần (I)(C) dưới đây. Trong đa số các trường hợp, các chương này bao gồm nguyên liệu thô, phế phẩm thu lại (kể cả nguyên liệu tái chế nhưng không bao gồm vải vụn không rách), xơ đã được chải thô hay chải kỹ ở dạng cúi chải, sợi thô, v.v...sợi và vải dệt thoi', '(A) Phân loại các sản phẩm được tạo thành từ các nguyên liệu dệt hỗn hợp', '(xem Chú giải 2 Phần XI)', 'Một sản phẩm dệt có thể phân loại vào một nhóm bất kỳ trong các Chương từ 50 đến 55 (phế liệu, sợi, vải dệt thoi, ..v.v.) hoặc vào nhóm 58.09 hoặc nhóm 59.02 và từ hỗn hợp của hai hoặc nhiều nguyên liệu dệt khác nhau thì được phân loại theo hàng hóa được làm hoàn toàn từ nguyên liệu dệt chiếm tỷ trọng trội hơn so với bất kỳ từng nguyên liệu dệt khác.', 'Khi không có một loại nguyên liệu dệt nào chiếm tỷ trọng trội hơn thì hàng hóa trong trường hợp đó sẽ được phân loại theo hàng hóa được làm hoàn toàn từ một nguyên liệu dệt thuộc nhóm có số thứ tự sau cùng trong số những nhóm được xem xét ngang nhau:', 'Nguyên liệu dệt có thể được pha trộn:', '- trước hoặc trong quá trình kéo sợi;', '- trong quá trình xe sợi;', '- trong quá trình dệt.', 'Trong trường hợp có những sản phẩm (trừ loại ở nhóm 58.11) làm từ hai hay nhiều hơn các vải dệt có thành phần khác nhau kết hợp thành các lớp bằng cách khâu, dán vào nhau, v.v...thì việc phân loại để xác định phải phù hợp với Quy tắc 3. Theo đó, Chú giải 2 Phần XI chỉ áp dụng khi cần thiết cho việc xác định vật liệu dệt chiếm ưu thế về tỷ trọng vải được xem xét để phân loại sản phẩm nói chung.', 'Tương tự như vậy, các điều khoản của Chú giải 2 Phần XI áp dụng cho những sản phẩm đã được pha trộn (cấu thành) từ các nguyên liệu dệt và nguyên liệu không dệt chỉ khi, bởi vì các Quy tắc tổng quát giải thích Danh mục, chúng được phân loại như các sản phẩm dệt.', 'Để áp dụng Chú giải 2 của Phần này, cần chú ý rằng:', '(1) Khi một Chương hay một nhóm đề cập đến các sản phẩm được làm từ các loại nguyên liệu dệt khác nhau, những nguyên liệu này được kết hợp lại với nhau vì mục đích phân loại các sản phẩm tương tự chứa hỗn hợp của nguyên liệu đó với nguyên liệu khác; việc lựa chọn nhóm phù hợp trước tiên là xác định Chương, sau đó mới tới nhóm có thể phân loại trong Chương đó, mà không phụ thuộc vào bất kỳ nguyên liệu nào không được phân loại trong Chương đó.', 'Ví dụ:', '(a) Vải dệt thoi gồm:', 'Tỷ trọng xơ staple tổng hợp 40%', 'Tỷ trọng lông cừu chải kỹ 35%, và', 'Tỷ trọng lông động vật mịn chải kỹ 25%', 'thì không được phân loại trong nhóm 55.15 (những mặt hàng dệt thoi khác từ xơ staple tổng hợp) mà được phân loại trong nhóm 51.12 (vải dệt thoi từ sợi len lông cừu chải kỹ hoặc từ sợi lông động vật loại mịn chải kỹ) vì trong trường hợp này, tỷ lệ của lông cừu và lông động vật dạng mịn phải được cộng gộp lại.', '(b) Vải dệt thoi có trọng lượng 210g/m2 gồm:', 'Tỷ trọng bông 40%,', 'Tỷ trọng xơ staple tái tạo 30%, và', 'Tỷ trọng xơ staple tổng hợp 30%', 'thì không được phân loại trong nhóm 52.11 (vải dệt thoi từ sợi bông, có tỷ trọng bông dưới 85%, pha chủ yếu hay duy nhất với xơ sợi nhân tạo, có trọng lượng lớn hơn 200g/m2) hay trong nhóm 55.14 (vải dệt thoi từ xơ staple tổng hợp, có tỷ trọng loại xơ này dưới 85% pha chủ yếu hay pha duy nhất với bông có trọng lượng lớn hơn 170g/m2) mà lại đưa vào nhóm 55.16 (vải dệt thoi từ xơ staple tái tạo). Sự phân loại này đạt được bởi việc xác định trước nhất là Chương thích hợp (trong trường hợp này là Chương 55, vì tỷ lệ về xơ staple tổng hợp và xơ staple tái tạo được cộng lại), và sau đó là nhóm có thể phân loại trong Chương đó mà trong ví dụ này là nhóm 55.16, nhóm có số thứ tự sau cùng trong số những nhóm được xem xét (có giá trị) ngang nhau.', '(c) Vải dệt thoi bao gồm', 'Tỷ trọng lanh 35%', 'Tỷ trọng đay 25%', 'Tỷ trọng bông 40%', 'Hàng dệt này không được phân loại trong nhóm 52.12 (vải dệt thoi khác từ bông) nhưng lại được phân loại trong nhóm 53.09 (vải dệt thoi từ sợi lanh). Sự phân loại này đạt được bởi việc xác định trước nhất là Chương thích hợp (trong trường hợp này là Chương 53 vì tỷ lệ về sợi lanh và sợi đay được cộng lại) và sau đó là nhóm có thể phân loại trong Chương đó, ở ví dụ này là nhóm 53.09 vì tỷ lệ lanh trội hơn đay, tỷ lệ bông không được để ý đến theo Chú giải 2 (B) (b) của Phần này.', '(2) Sợi quấn từ lông đuôi và lông bờm ngựa và sợi trộn kim loại hoá được coi như những nguyên liệu dệt đơn và trọng lượng của chúng được tính gộp vào trọng lượng các thành phần cấu thành.', '(3) Trong quá trình phân loại vải dệt thoi, sợi kim loại được xem như là nguyên liệu dệt.', '(4) Khi cả hai Chương 54 và 55 đều có liên quan đến một Chương khác, thì Chương 54 và 55 được xem như một Chương.', 'Ví dụ:', 'Vải dệt thoi bao gồm:', 'Tỷ trọng sợi filament tổng hợp 35%,', 'Tỷ trọng xơ staple tổng hợp 25%, và', 'Tỷ trọng lông cừu chải kỹ 40%', 'thì không được phân loại trong nhóm 51.12 (vải dệt thoi từ lông cừu chải kỹ hoặc từ lông động vật loại mịn chải kỹ) nhưng lại được phân loại trong nhóm 54.07 (vải dệt thoi từ sợi filament tổng hợp), vì các tỷ lệ sợi filament tổng hợp và sợi staple tổng hợp, trong trường hợp này, phải được cộng lại.', '(5) Việc định kích cỡ vải hay hồ vải (ví dụ tăng trọng lượng (làm cho nặng thêm) trong trường hợp đối với tơ tằm) cũng như các chất dùng để ngâm tẩm, tráng, phủ hay bao bọc, được kết hợp với các sợi dệt đều không được coi là vật liệu không dệt. Nói một cách khác, trọng lượng của sợi dệt được tính toán dựa trên cơ sở trọng lượng của chúng ở trạng thái mà chúng hiện hữu.', 'Khi quyết định nếu việc pha trộn chủ yếu là từ một vật liệu dệt cụ thể, cần xem xét tới vật liệu dệt nào (đưa vào) chiếm ưu thế về tỷ trọng so với các vật liệu khác trong sự pha trộn đó.', 'Ví dụ:', 'Vải dệt thoi có trọng lượng không hơn 200g/m2 bao gồm:', 'Tỷ trọng bông 55%,', 'Tỷ trọng xơ sợi nhân tạo 22%,', 'Tỷ trọng lông cừu 21%, và', 'Tỷ trọng tơ tằm 2%', 'thì không thuộc nhóm 52.12 (vải dệt thoi khác từ sợi bông) mà ở trong nhóm 52.10 (các loại vải dệt thoi từ sợi bông, có tỷ trong bông dưới 85%, pha chủ yếu hay pha duy nhất với xơ sợi nhân tạo, trọng lượng không vượt quá 200g/m2).', '(B) Sợi', '(1) Khái quát chung.', 'Sợi dệt có thể là sợi đơn, sợi xe hay sợi cáp. Tùy theo mục đích của danh mục thì:', '(i) Sợi đơn là sợi được tạo thành bằng một trong 2 cách sau:', '(a) Những xơ ngắn thường được liên kết với nhau bằng quá trình xoắn (Sợi từ các xơ cắt ngắn); hay bằng', '(b) Một filament (mono filament) của các nhóm 54.02 đến 54.05 hoặc từ 2 hay nhiều filament của nhóm 54.02 hay 54.03 được liên kết với nhau, có hoặc không có xoắn (sợi liên tục).', '(ii) Sợi xe nghĩa là sợi có từ hai hay nhiều sợi đơn, kể cả loại được tạo thành từ những sợi mono filament của nhóm 54.04 hay 54.05 (sợi xe hai, xe ba, xe bốn, v.v...) được xoắn lại với nhau trong cùng một công đoạn xoắn. Tuy nhiên, những sợi được hình thành chủ yếu từ các sợi mono filament trong nhóm 54.02 hay 54.03, được liên kết với nhau bằng cách xoắn, thì không được xem là sợi xe.', 'Tao sợ của sợi xe là mỗi sợi đơn trong sợi xe tạo thành.', '(iii) Sợi cáp là sợi được hình thành từ hai hay nhiều sợi nhưng tối thiểu phải có ít nhất là một sợi xe, chúng được xoắn với nhau qua một hay nhiều công đoạn xoắn.', 'Tao sợi của sợi cáp có nghĩa là mỗi sợi đơn hay sợi xe trong sợi cáp tạo thành.', 'Sợi được đề cập ở trên có khi còn được gọi là sợi xoắn phức được tạo thành bởi việc ghép hai hay nhiều sợi đơn, sợi xe hay sợi cáp. Những sợi này được thừa nhận như là sợi đơn, sợi phức hay sợi cáp tùy theo loại sợi mà chúng bao hàm.', 'Sợi đơn, sợi phức hay sợi cáp có thể có những vòng nổi hay những mẩu sợi xe giữa các điểm cách khoảng. Chúng có thể bao gồm 2 hay nhiều sợi mà một sợi trong nó bị xoắn ngược với nhau tại giữa các điểm cách khoảng để mang lại hiệu ứng các vòng nổi hay phồng lên.', 'Sợi đã đánh bóng hay đã làm bóng là sợi đã được xử lý bằng các chất tự nhiên (sáp, parafin...) hay bằng các chất tổng hợp (nhựa acryic). Những sợi này được làm bóng bằng cách dùng trục lăn làm bóng.', 'Sợi được ký hiệu tùy theo độ mảnh của nó. Có nhiều hệ thống khác nhau để tính toán hoặc đo độ mảnh vẫn còn được sử dụng. Tuy nhiên, Danh mục vẫn sử dụng hệ đo phổ thông “Tex”, nó là một đơn vị diễn tả mật độ thẳng, tương đương với trọng lượng tính bằng gram trên một kilomet sợi, filament, sợi cơ bản hay các tao sợi dệt khác. Một decitex thì bằng 0,1 Tex. Công thức sau đây được áp dụng cho việc chuyển hoá chỉ số mét thành chỉ số decitex:', 'Sợi có thể ở dạng chưa được tẩy trắng, đã được tẩy, tẩy trắng, đã nhuộm màu, đã in, bôi macnơ v.v… Chúng cũng có thể đã được hơ trên đèn khí (tức là: Làm cháy xém để loại bỏ những xơ nhô ra bên ngoài bề mặt sợi), ngâm kiềm (tức là: xử lý dưới sức căng với hydroxit natri), ngâm dầu, v.v...', 'Mặc dầu vậy các Chương từ 50 đến 55 không bao gồm:', '(a) Chỉ cao su, vải đã được bọc và sợi dệt đã ngâm tẩm (kể cả nhúng), phủ, bao, hay bọc bằng cao su hay plastic của nhóm 56.04.', '(b) Sợi trộn kim loại (nhóm 56.05).', '(c) Sợi cuốn bọc, sợi sơnin và sợi sùi vòng (nhóm 56.06).', '(d) Sợi dệt bện (nhóm 56.07 hay nhóm 58.08 tùy trường hợp).', '(e) Sợi dệt được gia cố bằng chỉ kim loại (nhóm 56.07).', '(f) Sợi, monofilament hay xơ dệt được ghép song song và liên kết bằng chất kết dính (nhóm 58.06).', '(g) Sợi được ghép song song và được liên kết bằng cao su, nhóm 59.06', '(2) Sự khác biệt giữa các loại sơi đơn, sợi xe hay sợi cáp của các Chương từ 50 đến 55, dây xe, chão bện, thừng hoặc cáp của nhóm 56.07 và dải bện của nhóm 58.08', '(Xem Chú giải 3 Phần XI)', 'Các Chương từ 50 đến 55 không bao gồm tất cả các loại sợi. Những sợi mà đã được phân loại theo đặc tính của nó (độ mảnh, đã hay chưa đánh bóng hoặc làm bóng, số tao) trong các nhóm của Chương từ 50 đến 55 có liên quan tới các loại sợi, dây xe, chão bện, thừng hoặc cáp ở nhóm 56.07 hay như các dải bện ở nhóm 58.08. Bảng I dưới đây sẽ chỉ ra sự phân loại chính xác trong từng trường hợp riêng:', 'BẢNG I:', 'Sự phân loại sợi, dây xe, chão bện, thừng và cáp của vật liệu dệt', 'Chú thích cuối trang.', '(*) Các tham khảo về các nguyên liệu dệt khác nhau cũng được áp dụng cho các nguyên liệu dệt hỗn hợp được phân loại theo các điều khoản của Chú giải 2 Phần XI (xem Phần (I) (A) của Chú giải Tổng quát này).', '(**) Tơ từ ruột con tằm của nhóm 50.06, sợi multifilament không xoắn hay chỉ xoắn dưới năm vòng trên một mét và monofilament của Chương 54 và sợi tô (tow) filament nhân tạo của Chương 55 thì trong bất kỳ trường hợp nào cũng không được phân loại vào nhóm 56.07.', '(3) Sợi đã đóng gói để bán lẻ', '(xem Chú giải 4 Phần XI)', 'Các nhóm trong các Chương 50,51,52,54 và 55 được đưa vào các điều khoản về sợi dệt đóng gói để bán lẻ. Để được xếp trong các nhóm này, sợi phải thoả mãn được các tiêu chuẩn sẽ được đưa ra ở Bảng II dưới đây.', 'Mặc dù vậy các loại sợi dưới đây không bao giờ được đưa vào phần đóng gói để bán lẻ.', '(a) Sợi tơ đơn, phế liệu tơ, sợi bông hay sợi nhân tạo đã đóng gói.', '(b) Sợi đơn, xe từ lông cừu hay lông động vật dạng mịn đã tẩy trắng, nhuộm hay in, có độ mảnh 5.000 decitex trở xuống, đã đóng gói.', '(c) Sợi xe hay sợi cáp được xe từ tơ hay phế liệu tơ, chưa được tẩy trắng, đã đóng gói.', '(d) Sợi xe hay sợi cáp được xe từ bông hay xơ nhân tạo, chưa tẩy trắng ở dạng con sợi hoặc cuộn sợi.', '(e) Sợi xe hay sợi cáp làm từ tơ hay phế liệu tơ, đã tẩy trắng, nhuộm hay in có số đo từ 133 decitex trở xuống.', '(f) Sợi đơn, sợi xe hay sợi cáp làm từ vật liệu dệt bất kỳ, ở dạng con sợi hoặc cuộn sợi cuốn chéo. (*)', '(g) Sợi đơn, sợi xe hay sợi cáp làm từ vật liệu dệt bất kỳ đã cuốn trong các lõi (ví dụ; các ống sợi con, các ống sợi máy xe, các suốt sợi ngang, các ống sợi côn hay các cọc sợi) hay ở một vài dạng khác (ví dụ: ở dạng kén cho các máy thêu, dạng bánh được tạo ra từ các máy kéo sợi li tâm) đã được chỉ rõ để sử dụng trong công nghiệp dệt.', '*', '*    *', 'Chú thích cuối trang', '(*) Cuốn chéo là sợi được cuốn theo đường chéo qua lại con sợi, tránh cho sợi khỏi bị tụt ra. Cuốn chéo là phương pháp thường được sử dụng khi nhuộm các con sợi.', 'BẢNG II', 'Sợi đã đóng gói cho bán lẻ (tuân theo các loại trừ đã được đề cập ở trên)', 'Chú thích cuối trang', '(*) Liên quan tới các vật liệu dệt khác nhau cũng được áp dụng như đối với các nguyên liệu dệt hỗn hợp được phân loại theo các điều khoản của Chú giải 2 phần XI (xem Phần (I)(A) của Chú giải Tổng quát này).', '(**) Con sợi hay cuộn sợi bao gồm những con sợi hoặc cuộn sợi nhỏ hơn được tách riêng bằng một hoặc nhiều sợi phân tách dài liên tục, do vậy những con sợi hoặc những cuộn sợi thành phần dễ dàng được tách riêng. Người ta còn dùng một hay nhiều sợi riêng biệt xâu qua giữa các cuộn sợi và giữ cho chúng riêng biệt với các phần khác. Những con sợi hay cuộn sợi nhỏ hơn này thường được bọc quanh bằng băng giấy. Con sợi và cuộn sợi khác có cùng chiều dài liên tục, hoặc loại mà sợi phân tách không có chức năng chia con hoặc cuộn chính thành các con hoặc cuộn nhỏ hơn cùng trọng lượng nhưng chủ yếu là để tránh bị rối trong quá trình xử lý (ví dụ: nhuộm), thì không được coi là con hoặc cuộn được chia rẽ bởi các sợi phân tách và không được xem như là đã đóng gói để bán lẻ.', '(4) Chỉ khâu.', '(Xem Chú giải 5 Phần XI)', 'Với mục đích của các nhóm 52.04, 54.01 và 55.08 khái niệm “chỉ khâu” nghĩa là sợi xe hay sợi cáp:', '(a) Được cuốn trên các lõi (ví dụ: Các cuộn, các ống) có trọng lượng (kể cả lõi) không vượt quá 1.000g;', '(b) Đã hoàn tất để sử dụng làm chỉ khâu; và', '(c) Với xoắn hình chữ “Z” cuối cùng.', 'Thuật ngữ “hoàn tất” có nghĩa là quá trình xử lý hoàn thiện. Quá trình xử lý này được thực hiện để sử dụng sợi dệt được dễ dàng như là chỉ khâu, ví dụ: tạo cho chỉ có tính chống ma sát hoặc chịu nhiệt, ngăn ngừa sự tạo thành tĩnh điện hay cải thiện hình dạng bên ngoài của chỉ. Sự xử lý như vậy có liên quan tới việc sử dụng các chất như silicon, tinh bột, sáp, parafin, v.v...', 'Độ dài của cuộn chỉ thường được chỉ rõ trên lõi cuộn chỉ.', '(5) Sợi có độ bền cao.', '(Xem Chú giải 6 Phần XI)', 'Các Chương từ 50 đến 59 có các điều khoản “sợi có độ bền cao” và vải dệt từ sợi đó', 'Thuật ngữ “sợi có độ bền cao” là sợi có độ bền được tính bằng cN/tex (centinewtons một tex), phải lớn hơn:', 'Sợi đơn làm từ nylon hoặc các polyamid khác hoặc các polyester…….60 cN/tex', 'Sợi xe hay sợi cáp từ nylon, hay từ các polyamid khác, hay từ polyester.......53 cN/tex', 'Sợi đơn, sợi xe hay sợi cáp làm từ sợi viscô rayon……………….27 cN/tex', '(6) Sợi đàn hồi và sợi dún.', '(Xem Chú giải 13 của Phần XI)', 'Sợi đàn hồi được định nghĩa trong Chú giải 13 của Phần này. Lưu ý rằng, sợi dún được nêu ở đây được định nghĩa trong Chú giải Chi tiết phân nhóm của các phân nhóm từ 5402.31 đến 5402.39.', '(C) Vải dệt thoi', 'Vải dệt thoi ở các Chương từ 50 đến 55 là những sản phẩm thu được bằng cách liên kết các sợi dệt (có cả những loại đã được phân loại trong các Chương từ 50 đến 55 hay những sản phẩm được xem như là dây xe, chão bện, v.v... của nhóm 56.07), sợi thô, sợi monofilament hay sợi dải và sợi tương tự như của Chương 54, sợi sùi vòng, các dải băng hẹp, dây bện hay vải khổ hẹp (bao gồm toàn sợi dọc mà không có sợi ngang được liên kết với nhau nhờ chất keo dính v.v...) trên các máy dệt. Mặc dù vậy, vải dệt thoi vẫn loại trừ một số mặt hàng như:', '(a) Thảm và các loại thảm trải sàn khác (Chương 57)', '(b) Vải nổi vòng hoặc vải sơnin của nhóm 58.01, vải khăn lông và các loại vải dệt thoi tạo vòng lông tương tự nhóm 58.02, vải dệt quấn nhóm 58.03 thảm dệt tay nhóm 58.05 vải dệt thoi khổ hẹp nhóm 58.06 và vải dệt thoi từ sợi kim loại hoặc từ sợi trộn kim loại nhóm 58.09.', '(c) Các loại vải</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1. Phần này không bao gồm:', '(a) Sơn, mực hoặc các sản phẩm khác đã được pha chế với chất cơ bản là vảy hoặc bột kim loại (các nhóm từ 32.07 đến 32.10, 32.12, 32.13 hoặc 32.15);', '(b) Hợp kim ferro-xeri hoặc các hợp kim tự cháy khác (nhóm 36.06);', '(c) Mũ và các vật đội đầu khác hoặc các bộ phận của chúng thuộc nhóm 65.06 hoặc 65.07;', '(d) Khung ô hoặc các sản phẩm khác thuộc nhóm 66.03;', '(e) Hàng hóa thuộc Chương 71 (ví dụ, hợp kim kim loại quý, kim loại cơ bản dát phủ kim loại quý, đồ trang sức làm bằng chất liệu khác);', '(f) Các sản phẩm thuộc Phần XVI (máy móc, các thiết bị cơ khí và đồ điện);', '(g) Đường ray đường sắt hoặc đường ray tàu điện đã được lắp ráp (nhóm 86.08) hoặc các sản phẩm khác thuộc Phần XVII (xe, tàu và thuyền, phương tiện bay);', '(h) Dụng cụ hoặc thiết bị phụ tùng thuộc Phần XVIII, kể cả dây cót của đồng hồ cá nhân hoặc đồng hồ thời gian khác;', '(ij) Các viên chì nhỏ được chế tạo để sản xuất đạn dược (nhóm 93.06) hoặc các sản phẩm khác thuộc Phần XIX (vũ khí và đạn dược);', '(k) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, khung nệm, đèn (luminaires) và bộ đèn, biển hiệu được chiếu sáng, nhà lắp ghép);', '(l) Các sản phẩm thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao);', '(m) Giần, sàng bằng tay, khuy, bút máy, quản bút chì, ngòi bút, chân để loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các sản phẩm tương tự hoặc các sản phẩm khác thuộc Chương 96 (các mặt hàng khác); hoặc', '(n) Các sản phẩm thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).', '2. Trong Danh mục này, khái niệm “các bộ phận có công dụng chung” có nghĩa:', '(a) Các sản phẩm thuộc nhóm 73.07, 73.12, 73.15, 73.17 hoặc 73.18 và các sản phẩm tương tự bằng kim loại cơ bản khác, trừ các sản phẩm được thiết kế đặc biệt để chuyên dùng cấy ghép trong y tế, phẫu thuật, nha khoa hoặc thú y (nhóm 90.21);', '(b) Lò xo và lá lò xo, bằng kim loại cơ bản, trừ dây cót dùng cho đồng hồ cá nhân hoặc đồng hồ thời gian khác (nhóm 91.14); và', '(c) Sản phẩm thuộc các nhóm 83.01, 83.02, 83.08, 83.10 và khung và gương, bằng kim loại cơ bản, thuộc nhóm 83.06.', 'Từ Chương 73 đến Chương 76 và từ Chương 78 đến Chương 82 (nhưng trừ nhóm 73.15) các bộ phận của hàng hóa thuộc các chương này không bao gồm các bộ phận có công dụng chung như đã nêu ở trên.', 'Theo nội dung trên và theo Chú giải 1 của Chương 83, các sản phẩm thuộc Chương 82 hoặc 83 được loại trừ khỏi các Chương từ Chương 72 đến Chương 76 và từ Chương 78 đến Chương 81.', '3. Trong Danh mục này, khái niệm “kim loại cơ bản” có nghĩa là: sắt và thép, đồng, niken, nhôm, chì, kẽm, thiếc, vonfram, molypđen, tantan, magiê, coban, bismut, cađimi, titan, zircon, antimon, mangan, berili, crôm, gemani, vanadi, gali, hafini, indi, niobi (columbi), rheni và tali.', '4. Trong Danh mục này, khái niệm “gốm kim loại” chỉ các sản phẩm có sự kết hợp dị thể của một thành phần kim loại và một thành phần gốm trong cấu trúc tế vi. Khái niệm “gốm kim loại” cũng kể cả carbua kim loại thiêu kết (carbua kim loại thiêu kết với một kim loại).', '5. Việc phân loại các hợp kim (trừ hợp kim fero và các hợp kim chủ như đã được xác định trong Chương 72 và 74):', '(a) Một hợp kim cấu thành từ các kim loại cơ bản được phân loại vào nhóm hợp kim của kim loại có hàm lượng trội hơn so với từng kim loại khác có trong hợp kim;', '(b) Một hợp kim mà thành phần gồm các kim loại cơ bản thuộc Phần này và các nguyên tố không thuộc Phần này thì hợp kim đó sẽ được coi như hợp kim của các kim loại thuộc phần này nếu tổng khối lượng của các kim loại cơ bản đó bằng hoặc lớn hơn tổng khối lượng của các thành phần khác có mặt trong hợp kim;', '(c) Trong Phần này khái niệm "hợp kim" kể cả hỗn hợp bột kim loại thiêu kết, hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại), và hợp chất liên kết kim loại (thường gọi là hợp chất liên kim).', '6. Trừ khi có những yêu cầu khác, khi việc xem xét có liên quan đến bất cứ một kim loại cơ bản nào trong Danh mục này, cũng cần phải xem xét những hợp kim mà chúng được phân loại như những hợp kim của kim loại đó theo Chú giải 5 ở trên.', '7. Việc phân loại các sản phẩm hỗn hợp:', 'Trừ khi các nhóm có yêu cầu khác, các sản phẩm bằng kim loại cơ bản (kể cả các sản phẩm bằng nguyên vật liệu pha trộn được coi như sản phẩm bằng kim loại cơ bản theo các Quy tắc tổng quát giải thích việc phân loại hàng hóa) gồm hai hoặc nhiều kim loại cơ bản thì được coi như sản phẩm của kim loại cơ bản nào có hàm lượng trội hơn tính theo khối lượng so với từng kim loại khác.', 'Theo mục đích này:', '(a) Sắt và thép, hoặc các dạng khác của sắt hoặc thép, được coi như là một và là cùng một kim loại;', '(b) Một hợp kim được coi như chứa toàn bộ một loại kim loại khi mà hợp kim của kim loại đó được phân loại theo Chú giải 5; và', '(c) Gốm kim loại của nhóm 81.13 được coi như một loại kim loại cơ bản.', '8. Trong Phần này, các khái niệm sau đây có nghĩa:', '(a) Phế liệu và mảnh vụn', '(i) Tất cả phế liệu và mảnh vụn kim loại;', '(ii) các sản phẩm bằng kim loại chắc chắn không thể sử dụng được vì nguyên nhân bị gãy, cắt ra, bị mài mòn hoặc các nguyên nhân khác.', '(b) Bột', 'Là sản phẩm có hàm lượng từ 90% trở lên tính theo khối lượng lọt qua được rây (sàng) có đường kính mắt rây bằng 1 mm.', '9. Theo mục đích của các Chương từ 74 đến 76 và 78 đến 81, các khái niệm sau đây có nghĩa:', '(a) Thanh và que', 'Các sản phẩm được cán, ép đùn, kéo hoặc rèn, không ở dạng cuộn, có mặt cắt ngang đông đặc đều nhau dọc theo chiều dài, hình dạng mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có hai cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm có mặt cắt ngang là hình chữ nhật (kể cả hình vuông), tam giác hoặc đa giác có thể có góc được làm tròn dọc theo chiều dài. Chiều dày của các sản phẩm có mặt cắt ngang hình chữ nhật (kể cả "hình chữ nhật biến dạng") phải trên 1/10 chiều rộng. Khái niệm này cũng áp dụng cho các sản phẩm được đúc hoặc thiêu kết có cùng hình dạng và kích thước đã được gia công thêm sau khi sản xuất (trừ cách cắt gọt đơn giản hoặc cạo gỉ), với điều kiện bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của các nhóm khác.', 'Tuy nhiên, các loại que và thanh dây thuộc Chương 74 có các đầu được làm nhọn hoặc được xử lý đơn giản khác để dễ đưa vào máy cho quá trình gia công tiếp theo, ví dụ, thành thanh kéo (thanh dây) hoặc ống, được đưa vào đồng chưa gia công thuộc nhóm 74.03. Quy định này áp dụng với những sửa đổi thích hợp đối với các sản phẩm thuộc Chương 81.', '(b) Dạng hình', 'Các sản phẩm được cán, ép đùn, kéo, rèn hoặc tạo hình, ở dạng cuộn hoặc không, mặt cắt ngang đều nhau dọc theo chiều dài, và khác với định nghĩa về thanh, que, dây, tấm, phiến, dải, lá mỏng, ống hoặc ống dẫn. Khái niệm này cũng kể cả các sản phẩm được đúc hoặc thiêu kết, có cùng hình dạng, đã được gia công thêm sau khi sản xuất (trừ cách cắt gọt đơn giản hoặc cạo gỉ), với điều kiện là bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của nhóm khác.', '(c) Dây', 'Các sản phẩm được cán, ép đùn hoặc kéo, ở dạng cuộn, có mặt cắt ngang đặc đều nhau dọc theo chiều dài, hình dạng mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có hai cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm có mặt cắt ngang hình chữ nhật (kể cả hình vuông), tam giác hoặc đa giác có thể có góc được làm tròn dọc theo chiều dài. Chiều dày của các sản phẩm này có mặt cắt ngang hình chữ nhật (kể cả "hình chữ nhật biến dạng") phải trên 1/10 chiều rộng.', '(d) Tấm, lá, dải và lá mỏng', 'Các sản phẩm có bề mặt được làm phẳng (trừ các sản phẩm chưa gia công), ở dạng cuộn hoặc không, có mặt cắt ngang đặc hình chữ nhật (trừ hình vuông) có hoặc không có các góc được làm tròn (kể cả "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song) chiều dày bằng nhau, cụ thể:', '- với dạng hình chữ nhật (kể cả hình vuông) chiều dày không quá 1/10 chiều rộng;', '- với các hình dạng khác trừ hình chữ nhật và hình vuông, với mọi loại kích thước, với điều kiện chúng không mang đặc tính của mặt hàng hoặc sản phẩm của nhóm khác.', 'Các nhóm của tấm, lá, dải và lá mỏng, không kể những đề cập khác, áp dụng cho các tấm, lá, dải và lá mỏng đã gia công theo hình mẫu (ví dụ, rãnh, gân, carô, hình giọt nước, hình núm, hình thoi) và các sản phẩm đó được khoan, làm lượn sóng, đánh bóng hoặc tráng với điều kiện là bằng cách đó chúng không mang các đặc tính của mặt hàng hoặc sản phẩm của nhóm khác.', '(e) Ống và ống dẫn', 'Các sản phẩm rỗng, cuộn hoặc không, có mặt cắt ngang rỗng đều nhau dọc theo chiều dài, mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi, độ dày thành ống bằng nhau. Các sản phẩm có mặt cắt ngang là hình chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi có thể có góc được làm tròn dọc theo chiều dài, cũng được coi là ống hoặc ống dẫn với điều kiện là mặt cắt ngang bên trong và bên ngoài đồng tâm, đồng dạng và đồng hướng. Ống và ống dẫn có mặt cắt ngang như vậy có thể được đánh bóng, tráng, uốn cong, ren, khoan, thắt lại, nở ra, hình côn hoặc nối với các mặt bích, mép, đai hoặc vòng.', 'TỔNG QUÁT', 'Phần này bao gồm kim loại cơ bản (bao gồm cả kim loại ở trạng thái tinh khiết hóa học) và các sản phẩm của chúng. Danh mục các sản phẩm bằng kim loại cơ bản không được bao gồm tại phần này được liệt kê lại tại phần cuối của Chú giải này. Phần này cũng bao gồm kim loại tự nhiên được tách ra từ đất đã lấy quặng và sten đồng, nicken hoặc cô ban (cobalt). Quặng kim loại và kim loại tự nhiên vẫn chứa đựng trong đất lấy quặng bị loại trừ (nhóm 26.01 tới 26.17).', 'Để phù hợp với Chú giải 3 phần này, trong toàn bộ Danh mục, thuật ngữ “kim loại cơ bản” có nghĩa: sắt và thép, đồng, nicken, nhôm, chì, kẽm, thiếc, vonfram, molipđen, tantan, magiê, côban, bismut, cađimi, titan, zircon, antimon, mangan, berili, crom, gemani, vanađi, gall, hafini, indi, niobi, rheni và tali.', 'Các Chương từ 72 tới 76 và 78 tới 81 bao gồm các kim loại cơ bản riêng chưa được gia công và các sản phẩm của kim loại đó như thanh, que, dây, lá và các sản phẩm của chúng, trừ một số các sản phẩm kim loại cơ bản cụ thể, không tính đến bản chất kim loại kết cấu, được phân loài vào Chương 82 và 83, các chương này được giới hạn trong các sản phẩm cụ thể.', '(A) HỢP KIM CỦA KIM LOẠI CƠ BẢN', 'Phù hợp với Chú giải 6 phần này, ngoại trừ những nội dung yêu cầu khác (ví dụ: trường hợp hợp kim thép), thi bất cứ dẫn chiếu về kim loại cơ bản từ Chương 72 tới 76 và 78 tới 81 hoặc nơi nào khác trong Danh mục cũng bao gồm hợp kim của kim loại đó. Tương tự, bất cứ dẫn chiếu nào tại Chương 82 hoặc 83 hoặc nơi khác về “kim loại cơ bản” bao gồm hợp kim được phân loại như hợp kim của kim loại cơ bản.', 'Theo Chú giải 5 Chương 71 và Chú giải 5 của phần này thì hợp kim kim loại cơ bản được phân loại như sau:', '(1) Hợp kim của kim loại cơ bản với kim loại quý.', 'Hợp kim này được phân loại như kim loại cơ bản với điều kiện là không một kim loại quý nào (bạc, vàng, bạch kim) cấu thành tới 2% trọng lượng của hợp kim. Các hợp kim khác của kim loại cơ bản với kim loại quí được phân loại vào Chương 71.', '(2) Hợp kim của kim loại cơ bản', 'Các hợp kim này được phân loại theo kim loại chiếm tỷ trọng trội hơn, loại trừ hợp kim Fero (xem Chú giải nhóm 72.02) và hợp kim đồng chủ (xem Chú giải nhóm 74.05).', '(3) Hợp kim của kim loại cơ bản của phần này với phi kim loại hoặc với kim loại nhóm 28.05.', 'Được phân loại như hợp kim của kim loại cơ bản thuộc Phần này với điều kiện là tổng trọng lượng kim loại cơ bản thuộc Phần này lớn hơn hoặc bằng tổng trọng lượng các thành phần khác. Nếu không thì hợp kim này thường được phân vào nhóm 38.24.', '(4) Hỗn hợp đã thiêu kết, hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại) và hợp chất liên kim.', 'Hỗn hợp bột kim loại thiêu kết và hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại) được coi như hợp kim. Loại hỗn hợp thứ hai bao gồm các thỏi đặc biệt có thành phần thay đổi thu được từ nung chảy kim loại vụn.', 'Tuy nhiên, phân loại hỗn hợp bột kim loại không được thiêu kết được hướng dẫn tại Chú giải 7 phần này (Các sản phẩm hỗn hợp - xem phần (B) dưới đây).', 'Hợp chất liên kim gồm hai hay nhiều kim loại cơ bản cũng được coi như hợp kim. Sự khác biệt cơ bản giữa hợp chất liên kim và hợp kim là trong hợp chất liên kim thi các nguyên tử của kim loại khác nhau trong mạng tinh thể của hợp chất liên kim được sắp xếp có trật tự, trong khi trong một hợp kim thì không theo trật tự.', '(B) CÁC SẢN PHẨM KIM LOẠI CƠ BẢN', 'Theo Chú giải Phần 7, các sản phẩm kim loại cơ bản gồm hai hay nhiều kim loại cơ bản được phân loại theo các sản phẩm của kim loại có hàm lượng trội hơn các kim loại khác, trừ khi nhóm có những yêu cầu khác (Ví dụ: đinh sắt hoặc thép có đầu bịt đồng được phân loại vào nhóm 74.15 thậm chí khi đồng không phải là kết cấu chính). Qui tắc tương tự được áp dụng đối với các sản phẩm được làm một phần từ phi kim loại với điều kiện là theo Qui tắc Chú giải tổng quát, kim loại cơ bản tạo cho các sản phẩm tính chất chủ yếu của chúng.', 'Để tính toán tỷ lệ các kim loại theo mục đích của qui tắc này, nên lưu ý rằng:', '(1) Tất cả các loại sắt và thép được coi như cùng một kim loại.', '(2) Hợp kim được coi như chứa toàn bộ một loại kim loại khi mà hợp kim của kim loại đó được phân loại (ví dụ: vì một số mục đích, một phần được làm từ đồng pha kẽm (đồng thau) cũng được coi như nó hoàn toàn bằng đồng).', '(3) Gốm kim loại của nhóm 81.13 được coi như một loại kim loại cơ bản', '(C) BỘ PHẬN CỦA CÁC SẢN PHẨM', 'Nói chung, bộ phận của các sản phẩm xác định được thì phân loại như bộ phận đó theo các nhóm thích hợp của chúng trong danh mục.', 'Tuy nhiên, những bộ phận có công dụng chung (được định nghĩa tại Chú giải 2 Phần này) được trình bày riêng lẻ không được xem xét như là bộ phận của những sản phẩm nhưng vẫn được phân loại vào các nhóm phù hợp trong Phần này. Nhóm này cũng áp dụng, ví dụ, trong trường hợp với bu lông dùng trong lò sưởi trung tâm hoặc vòng đệm đặc biệt dùng trong xe mô tô. Bu lông thì được phân loại tại nhóm 73.18 (đối với bu lông) mà không phải nhóm 73.22 (như là những phần của lò sưởi trung tâm). Vòng đệm thì được phân loại tại nhóm 73.20 (đối với vòng đệm) và không được phân loại 87.08 (như là bộ phận của phương tiện môtô).', '*', '*    *', 'Cũng cần phải lưu ý rằng lò xo của đồng hồ cá nhân hoặc đồng hồ thời gian bị loại trừ bởi Chú giải (2) của Phần này và thuộc nhóm 91.14.', 'Ngoài những mặt hàng được đề cập tại Chú giải 1 của Phần này, nhóm này không bao gồm:', '(a) Hỗn hống của kim loại cơ bản (nhóm 28.53).', '(b) Dạng keo lỏng của kim loại cơ bản (thuộc nhóm 30.03 hoặc 30.04).', '(c) Xi măng hàn răng và các chất hàn răng khác (nhóm 30.06).', '(d) Các tấm để tạo ảnh có phủ lớp chất nhạy bằng kim loại, ví dụ bản khắc ảnh (nhóm 37.01).', '(e) Vật liệu chiếu sáng dùng trong chụp ảnh thuộc nhóm 37.07.', '(f) Sợi trộn kim loại (nhóm 56.05), vải dệt thoi từ sợi kim loại hoặc từ chỉ kim loại, sử dụng để trang trí, như các loại vải trang trí nội thất hoặc tương tự (nhóm 58.09).', '(g) Hàng thêu và các hàng hoá khác được miêu tả tại Phần XI, của chỉ kim loại.', 'Các bộ phận của giày, dép trừ các loại đã được đề cập tại Chú giải 2 Chương 64 (cụ thể: bộ phận bảo vệ, khoen, móc cài, khóa cài) (nhóm 64.06).', '(ij) Tiền kim loại (nhóm 71.18).', '(k) Phế liệu và phế thải của các loại pin và ắc quy điện; các loại pin và ắc quy điện đã sử dụng hết (nhóm 85.49).', '(l) Bàn chải (nhóm 96.03).']</t>
-  </si>
-  <si>
-    <t>['Chú giải', '1. Phần này không bao gồm:', '(a) Băng truyền hoặc băng tải hoặc dây đai, bằng plastic thuộc Chương 39, hoặc bằng cao su lưu hóa (nhóm 40.10), hoặc các sản phẩm khác sử dụng cho máy móc hoặc thiết bị cơ khí hoặc thiết bị điện hoặc sản phẩm sử dụng cho mục đích kỹ thuật khác, bằng cao su lưu hóa trừ loại cao su cứng (nhóm 40.16);', '(b) Các sản phẩm bằng da thuộc hoặc bằng da thuộc tổng hợp (nhóm 42.05) hoặc bằng da lông (nhóm 43.03), sử dụng trong các máy móc hoặc thiết bị cơ khí hoặc các mục đích kỹ thuật khác;', '(c) Ống chỉ, trục cuốn, ống lõi sợi con, lõi ống sợi, lõi ống côn, lõi guồng hoặc các loại lõi tương tự, bằng vật liệu bất kỳ (ví dụ, Chương 39, 40, 44 hoặc 48 hoặc Phần XV);', '(d) Thẻ đục lỗ dùng cho máy Jacquard hoặc các máy tương tự (ví dụ, Chương 39 hoặc 48 hoặc Phần XV);', '(e) Băng truyền hoặc băng tải hoặc dây curoa bằng vật liệu dệt (nhóm 59.10) hoặc các sản phẩm khác bằng vật liệu dệt dùng cho các mục đích kỹ thuật (nhóm 59.11);', '(f) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) thuộc các nhóm 71.02 đến 71.04, hoặc các sản phẩm làm toàn bộ bằng loại đá này thuộc nhóm 71.16, trừ đá saphia và kim cương đã được gia công nhưng chưa gắn để làm đầu kim đĩa hát (nhóm 85.22);', '(g) Các bộ phận có công dụng chung, như đã định nghĩa trong Chú giải 2 Phần XV, bằng kim loại cơ bản (Phần XV), hoặc các hàng hóa tương tự bằng plastic (Chương 39);', '(h) Ống khoan (nhóm 73.04);', '(ij) Đai liên tục bằng dây hoặc dải kim loại (Phần XV);', '(k) Các sản phẩm thuộc Chương 82 hoặc 83;', '(l) Các sản phẩm thuộc Phần XVII;', '(m) Các sản phẩm thuộc Chương 90;', '(n) Đồng hồ thời gian, đồng hồ cá nhân hoặc các sản phẩm khác thuộc Chương 91;', '(o) Các dụng cụ có thể thay đổi thuộc nhóm 82.07 hoặc bàn chải sử dụng như các bộ phận của máy (nhóm 96.03); những dụng cụ có thể thay đổi tương tự được phân loại theo vật liệu cấu thành bộ phận làm việc của chúng (ví dụ, trong Chương 40, 42, 43, 45 hoặc Chương 59 hoặc nhóm 68.04 hoặc 69.09);', '(p) Các sản phẩm thuộc Chương 95; hoặc', '(q) Ruy băng máy chữ hoặc ruy băng tương tự, đã hoặc chưa cuộn vào lõi hoặc nằm trong vỏ (được phân loại theo vật liệu cấu thành, hoặc trong nhóm 96.12 nếu chúng đã nạp mực hoặc được chuẩn bị khác để dùng cho in ấn), hoặc chân đế loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các mặt hàng tương tự, thuộc nhóm 96.20.', '2. Theo Chú giải 1 của Phần này, Chú giải 1 Chương 84 và Chú giải 1 Chương 85, các bộ phận của máy (ngoài các bộ phận của hàng hóa thuộc nhóm 84.84, 85.44, 85.45, 85.46 hoặc 85.47) được phân loại theo các quy tắc sau:', '(a) Các bộ phận đã được chi tiết tại nhóm nào đó của Chương 84 hoặc 85 (trừ các nhóm 84.09, 84.31, 84.48, 84.66, 84.73, 84.87, 85.03, 85.22, 85.29, 85.38 và 85.48) được phân loại vào nhóm đó trong mọi trường hợp;', '(b) Các bộ phận khác, nếu phù hợp để chỉ sử dụng hoặc chủ yếu sử dụng cho các loại máy cụ thể, hoặc cho một số loại máy cùng nhóm (kể cả máy thuộc nhóm 84.79 hoặc 85.43) được phân loại theo nhóm của các máy cụ thể đó hoặc vào nhóm thích hợp như 84.09, 84.31, 84.48, 84.66, 84.73, 85.03, 85.22, 85.29 hoặc 85.38. Tuy nhiên, bộ phận phù hợp để chủ yếu sử dụng cho các hàng hóa thuộc các nhóm 85.17 và 85.25 đến 85.28 được phân loại vào nhóm 85.17; và bộ phận phù hợp để chỉ sử dụng hoặc chủ yếu sử dụng cho hàng hóa của nhóm 85.24 được phân loại vào nhóm 85.29;', '(c) Tất cả các bộ phận khác được phân loại trong nhóm thích hợp như 84.09, 84.31, 84.48, 84.66, 84.73, 85.03, 85.22, 85.29 hoặc 85.38 hoặc, nếu không thì, phân loại vào nhóm 84.87 hoặc 85.48.', '3. Trừ khi có yêu cầu cụ thể khác, các loại máy liên hợp gồm hai hoặc nhiều máy lắp ghép với nhau thành một thiết bị đồng bộ và các loại máy khác được thiết kế để thực hiện hai hoặc nhiều chức năng khác nhau hoặc bổ trợ lẫn nhau được phân loại theo bộ phận chính hoặc máy thực hiện chức năng chính.', '4. Khi một máy (kể cả một tổ hợp máy) gồm các bộ phận cấu thành riêng lẻ (dù tách biệt hoặc được liên kết với nhau bằng ống, bằng bộ phận truyền, bằng cáp điện hoặc bằng bộ phận khác) để thực hiện một chức năng được xác định rõ đã quy định chi tiết tại một trong các nhóm của Chương 84 hoặc Chương 85, thì toàn bộ máy đó phải được phân loại vào nhóm phù hợp với chức năng xác định của máy.', '5. Theo mục đích của Chú giải này, khái niệm “máy” có nghĩa là bất kỳ máy, máy móc, thiết bị, bộ dụng cụ hoặc dụng cụ đã nêu trong các nhóm của Chương 84 hoặc 85.', '6 (A) Trong toàn bộ Danh mục này, khái niệm “phế liệu và phế thải điện và điện tử” có nghĩa là các cụm linh kiện điện và điện tử, tấm mạch in, và các sản phẩm điện hoặc điện tử:', '(i) đã bị làm cho không sử dụng được cho các mục đích ban đầu của chúng do bị vỡ, cắt hoặc các quá trình khác hoặc không phù hợp về mặt kinh tế để sửa chữa, tân trang hoặc cải tạo để làm cho chúng phù hợp với mục đích ban đầu của chúng; và', '(ii) được đóng gói hoặc vận chuyển theo cách không nhằm mục đích bảo vệ các mặt hàng riêng lẻ khỏi bị hư hại trong quá trình vận chuyển, xếp và dỡ hàng hóa.', '(B) Các lô hàng hỗn hợp gồm “phế liệu và phế thải điện và điện tử” và phế liệu và phế thải khác được phân loại vào nhóm 85.49.', '(C) Phần này không bao gồm rác thải đô thị, như được định nghĩa trong Chú giải 4 của Chương 38.', 'KHÁI QUÁT CHUNG', '(I) NỘI DUNG KHÁI QUÁT CHUNG CỦA PHẦN', '(A) Theo một số trường hợp ngoại lệ trong Chú giải của Phần này và của Chương 84 và 85 và trừ các hàng hóa được nêu đặc biệt trong các Phần khác, Phần này bao gồm tất cả các loại máy móc hoặc thiết bị, bộ phận, dụng cụ và các trang thiết bị cơ khí hoặc điện khác nhau, cùng với một số thiết bị và máy móc có thể không chạy bằng cơ khí hoặc điện (như các nồi hơi và thiết bị buồng đặt nồi hơi, thiết bị lọc...) và các bộ phận như các thiết bị và máy móc đó.', 'Những sản phẩm chính không bao gồm tại phần này là:', '(a) Ống suốt, bô bin, ống chỉ... bằng mọi chất liệu (được phân loại theo nguyên liệu cấu thành). Tuy nhiên, các trục cửi không được coi là suốt hoặc bô bin hoặc những bộ phận phụ trợ tương tự và thuộc nhóm 84.48.', '(b) Các bộ phận có công dụng chung như đã được định nghĩa tại Chú giải 2 của phần XV, như dây kim loại, xích, bu lông, đinh vít và lò xo, bằng sắt hoặc thép (nhóm 73.12, 73.15, 73.18 hoặc 73.20) và những sản phẩm tương tự làm bằng kim loại cơ bản khác (từ Chương 74 đến Chương 76 và từ Chương 78 đến Chương 81), khóa thuộc nhóm 83.01, các bộ phận ghép và lắp để lắp vào cửa ra vào, cửa sổ,... thuộc nhóm 83.02. Những hàng hóa tương tự bằng plastic không nằm trong Phần này và được xếp vào Chương 39.', '(c) Các dụng cụ có thể thay đổi thuộc nhóm 82.07; các dụng cụ có thể thay đổi được tương tự khác được phân loại theo chất liệu cấu thành của các phần làm việc của chúng (ví dụ, Chương 40 (cao su), Chương 42 (da thuộc), Chương 43 (da lông), Chương 45 (lie), hoặc Chương 59 (hàng dệt) hoặc trong nhóm 68.04 (vật liệu mài...) hoặc nhóm 69.09 (đồ gốm sứ),...).', '(d) Các hàng hóa khác thuộc Chương 82 (ví dụ, dụng cụ, mũi dụng cụ, dao và lưỡi cắt, tông đơ cắt tóc không chạy điện, và một số dụng cụ cơ khí khác dùng trong gia đình) và các sản phẩm thuộc Chương 83.', '(e) Các sản phẩm thuộc Phần XVII.', '(f) Các sản phẩm thuộc Phần XVIII.', '(g) Các loại vũ khí và đạn dược (Chương 93).', '(h) Máy móc và thiết bị mang tính chất của đồ chơi, trò chơi hoặc dụng cụ thể thao và các bộ phận và các phụ kiện của chúng (kể cả môtơ và động cơ không chạy điện nhưng trừ bơm chất lỏng và máy lọc hoặc tinh chế chất lỏng hoặc các loại khí thuộc nhóm 84.13 hoặc 84.21, và cũng loại trừ động cơ chạy điện, biến thế điện và máy điều khiển từ xa bằng sóng radio, được xếp trong nhóm 85.01, 85.04, hoặc 85.26) mà nó thích hợp chỉ dùng hoặc chủ yếu dùng cho đồ chơi, trò chơi hoặc các dụng cụ thể thao (Chương 95).', '(ij) Các loại chổi được dùng như là các bộ phận của máy móc (nhóm 96.03).', '(B) Thông thường, hàng hóa của phần này có thể bằng bất kỳ chất liệu nào. Trong phần lớn các trường hợp, hàng hóa có thể làm từ kim loại cơ bản, nhưng Phần này cũng bao gồm một số máy móc bằng các chất liệu khác (ví dụ, bơm hoàn toàn bằng plastic) và các bộ phận bằng plastic, gỗ, kim loại quý....', 'Tuy nhiên, phần này không bao gồm:', '(a) Băng truyền hoặc băng tải hoặc dây đai bằng plastic (Chương 39); các sản phẩm bằng cao su lưu hóa không được làm cứng (ví dụ băng truyền hoặc băng tải hoặc dây đai) (nhóm 40.10), các loại săm và lốp xe,... (các nhóm từ 40.11 đến 40.13) và vòng đệm,... (nhóm 40.16).', '(b) Các sản phẩm bằng da thuộc hoặc bằng da tổng hợp (ví dụ, miếng đệm trong khung cửi) (nhóm 42.05) hoặc bằng da lông (nhóm 43.03).', '(c) Những sản phẩm bằng vật liệu dệt như băng chuyền hoặc băng tải (nhóm 59.10), miếng đệm bằng phớt và đĩa đánh bóng (nhóm 59.11).', '(d) Một số hàng hóa bằng gốm sứ thuộc Chương 69 (xem Chú giải Tổng quát của Chương 84 và Chương 85).', '(e) Một số sản phẩm bằng thủy tinh của Chương 70 (xem Chú giải Tổng quát của Chương 84 và Chương 85).', '(f) Các sản phẩm hoàn toàn bằng đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) (các nhóm 71.02, 71.03, 71.04 hoặc 71.16) trừ đá saphia và kim cương đã được gia công làm kim đĩa hát nhưng chưa được lắp ráp (nhóm 85.22).', '(g) Đai liên tục bằng dây hoặc dải kim loại (Phần XV).', '(II) CÁC BỘ PHẬN', '(Chú giải 2 của Phần này)', 'Thông thường, các bộ phận phù hợp chỉ để sử dụng hoặc chủ yếu sử dụng cho một loại máy hoặc thiết bị cụ thể (kể cả những hàng hóa thuộc nhóm 84.79 hoặc thuộc nhóm 85.43), hoặc với một nhóm máy móc và thiết bị được xếp cùng trong một nhóm, sẽ được phân loại vào cùng nhóm như là các máy móc và thiết bị đó với điều kiện không bị loại trừ theo quy định tại Phần (I) ở trên. Tuy nhiên, vẫn quy định các nhóm riêng rẽ đối với:', '(A) Các bộ phận của động cơ thuộc nhóm 84.07 hoặc 84.08 (nhóm 84.09).', '(B) Các bộ phận của máy móc thuộc các nhóm từ 84.25 đến 84.30 (nhóm 84.31).', '(C) Các bộ phận của máy dệt thuộc các nhóm từ 84.44 đến 84.47 (nhóm 84.48).', '(D) Các bộ phận của máy công cụ thuộc các nhóm từ 84.56 đến 84.65 (nhóm 84.66).', '(E) Các bộ phận của máy văn phòng thuộc các nhóm từ 84.70 đến 84.72 (nhóm 84.73).', '(F) Các bộ phận của máy thuộc nhóm 85.01 hoặc 85.02 (nhóm 85.03).', '(G) Các bộ phận của các thiết bị thuộc các nhóm từ 85.19 hoặc 85.21 (nhóm 85.22).', '(H) Các bộ phận của các thiết bị thuộc các nhóm từ 85.25 đến 85.28 (nhóm 85.29).', '(IJ) Các bộ phận của các thiết bị thuộc các nhóm 85.35, 85.36 hoặc 85.37 (nhóm 85.38).', 'Những nguyên tắc trên không áp dụng với các bộ phận mà chính bản thân chúng đã tạo thành một sản phẩm được xếp vào một nhóm của Phần này (trừ các nhóm 84.87 và 85.48); những bộ phận này trong mọi trường hợp sẽ phải xếp vào đúng nhóm hàng phù hợp với chứng ngay cả khi chúng được thiết kế đặc biệt để sử dụng như là bộ phận của một loại máy cụ thể. Nguyên tắc này áp dụng với:', '(1) Bơm và máy nén (nhóm 84.13 và 84.14).', '(2) Máy và thiết bị dùng để lọc, v.v..., thuộc nhóm 84.21.', '(3) Máy nâng và máy xếp hàng (thuộc các nhóm 84.25, 84.26, 84.28 hoặc 84.86).', '(4) Van vòi các loại.... (nhóm 84.81).', '(5) Ổ bi hoặc ổ đũa các loại, và các bi thép đã đánh bóng có dung sai không quá 1% hoặc 0.05 mm, theo mức dung sai nhỏ hơn (nhóm 84.82).', '(6) Trục truyền động (kể cả trục cam và trục khuỷu), tay biên, thân ổ, gối đỡ trục dừng ổ trượt, bánh răng và cụm bánh răng (bao gồm cả bánh răng ma sát, hộp số và các cơ cấu điều tốc khác), bánh đà, ròng rọc và khối puli, ly hợp và khớp nối trục (nhóm 84.83).', '(7) Đệm và gioăng tương tự thuộc nhóm 84.84.', '(8) Động cơ điện thuộc nhóm 85.01.', '(9) Biến thế điện và các máy móc và thiết bị khác thuộc nhóm 85.04.', '(10) Ắc quy điện đã được lắp ráp thành bộ hoàn chỉnh (heading 85.07).', '(11) Điện trở nhiệt điện (nhóm 85.16).', '(12) Tụ điện (nhóm 85.32).', '(13) Thiết bị điện dùng để ngắt mạch, bảo vệ mạch điện... (ví dụ, hộp đấu nối, cầu chì, bộ phận ngắt mạch...) (các nhóm 85.35 và 85.36).', '(14) Bảng, panen, giá đỡ, bàn tủ và các loại thiết bị khác dùng để điều khiển hoặc phân phối điện (nhóm 85.37).', '(15) Các loại đèn thuộc nhóm 85.39.', '(16) Đèn điện tử, ống điện tử thuộc nhóm 85.40 và điôt, tranzito... thuộc nhóm 85.41.', '(17) Điện cực than (ví dụ, điện cực than đèn hồ quang, điện cực than và chổi than) (nhóm 85.45).', '(18) Các bộ phận cách điện làm bằng chất liệu bất kỳ (nhóm 85.46).', '(19) Phụ kiện cách điện dùng cho máy điện... thuộc nhóm 85.47.', 'Những bộ phận khác mà có thể được nhận biết như trên, nhưng không phù hợp để chỉ dùng hoặc chủ yếu dùng cho một máy cụ thể hoặc cho một số máy (ví dụ, có thể sử dụng chung cho một số lượng máy thuộc các nhóm khác nhau) được phân loại vào nhóm 84.87 (nếu không chạy bằng điện) hoặc trong nhóm 85.48 (nếu chạy bằng điện), trừ khi chúng bị loại trừ bởi các quy định được nêu ở trên.', 'Các quy định để phân loại các bộ phận trên đây không áp dụng với các bộ phận của các hàng hóa nằm trong các nhóm 84.84 (đệm,...), 85.44 (dây cách điện), 85.45 (điện cực than), 85.46 (cách điện các loại) hoặc 85.47 (ống dẫn dây điện); nói chung, các bộ phận như vậy được phân loại theo Chương của chất liệu cấu thành phù hợp.', 'Các bộ phận máy móc dù đã hoặc chưa là thành phẩm để sẵn sàng sử dụng vẫn được phân loại trong phần này. Tuy nhiên, những phôi kim loại thô bằng sắt hoặc thép được phân loại vào nhóm 72.07.', '(III) CÁC THIẾT BỊ PHỤ TRỢ', '(Xem Quy tắc chú giải tổng quát 2 (a) và 3(b) và Chú giải Phần 3 và 4 của Phần này)', 'Các công cụ và thiết bị phụ trợ (ví dụ, áp kế, nhiệt kế, máy đo mức hoặc những dụng cụ đo lường hoặc kiểm tra, máy đếm sản phẩm, công tắc hẹn giờ, bảng panel điều khiển, bộ điều chính tự động) gắn cùng với máy hoặc thiết bị mà chúng thường được phân loại cùng máy và thiết bị đó, nếu các bộ phận này được thiết kế để đo, kiểm tra, điều khiển, điều chỉnh một máy móc hoặc thiết bị đặc biệt (chúng có thể là sự kết hợp của các máy) (xem phần VI dưới đây) hoặc một khối chức năng (xem phần VII dưới đây)). Tuy nhiên, các dụng cụ và máy móc phụ trợ, được thiết kế để đo lường, kiểm tra, kiểm định hoặc điều chỉnh nhiều máy móc (dù cùng hoặc khác loại) sẽ được xếp vào nhóm phù hợp với chúng.', '(IV) MÁY MÓC CHƯA HOÀN CHỈNH', '(Xem Quy tắc Chú giải Tổng quát 2 (a))', 'Trong toàn bộ nội dung Phần XVI, khi nhắc đến khái niệm máy móc hoặc thiết bị thì không chỉ bao gồm máy móc hoàn chỉnh, mà còn liên quan đến máy móc chưa hoàn chỉnh (ví dụ: việc lắp ráp các bộ phận của máy tới mức mà nó đã có những đặc trưng cơ bản của chiếc máy hoàn chỉnh). Như vậy, một máy móc chỉ thiếu tay lái, đế, trục cán là, giá để dụng cụ.... được phân loại vào cùng nhóm với máy móc đó, và không phân loại riêng rẽ vào bất kỳ nhóm nào quy định cho các bộ phận. Tương tự, máy móc hoặc thiết bị thường có gắn động cơ điện (ví dụ, dụng cụ cơ điện cầm tay thuộc nhóm 84.67) được phân loại trong cùng nhóm như là một máy móc hoàn chỉnh ngay cả khi chúng chưa được gắn động cơ.', '(V) MÁY MÓC ĐƯỢC THÁO RỜI', '(Xem Quy tắc Chú giải Tổng quát 2 (a))', 'Để tiện cho việc vận chuyển, nhiều máy móc và thiết bị được vận chuyển ở tình trạng tháo rời. Mặc dù, trên thực tế, hàng hóa là một tập hợp của những bộ phận tháo rời, chúng được phân loại như máy móc hoàn chỉnh đang được xem xét và không được phân loại vào bất kỳ nhóm riêng rẽ dành cho các bộ phận. Quy tắc tương tự được áp dụng với máy móc chưa hoàn chỉnh có. các đặc tính của máy móc hoàn chỉnh (xem phần (IV) ở trên), được tháo rời (xem Quy tắc chú giải tổng quát của chương 84 và 85). Tuy nhiên, các bộ phận được tháo rời vượt quá số lượng cần thiết của một máy móc hoàn chỉnh hoặc một máy móc chưa hoàn chỉnh có các đặc điểm của một máy móc hoàn chỉnh, sẽ được phân loại vào từng nhóm phù hợp với chúng.', '(VI) MÁY ĐA CHỨC NĂNG VÀ CÁC MÁY TỔ HỢP', '(Chú giải Phần 3)', 'Thông thường, máy đa chức năng được phân loại theo chức năng chính của máy.', 'Máy đa chức năng là các máy, ví dụ, máy công cụ để gia công kim loại sử dụng các công cụ có thể hoán đổi cho nhau, cho phép các máy này thực hiện nhiều chức năng hoạt động khác nhau (ví dụ, cán, khoan, mài).', 'Khi không thể xác định được chức năng chính, và trong trường hợp, như quy định tại Chú giải 3 của phần này, khi không có yêu cầu khác, thì cần áp dụng Quy tắc chú giải tổng quát 3 (c); Trong những trường hợp như vậy, đối với các máy đa chức năng có thể được phân loại trong các nhóm từ 84.25 đến 84.30, trong các nhóm từ 84.58 đến 84.63 hoặc trong các nhóm từ 84.70 đến 84.72.', 'Các loại máy tổ hợp bao gồm từ hai hoặc nhiều máy hoặc thiết bị thuộc các loại khác nhau, được lắp ráp lại để tạo thành một tổ hợp, để thực hiện liên tục hoặc đồng thời các chức năng riêng biệt mà các chức năng này thường mang tính bổ sung và được mô tả trong các nhóm khác nhau thuộc phần XVI, cũng được phân loại theo chức năng chính của máy tổ hợp.', 'Dưới đây là các ví dụ về những loại máy tổ hợp: ví dụ, máy in có gắn máy phụ để cấp giấy (nhóm 84.43); máy làm hộp bìa giấy kết hợp với máy hỗ trợ để in tên và các biểu tượng đơn giản (nhóm 84.41); các loại lò nung, lò luyện dùng trong công nghiệp được kết hợp với các thiết bị dùng để nâng hoặc chuyển hàng (thuộc các nhóm 84.17 hoặc 85.14); các loại máy sản xuất thuốc lá kết hợp với những máy đóng gói (nhóm 84.78).', 'Theo các quy định trên, máy móc thuộc các chủng loại khác nhau được lắp cùng với nhau để tạo thành một tổ hợp, khi một loại được lắp vào trong hoặc được lắp lên trên loại khác, hoặc được lắp trên cùng một giá hoặc một khung đỡ hoặc được đặt trong một khung máy.', 'Các tập hợp máy không được xem là lắp cùng với nhau để tạo thành một tổ hợp trừ khi các máy này được thiết kế để lắp ráp vĩnh viễn với nhau hoặc lắp với một giá, đế, khung máy chung,... Loại này không bao gồm những tổ hợp máy chỉ lắp gá tạm thời hoặc không phù hợp với việc lắp ráp bình thường một máy tổ hợp.', 'Đế, khung hoặc khung máy chung có thể được đặt trên các bánh xe để máy tổ hợp có thể di chuyển trong quá trình sử dụng, với điều kiện không mang tính chất của một sản phẩm độc lập (như một phương tiện) có thể được phân loại vào một nhóm cụ thể của Danh mục.', 'Nền, bệ đế bằng bê tông, tường, vách ngăn, trần, v.v... ngay cả khi được thiết kế đặc biệt để phù hợp với các máy hoặc thiết bị, cũng không được coi là đế chung liên kết các máy hoặc thiết bị ở dạng tổ hợp.', 'Chú giải 3 của phần XVI không cần được áp dụng khi máy tổ hợp đã được phân loại cụ thể vào một nhóm, ví dụ một số loại máy điều hòa nhiệt độ (nhóm 84.15).', 'Chú ý máy đa chức năng sẽ được phân loại theo quy định tại Chú giải 8 của Chương 84, (ví dụ, máy công cụ để gia công kim loại nhưng đồng thời cũng để gia công các chất liệu khác, các loại máy đột lỗ, được sử dụng rộng rãi trong công nghiệp dệt cũng như trong công nghiệp giấy, da, plastic...).', '(VII) CÁC ĐƠN VỊ MÁY CHỨC NĂNG', '(Chú giải phần 4)', 'Chú giải này áp dụng khi một máy (kể cả một tổ hợp máy) gồm nhiều bộ phận riêng biệt nhưng dự kiến được sử dụng để cùng nhau thực hiện một chức năng được xác định cụ thể như được nêu tại một nhóm thuộc Chương 84, hoặc phổ biến hơn trong Chương 85. Cả tổ hợp sẽ được phân loại vào nhóm phù hợp với chức năng này, khi mà những thành phần khác nhau (để thuận tiện hoặc do những lý do khác) vấn đề riêng lẻ hoặc được kết nối với nhau qua hệ thống ống dẫn (dẫn không khí, khí nén, dầu, v.v...) bằng các thiết bị được dùng để truyền năng lượng, bằng dây cáp điện hoặc bằng các thiết bị khác.', 'Theo mục đích của Chú giải này, thuật ngữ “dự kiến được sử dụng để cùng nhau thực hiện một chức năng được xác định cụ thể” chỉ bao gồm các loại máy và tổ hợp máy chủ yếu thực hiện chức năng cụ thể của tổ hợp máy đó, do đó, loại trừ những máy móc hoặc thiết bị đảm nhiệm các chức năng phụ trợ và các chức năng phụ trợ này không tạo nên chức năng chủ yếu của cả tổ hợp nói trên.', 'Dưới đây là những ví dụ về các đơn vị máy chức năng thuộc loại này theo Chú giải 4 của Phần này:', '(1) Hệ thống thủy lực bao gồm một bộ phận tạo nguồn thủy lực (chủ yếu bao gồm một bơm thủy lực, một động cơ điện, van điều khiển và thùng chứa dầu), xi lanh thủy lực và ống dẫn hoặc ống nhỏ cần thiết để nối xi lanh với đơn vị năng lượng thủy lực (nhóm 84.12).', '(2) Thiết bị làm lạnh gồm có các bộ phận không được lắp cùng nhau để tạo thành một tổ hợp máy móc và được kết nối với nhau bởi các ống dẫn vận chuyển chất lỏng để làm lạnh (nhóm 84.18).', '(3) Các hệ thống tưới bao gồm một trạm điều khiển gồm thiết bị lọc, bơm phun, van đo... các hệ thống ống dẫn nhánh ở dưới đất và một mạng lưới đặt trên bề mặt (nhóm 84.24).', '(4) Máy vắt sữa với các bộ phận riêng rẽ (bơm chân không, bộ phận gây xung động, cốc dùng để vắt sữa và những thùng đựng) được kết nối với nhau thông qua các ống mềm hoặc cứng (nhóm 84.34).', '(5) Tổ hợp máy làm bia bao gồm, không kể những cái khác, máy kích thích hoặc nảy mầm, máy nghiền mạch nha, thùng nguyên liệu, thùng lọc, v.v... (nhóm 84.38). Tuy nhiên, các thiết bị phụ trợ, (ví dụ, máy đóng chai và máy in nhãn mác) không được xếp ở đây và được phân loại trong nhóm phù hợp với chúng.', '(6) Các hệ thống sắp xếp thư chủ yếu bao gồm nhóm bàn điều khiển mã, hệ thống kênh sắp xếp trước, máy sắp xếp trung gian, máy sắp xếp cuối cùng, tất cả được điều khiển bởi một máy xử lý dữ liệu tự động (nhóm 84.72).', '(7) Máy rải nhựa đường bao gồm các bộ phận riêng rẽ như phễu đổ nguyên liệu, băng chuyền, máy sấy, động cơ rung, máy trộn, tháp dự trữ và bộ phận điều khiển, được sắp xếp cùng nhau (nhóm 84.74).', '(8) Các máy móc dùng để lắp ráp đèn điện, trong đó các bộ phận cấu thành được gắn với nhau bởi băng tải, bao gồm những thiết bị dùng để xử lý nhiệt thủy tinh, bơm và những bộ phận để thử đèn (nhóm 84.75).', '(9) Thiết bị hàn bao gồm mỏ hàn hoặc cặp hàn, với máy biến thế, máy phát điện hoặc nắn dòng để cung cấp điện (nhóm 85.15).', '(10) Máy phát điện thoại không dây cầm tay và microphone cầm tay kèm theo với nó (nhóm 85.17).', '(11) Thiết bị Ra đa và bộ phận tiếp năng lượng, bộ khuếch đại của ra đa... (nhóm 85.26)', '(12) Hệ thống thu tín hiệu truyền hình qua vệ tinh gồm có một bộ phận thu tín hiệu, một chảo pa ra bôn phản quang, một rô ta tô kiểm soát dùng cho chảo thu tín hiệu, cần thu tín hiệu (định hướng sóng), kính phân cực, khối giảm nhiễu (LNB), bộ chuyển đổi và kiểm soát từ xa bằng tia hồng ngoại (nhóm 85.28).', '(13) Chuông chống trộm, ví dụ bao gồm một đèn tia hồng ngoại, một tế bào quang điện và một chuông (nhóm 85.31).', 'Chú ý các bộ phận không phù hợp với các quy định của Chú giải 4 của phần XVI được xếp trong các nhóm phù hợp với chúng. Ví dụ, quy định áp dụng cho các hệ thống giám sát video mạch kín, bao gồm một tổ hợp các camera và màn hiển thị video được kết nối bằng cáp đồng trục tới một bộ điều khiển, chuyển mạch, thu phát âm thanh và có thể là các máy xử lý dữ liệu tự động (để lưu dữ liệu) và/ hoặc máy ghi hình (để ghi hình).', '(VIII) MÁY MÓC DI ĐỘNG', 'Giống như đối với các máy tự hành hoặc những máy móc di động khác, xem Chú giải của các nhóm dành cho các loại máy móc (ví dụ, máy nâng và xếp thuộc các nhóm từ 84.25 đến 84.28, và máy đào thuộc các nhóm từ 84.29 đến 84.30...), tham khảo các Chú giải của các Chương và nhóm thuộc Phần XVII.', '(IX) MÁY MÓC VÀ THIẾT BỊ SỬ DỤNG TRONG PHÒNG THÍ NGHIỆM', 'Máy móc và thiết bị của loại thuộc Phần này vẫn được xếp trong Phần này ngay cả khi chúng chuyên được sử dụng trong các phòng thí nghiệm hoặc có liên quan đến các dụng cụ đo lường và khoa học, với điều kiện chúng không tạo thành các thiết bị dùng để trưng bày-không cho các mục đích công nghiệp của nhóm 90.23 hoặc các phương tiện đo lường, kiểm tra thuộc Chương 90. Ví dụ, các lò nung nhỏ, thiết bị chưng cất, máy nghiền, trộn, biến thế điện và tụ điện, dùng trong phòng thí nghiệm, vẫn được phân loại trong phần này.', '(X) PHẾ LIỆU VÀ PHẾ THẢI ĐIỆN VÀ ĐIỆN TỬ', '(Chú giải phần 6)', 'Khái niệm “mục đích ban đầu”, trong Chú giải 6 của phần XVI, đề cập đến việc sử dụng chức năng như là hàng hóa điện hoặc điện tử.']</t>
-  </si>
-  <si>
-    <t>['Chú giải.', '1.- Phần này không bao gồm các mặt hàng thuộc các nhóm 95.03 hoặc 95.08, hoặc xe trượt băng, xe trượt tuyết hoặc loại tương tự thuộc nhóm 95.06.', '2.- Khái niệm "bộ phận" và "bộ phận và phụ kiện" không áp dụng cho các sản phẩm sau đây, dù chúng có hoặc không được nhận biết như những bộ phận dùng cho hàng hoá thuộc Phần này:', '(a) Tấm đệm, vòng đệm hoặc loại tương tự bằng vật liệu bất kỳ (được phân loại theo vật liệu cấu thành hoặc được xếp vào nhóm 84.84) hoặc các sản phẩm khác bằng cao su lưu hoá trừ cao su cứng (nhóm 40.16);', '(b) Các bộ phận có công dụng chung, như đã định nghĩa tại Chú giải 2 của Phần XV, làm bằng kim loại cơ bản (Phần XV), hoặc các mặt hàng tương tự làm bằng plastic (Chương 39);', '(c) Các mặt hàng thuộc Chương 82 (dụng cụ các loại);', '(d) Các mặt hàng thuộc nhóm 83.06;', '(e) Máy móc hoặc thiết bị thuộc nhóm 84.01 đến 84.79, hoặc các bộ phận của chúng; các mặt hàng thuộc nhóm 84.81 hoặc 84.82 hoặc, các mặt hàng thuộc nhóm 84.83 với điều kiện là chúng cấu thành các bộ phận bên trong của động cơ hay mô tơ;', '(f) Máy điện hoặc thiết bị điện (Chương 85);', '(g) Các mặt hàng thuộc Chương 90;', '(h) Các mặt hàng thuộc Chương 91;', '(ij) Vũ khí (Chương 93);', '(k) Đèn (luminaires) và bộ đèn và các bộ phận của chúng thuộc nhóm 94.05; hoặc', '(l) Bàn chải các loại được sử dụng như là bộ phận của các phương tiện (nhóm 96.03).', '3.- Khi đề cập đến các Chương từ 86 đến Chương 88 khái niệm “bộ phận” hoặc "phụ kiện" không áp dụng cho loại bộ phận hoặc phụ kiện không phù hợp để chỉ dùng hoặc chủ yếu dùng với các mặt hàng thuộc các Chương này. Một loại bộ phận hoặc phụ kiện đáp ứng mô tả trong hai hay nhiều nhóm thuộc các Chương này phải phân loại vào nhóm tương ứng với công dụng chủ yếu của loại bộ phận hay phụ kiện ấy.', '4.- Theo mục đích của Phần này:', '(a) Các phương tiện được thiết kế đặc biệt để chạy cả trên đường bộ và đường ray được phân loại vào nhóm thích hợp của Chương 87;', '(b) Xe lội nước có động cơ được phân loại vào nhóm thích hợp của Chương 87;', '(c) Phương tiện bay được thiết kế đặc biệt để cũng có thể sử dụng như loại phương tiện đường bộ được phân loại vào nhóm thích hợp của Chương 88.', '5. Các phương tiện chạy trên đệm không khí được phân loại trong Phần này cùng với các phương tiện giống chúng nhất cụ thể như sau:', '(a) Xếp vào Chương 86 nếu chúng được thiết kế để chạy trên đường ray dẫn (tàu hoả chạy trên đệm không khí);', '(b) Xếp vào Chương 87 nếu chúng được thiết kế để chạy trên đất hoặc trên cả đất và nước;', '(c) Xếp vào Chương 89 nếu chúng được thiết kế để chạy trên nước, có hoặc không có khả năng đỗ xuống bờ hoặc bến tàu hoặc cũng có thể chạy trên băng.', 'Bộ phận và phụ kiện của các phương tiện chạy trên đệm không khí được phân loại theo cách phân loại các phương tiện chạy trên đệm không khí đã quy định trên đây.', 'Các bộ phận cố định và khớp nối của đường ray tàu chạy trên đệm không khí được phân loại như các bộ phận cố định và ghép nối của đường ray đường sắt, và thiết bị tín hiệu, an toàn hoặc điều khiển giao thông dùng cho hệ thống vận tải trên đệm không khí, được phân loại như thiết bị tín hiệu, an toàn hoặc điều khiển giao thông của đường sắt.', 'TỔNG QUÁT', '(I) NỘI DUNG TỔNG QUÁT CỦA PHẦN NÀY', 'Phần này bao gồm tất các phương tiện chạy trên đường ray và tàu chạy trên đệm hơi (chương 86), các phương tiện chạy trên mặt đất khác, kể cả các phương tiện chạy trên đệm khí (chương 87), phương tiện bay và tàu vũ trụ (chương 88) và tàu biển, xuồng, tàu chạy nhờ đệm khí và cấu trúc nổi (chương 89), trừ những trường hợp sau:', '(a) Một số loại máy di động (xem Phần (II) dưới đây).', '(b) Các mẫu dùng để trưng bày thuộc nhóm 90.23.', '(c) Các đồ chơi, một số thiết bị thể thao mùa đông, và các phương tiện được thiết kế đặc biệt cho trò chơi di chuyển trong công viên giải trí (amusement park rides) và trò chơi công viên nước (water park amusements); trò chơi hội chợ (fairground amusements). Phần này không bao gồm, ví dụ, các xe đạp đồ chơi (trừ xe đạp thường), xe ô tô đạp, vv... được thiết kế để trẻ em sử dụng, các xuồng đồ chơi và phương tiện bay đồ chơi (nhóm 95.03); xe trượt tuyết, xe trượt bằng và loại tương tự (nhóm 95.06); trò chơi xe đụng (dodge em car), xe kéo và các phương tiện khác, kể cả rơ- moóc, được thiết kế đặc biệt cho và là bộ phận cấu thành của trò chơi hội chợ (ví dụ, xe rơ-moóc cho trò chơi ném vòng (ring-stand trailers)) (nhóm 95.08).', 'Hơn nữa, Phần này cũng bao gồm một số loại phương tiện vận tải như công ten nơ được thiết kế đặc biệt và được trang bị để vận chuyển theo một hoặc nhiều phương thức, một số thiết bị hoặc dụng cụ đường ray đường sắt hoặc ray xe điện, và các máy (kể cả điện cơ) thiết bị tín hiệu (Chương 86) và dù các loại, thiết bị phóng tàu vũ trụ, bàn phanh hoặc thiết bị tuơng tự và các thiết bị huấn luyện bay (Chương 88).', 'Theo các quy định của phần (III) dưới đây, Phần này cũng bao gồm các bộ phận và phụ kiện của các xe cộ, phương tiện bay, vv… của các Chương từ 86 đến 88.', '(II) CÁC LOẠI MÁY TỰ HÀNH HOẶC MÁY DI ĐỘNG KHÁC', 'Một số loại máy hoặc thiết bị (đặc biệt là loại thuộc phần XVI) có thể được lắp lên khung gầm các phương tiện hoặc trên các đế nổi (floating base) của phần XVII; việc phân loại máy di động có được phụ thuộc vào nhiều yếu tố khác nhau, đặc biệt là loại đế.', 'Ví dụ, tất cả các loại máy di động, được tạo thành bởi việc lắp một máy lên trên một đế nổi được phân loại trong Chương 89 (ví dụ, cần cẩu nổi, máy nạo vét lòng sông, máy hút hạt ngũ cốc, vv…). Để phân loại các máy di động được tạo thành bởi việc lắp thiết bị trên một khung xe cộ thuộc chương 86 hoặc 87, xem Chú giải chi tiết của nhóm 86.04, 87.01, 87.09 hoặc 87.16.', '(III) CÁC BỘ PHẬN VÀ PHỤ TÙNG', 'Cần chú ý là Chương 89 không quy định cho các bộ phận (trừ thân tàu) hoặc các phụ kiện của tàu biển, thuyền hoặc các cấu trúc nổi. Những bộ phận và phụ kiện như vậy, ngay cả khi có được nhận dạng là dùng cho các tàu biển, vv… được phân loại vào các nhóm tương ứng của chúng tại các chương khác. Các chương khác thuộc phần này quy định việc phân loại các bộ phận và phụ kiện của các xe cộ, phương tiện bay hoặc thiết bị liên quan.', 'Tuy nhiên, cần chú ý là những nhóm này chỉ áp dụng cho những bộ phận và phụ kiện thỏa mãn với cả ba điều kiện sau:', '(a) Chúng không được loại trừ theo quy định của Chú giải 2 của Phần này (xem đoạn (A) dưới đây).', 'và (b) Chúng phải phù hợp để sử dụng duy nhất hoặc chủ yếu cho các sản phẩm thuộc các chương từ 86 đến 88 (xem đoạn (B) dưới đây).', 'và (c) Chúng không được nêu cụ thể hơn ở bất kỳ nơi khác nào trong Danh mục (xem đoạn (C) dưới đây).', '(A) Các bộ phận và phụ kiện bị loại trừ theo Chú giải 2 của Phần XVII', 'Chú giải này loại trừ các bộ phận và phụ kiện sau, dù cho chúng có hoặc không được xác định là hàng hóa của Phần này:', '(1) Khớp nối, miếng đệm, vòng đệm hoặc loại tương tự, bằng vật liệu bất kỳ (được phân loại theo vật liệu cấu thành hoặc được xếp vào nhóm 84.84) và các sản phẩm khác bằng cao su lưu hoá trừ cao su cứng (ví dụ, vành chắn bùn và cái bọc bàn đạp) (nhóm 40.16);', '(2) Các bộ phận có công dụng chung như đã được định nghĩa tại Chú giải 2 của phần XV, ví dụ, dây cáp và xích (đã hoặc chưa được cắt theo chiều dài nhất định hoặc được gắn với các thiết bị đầu cuối, trừ cáp phanh, cáp kéo hoặc các loại tương tự phù hợp cho việc sử dụng trong phương tiện có động cơ của Chương 87), đinh, chốt, chi tiết, vòng đệm, then và chốt định vị, lò xo (kể cả lò xo lá của các xe cộ) (các sản phẩm như thế bằng kim loại cơ bản được xếp trong các Chương từ 73 đến 76 và 78 đến 81, và các sản phẩm tương tự bằng nhựa được xếp vào Chương 39), và khoá, thiết bị hoặc khung của thùng xe (ví dụ được các trang trí thành xe, bản lề, tay cầm mở cửa, tay phanh, chỗ để chân, có chế mở cửa sổ), biển số, biển quốc tịch, vv… (những hàng hoá như thế làm bằng kim loại cơ bản được xếp trong Chương 83, và các hàng hoá tương tự bằng nhựa được xếp vào Chương 39).', '(3) Chìa vặn đai ốc, cờ lê và các dụng cụ khác thuộc chương 82.', '(4) Chuông (ví dụ, dùng cho xe đạp) và các sản phẩm khác thuộc nhóm 83.06.', '(5) Các máy và dụng cụ cơ khí, và các bộ phận của chúng, thuộc các nhóm 84.01 đến 84.79, ví dụ:', '(a) Nồi hơi và trang thiết bị nồi hơi (nhóm 84.02 hoặc 84.04).', '(b) Máy sản xuất chất khí (ví dụ, dùng cho xe ô tô) (nhóm 84.05).', '(c) Tua bin hơi nước thuộc nhóm 84.06', '(d) Động cơ các loại kể cả động cơ có gắn hộp số và các bộ phận của chúng, được xếp trong các nhóm từ 84.07 đến 84.12.', '(e) Bơm, máy nén và quạt (nhóm 84.13 hoặc 84.14).', '(f) Các máy điều hoà không khí (nhóm 84.15).', '(g) Các dụng cụ cơ khí để phun, phun rải hoặc phun áp lực các chất lỏng hoặc bột; bình cứu hoả (nhóm 84.24).', '(h) Các máy nâng, chuyển hàng, xếp hoặc dỡ hàng, (ví dụ, tời nâng, kích, cần cẩu), các máy dùng để di chuyển, phân loại, san ủi, cạp đất, xúc, đầm đất, nén, tách hoặc máy khoan đào, cho đất, khoáng sản hoặc quặng (nhóm 84.25, 84.26, 84.28, 84.30 hoặc 84.31).', '(ij) Các máy nông nghiệp của nhóm 84.32 hoặc 84.33 (ví dụ máy đập lúa, gieo hạt, chuyển hạt, vv…và phụ kiện kèm theo) được thiết kế để lắp trên xe cộ.', '(k) Máy thuộc loại đã được mô tả trong nhóm 84.74.', '(l) Cơ cấu lau kính chắn gió xe ô tô thuộc nhóm 84.79.', '(6) Một số sản phẩm khác thuộc chương 84, ví dụ:', '(a) Vòi, vòi nuớc, van và các thiết bị tương tự (ví dụ, vòi hút tản nhiệt, van săm) (nhóm 84.81).', '(b) Ổ bi hoặc ổ đũa (nhóm 84.82).', '(c) Các bộ phận bên trong của động cơ hoặc máy (trục khủyu, trục cam, bánh lái, vv…) được xếp trong nhóm 84.83.', '(7) Các máy hoặc thiết bị điện thuộc chương 85, ví dụ:', '(a) Động cơ điện, máy phát điện, máy biến biến thế, vv… thuộc nhóm 85.01 hoặc 85.04.', '(b) Nam châm điện, ly hợp điện từ, phanh điện từ, vv… thuộc nhóm 85.05.', '(c) Ắc quy điện (nhóm 85.07).', '(d) Thiết bị đánh lửa hoặc khởi động bằng điện loại được dùng cho các động cơ đốt trong đốt cháy bằng tia lửa điện hoặc bằng sức nén (bu gi, động cơ khởi động, vv...) (nhóm 85.11).', '(e) Thiết bị chiếu sáng, phát tín hiệu, gạt nước, chống tạo sương và tuyết họat động bằng điện dùng cho xe đạp hoặc các phương tiện có động cơ (nhóm 85.12); thiết bị báo tín hiệu họat động bằng điện dùng cho các xe cộ khác (ví dụ dùng cho tàu hoả) hoặc cho phương tiện bay hoặc tàu biển (nhóm 85.31); các thiết bị chống tạo sương hay tuyết họat động bằng điện cho những phương tiện khác, phương tiện bay hay tàu biển (nhóm 85.43).', '(f) Thiết bị làm nóng bằng điện dùng cho ô tô hoặc tàu hỏa, phương tiện bay, vv... (nhóm 85.16).', '(g) Micro, loa, và các thiết bị điện khuếch đại âm tần (nhóm 85.18).', '(h) Bộ thu và phát sóng vô tuyến (nhóm 85.25 hoặc 85.27).', '(ij) Tụ điện (nhóm 85.32).', '(k) Thiết bị truyền tải điện và các thiết bị góp điện khác dùng cho các xe kéo điện, cầu trì, công tắc và các thiết bị điện khác thuộc nhóm 85.35 hoặc 85.36.', '(l) Đèn điện dây tóc và các đèn phóng điện, kể cả đèn pha gắn kín, thuộc nhóm 85.39.', '(m) Các thiết bị điện khác, như dây và cáp cách điện (kể cả các bộ dây dẫn điện) và các sản phẩm điện bằng than chì hoặc các bon, đã hoặc chưa gắn với các đầu nối; cách điện, thiết bị cách điện (các nhóm từ 85.44 đến 85.48).', '(8) Các dụng cụ và thiết bị thuộc Chương 90, kể cả các loại được sử dụng trên một số phương tiện như:', '(a) Máy ảnh hoặc máy quay phim (nhóm 90.06 hoặc 90.07).', '(b) Thiết bị và dụng cụ dẫn đường (nhóm 90.14).', '(c) Thiết bị và dụng cụ được sử dụng trong các ngành y tế, phẫu thuật, nha khoa hoặc thú y (nhóm 90.18).', '(d) Các thiết bị sử dụng tia X và các thiết bị khác thuộc nhóm 90.22.', '(e) Cáp kế (nhóm 90.26).', '(f) Máy đếm vòng quay, đồng hồ tính tiền gắn trên xe tắc-xi, đồng hồ chỉ thị tốc độ và máy đo tốc độ góc và các dụng cụ, thiết bị khác thuộc nhóm 90.29.', '(g) Dụng cụ đo lường hoặc kiểm tra, dụng cụ và máy thuộc nhóm 90.31.', '(9) Đồng hồ (ví dụ, các bảng đồng hồ) (Chương 91).', '(10) Vũ khí (Chương 93)', '(11) Đèn (Luminaires) và bộ đèn (ví dụ, đèn pha dùng cho phương tiện bay hoặc xe lửa) của nhóm 94.05.', '(12) Chổi (ví dụ, chổi lắp trên xe quét đường) (nhóm 96.03).', '(B) Tiêu chí chỉ dùng hoặc chủ yếu dùng.', '(1) Các bộ phận và phụ kiện có thể phân loại vào cả Phần XVII và Phần khác.', 'Theo Chú giải 3 của Phần, các bộ phận và phụ kiện không phù hợp để chỉ dùng hoặc chủ yếu dùng với các mặt hàng thuộc Chương 86 đến 88 bị loại trừ khỏi các Chương đó.', 'Do đó, Chú giải 3 có hiệu lực khi một bộ phận hoặc phụ kiện có thể phân loại vào một hoặc nhiều Phần khác cũng như vào Phần XVII, việc phân loại cuối cùng được quyết định bởi mục đích sử dụng chính của mặt hàng. Theo đó, cơ cấu lái, hệ thống phanh, bánh xe, chắn bùn, v.v., được dùng trên nhiều loại máy di động thuộc Chương 84, gần như giống hệt với loại dùng trên xe tải thuộc Chương 87, và do mục đích sử dụng chính của các bộ phận và phụ kiện đó là với các xe tải nên chúng được phân loại ở Phần này.', '(2) Các bộ phận và phụ kiện có thể phân loại vào hai hoặc nhiều nhóm của Phần này.', 'Một số bộ phận và phụ kiện phù hợp sử dụng cho nhiều hơn một loại phương tiện (ô tô, phương tiện bay, xe mô tô, v.v); ví dụ về các mặt hàng như vậy gồm phanh, hệ thống lái, bánh xe, trục xe, v.v. Các bộ phận và phụ kiện như vậy được phân loại và nhóm liên quan đến bộ phận và phụ kiện của phương tiện mà chúng được chủ yếu dùng cùng.', '(C) Các bộ phận và phụ kiện được mô tả cụ thể hơn tại nơi khác trong Danh mục.', 'Các bộ phận và phụ kiện, ngay cả khi xác định được sử dụng cho hàng hóa thuộc Phần này vẫn bị loại trừ nếu chúng được mô tả cụ thể hơn bởi một nhóm thuộc Phần khác trong Danh mục, ví dụ:', '(1) Dạng hình của cao su lưu hóa trừ cao su cứng, đã hoặc chưa cắt thành từng đoạn (nhóm 40.08).', '(2) Băng truyền bằng cao su lưu hóa (nhóm 40.10).', '(3) Lốp, hoa lốp, lót vành và săm thay thế được, bằng cao su (nhóm 40.11 đến 40.13).', '(4) Túi đựng dụng cụ bằng da thuộc hoặc da thuộc tổng hợp, bằng sợi lưu hóa, v.v. (nhóm 42.02).', '(5) Lưới xe đạp hay khí cầu (nhóm 56.08).', '(6) Thừng kéo (nhóm 56.09).', '(7) Thảm dệt (Chương 57).', '(8) Kính an toàn chưa có khung bao gồm kính tôi hoặc kính dán nhiều lớp, đã hoặc chưa được định hình (nhóm 70.07).', '(9) Gương chiếu hậu (nhóm 70.09 hoặc Chương 90 - xem chú giải chi tiết tương ứng).', '(10) Kính chưa có khung cho đèn pha của phương tiện (nhóm 70.14) và hàng hóa của Chương 70 nói chung.', '(11) Trục mềm cho chỉ báo tốc độ, máy đếm vòng quay, v.v. (nhóm 84.83).', '(12) Ghế ngồi của phương tiện thuộc nhóm 94.01.']</t>
+    <t>['SẢN PHẨM CỦA NGÀNH CÔNG NGHIỆP HÓA CHẤT HOẶC CÁC NGÀNH CÔNG NGHIỆP LIÊN QUAN', 'Chú giải.', '1.- (A) Các mặt hàng (trừ quặng phóng xạ) đáp ứng các mô tả trong nhóm 28.44 hoặc 28.45 phái được xếp vào các nhóm đó và không được đưa vào nhóm nào khác của Danh mục.', '(B) Theo Chú giải mục (A) trên, các mặt hàng đáp ứng các mô tả trong nhóm 28.43, 28.46 hoặc 28.52 được xếp vào các nhóm đó và không được đưa vào nhóm nào khác của Phần này.', '2.- Theo Chú giải 1 ở trên, các mặt hàng xếp vào các nhóm 30.04, 30.05, 30.06, 32.12, 33.03, 33.04, 33.05, 33.06, 33.07, 35.06, 37.07 hoặc 38.08 vì đã được đóng gói theo liều lượng hoặc đóng gói để bán lẻ được xếp vào các nhóm đó và không xếp vào bất cứ nhóm nào khác của Danh mục.', '3.- Các mặt hàng đóng gói thành bộ gồm từ hai hoặc nhiều phần cấu thành riêng biệt, trong đó một vài hoặc tất cả các phần cấu thành của các mặt hàng đó nằm trong Phần này và chúng được trộn với nhau để tạo ra một sản phẩm của Phần VI hoặc VII, phải được xếp vào nhóm phù hợp với sản phẩm đó, với điều kiện là các phần cấu thành phải:', '(a) theo cách thức đóng gói của chúng cho thấy rõ ràng là chúng được sử dụng cùng nhau mà không cần phải đóng gói lại;', '(b) được trình bày cùng nhau; và', '(c) có thể nhận biết là chúng nhằm bổ sung cho nhau, thông qua bản chất hoặc tỷ lệ tương ứng của chúng trong sản phẩm.', '4.- Trường hợp sản phẩm đáp ứng mô tả tại một hoặc nhiều nhóm trong Phần VI do được mô tả theo tên hoặc nhóm chức và đáp ứng nhóm 38.27, thì sản phẩm đó được phân loại vào nhóm tương ứng theo tên hoặc nhóm chức và không phân loại vào nhóm 38.27.']</t>
+  </si>
+  <si>
+    <t>['PLASTIC VÀ CÁC SẢN PHẨM BẰNG PLASTIC; CAO SU VÀ CÁC SẢN PHẨM BẰNG CAO SU', 'Chú giải.', '1.- Các mặt hàng xếp thành bộ từ hai hay nhiều phần cấu thành riêng biệt, trong đó một số hoặc tất cả các phần cấu thành của các mặt hàng nằm trong Phần này được trộn với nhau để tạo ra một sản phẩm của Phần VI hay VII, phải được xếp vào nhóm phù hợp với sản phẩm đó, với điều kiện các phần cấu thành đó thoả mãn:', '(a) theo cách thức đóng gói của chúng cho thấy rõ ràng là chúng được sử dụng cùng nhau mà không cần phải đóng gói lại;', '(b) được trình bày cùng nhau; và', '(c) có thể nhận biết là chúng nhằm bổ sung cho nhau, thông qua bản chất hoặc tỷ lệ tương ứng của chúng trong sản phẩm.', '2.- Trừ những mặt hàng trong nhóm 39.18 hoặc 39.19, plastic, cao su và các sản phẩm của chúng, đã in hoa văn, các ký tự hoặc biểu tượng tranh ảnh, mà không chỉ đơn thuần phục vụ cho công dụng chính của sản phẩm đó, được xếp vào Chương 49.']</t>
+  </si>
+  <si>
+    <t>['NGUYÊN LIỆU DỆT VÀ CÁC SẢN PHẨM DỆT', 'Chú giải.', '1.- Phần này không bao gồm:', '(a) Lông cứng hoặc lông động vật dùng làm bàn chải (nhóm 05.02); lông đuôi hoặc lông bờm ngựa hoặc phế liệu từ lông đuôi hoặc lông bờm ngựa (nhóm 05.11);', '(b) (b) Tóc người hoặc các sản phẩm bằng tóc người (nhóm 05.01, 67.03 hoặc 67.04), trừ vải lọc dùng trong công nghệ ép dầu hoặc tương tự (nhóm 59.11);', '(c) Xơ của cây bông hoặc các vật liệu thực vật khác thuộc Chương 14;', '(d) Amiăng (asbestos) thuộc nhóm 25.24 hoặc các sản phẩm từ amiăng hoặc các sản phẩm khác thuộc nhóm 68.12 hoặc 68.13;', '(e) Các sản phẩm thuộc nhóm 30.05 hoặc 30.06; chỉ sử dụng để làm sạch các kẽ răng (chỉ tơ nha khoa), đóng gói để bán lẻ, thuộc nhóm 33.06;', '(f) Các loại vải dệt có phủ lớp chất nhạy thuộc các nhóm từ 37.01 đến 37.04;', '(g) Sợi monofilament có kích thước mặt cắt ngang bất kỳ trên 1 mm hoặc dải hoặc dạng tương tự (ví dụ, sợi rơm nhân tạo) có chiều rộng biểu kiến trên 5 mm, bằng plastic (Chương 39), hoặc các loại dây tết bện hoặc vải hoặc sản phẩm dạng song mây tre đan khác hoặc liễu gai làm bằng sợi monofilament hoặc dải đó (Chương 46);', '(h) Các loại vải dệt thoi, dệt kim hoặc móc, phớt hoặc sản phẩm không dệt, đã ngâm tẩm, tráng, phủ hoặc ép với plastic, hoặc các sản phẩm làm từ các vật liệu đó, thuộc Chương 39;', '(ij) Các loại vải dệt thoi, dệt kim hoặc móc, phớt hoặc sản phẩm không dệt, đã ngâm tẩm, tráng, phủ hoặc ép với cao su, hoặc các sản phẩm làm từ các vật liệu đó, thuộc Chương 40;', '(k) Da sống còn lông (Chương 41 hoặc 43) hoặc sản phẩm da lông, da lông nhân tạo hoặc các sản phẩm làm bằng các vật liệu đó, thuộc nhóm 43.03 hoặc 43.04;', '(l) Các loại hàng hóa làm bằng vật liệu dệt thuộc nhóm 42.01 hoặc 42.02;', '(m) Các sản phẩm hoặc hàng hóa thuộc Chương 48 (ví dụ, mền xơ xenlulo)', '(n) Giày, dép hoặc các bộ phận của giày dép, ghệt hoặc ống ôm sát chân (leggings) hoặc các mặt hàng tương tự thuộc Chương 64;', '(o) Lưới bao tóc hoặc các vật đội đầu khác hoặc các bộ phận của chúng thuộc Chương 65;', '(p) Hàng hóa thuộc Chương 67;', '(q) Vật liệu dệt đã phủ bột mài (nhóm 68.05) và xơ carbon hoặc các sản phẩm bằng xơ carbon thuộc nhóm 68.15;', '(r) Sợi thủy tinh hoặc các sản phẩm bằng sợi thủy tinh, trừ hàng thêu bằng chỉ thủy tinh trên vải lộ nền (Chương 70);', '(s) Hàng hóa thuộc Chương 94 (ví dụ, đồ nội thất, bộ đồ giường, đèn (luminaires) và bộ đèn);', '(t) Hàng hóa thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ thể thao và lưới);', '(u) Hàng hóa thuộc Chương 96 (ví dụ, bàn chải, bộ đồ khâu du lịch, khoá kéo và ruy băng máy chữ, băng vệ sinh (miếng) và băng vệ sinh dạng ống (tampon), khăn (bỉm) và tã lót; hoặc', '(v) Hàng hóa thuộc Chương 97.', '2. (A) Hàng hóa có thể phân loại vào các Chương từ 50 đến 55 hoặc nhóm 58.09 hoặc 59.02 và được làm từ hỗn hợp của hai hoặc nhiều loại vật liệu dệt được phân loại như sản phẩm đó làm từ vật liệu dệt nào chiếm khối lượng trội hơn.', 'Khi không có một vật liệu dệt nào chiếm khối lượng trội hơn, hàng hóa sẽ được phân loại xem như nó được làm toàn bộ từ một vật liệu dệt của nhóm có thứ tự cuối cùng trong số các nhóm tương đương cùng đưa ra xem xét.', '(B) Quy tắc trên được hiểu là:', '(a) Sợi quấn từ lông đuôi và bờm ngựa (nhóm 51.10) với sợi trộn kim loại (nhóm 56.05) được phân loại như một loại vật liệu dệt đơn có khối lượng bằng tổng khối lượng của các thành phần của nó; để phân loại vải dệt thoi, sợi kim loại được coi như là một vật liệu dệt;', '(b) Để chọn nhóm thích hợp trước tiên phải lựa chọn Chương phù hợp và sau đó lựa chọn nhóm thích hợp trong Chương đó, kể cả trong thành phần hàng hóa có loại vật liệu không thuộc Chương đó;', '(c) Khi cả hai Chương 54 và 55 đều liên quan đến một Chương khác, thì Chương 54 và 55 được xem như một Chương;', '(d) Trường hợp một Chương hoặc một nhóm đề cập đến hàng hóa làm từ các vật liệu dệt khác nhau, các vật liệu dệt này được xem như một loại vật liệu đơn.', '(C) Các nguyên tắc của phần (A) và (B) trên đây cũng áp dụng cho các loại sợi nêu trong Chú giải 3, 4, 5 hoặc 6 dưới đây.', '3.(A) Theo mục đích của Phần này, và những nội dung loại trừ trong phần (B) tiếp theo, các loại sợi (đơn, xe (folded) hoặc cáp) của mô tả dưới đây sẽ được xem như "sợi xe, chão bện (cordage), thừng và cáp":', '(a) Từ tơ tằm hoặc phế liệu tơ tằm, độ mảnh trên 20.000 decitex;', '(b) Từ các xơ nhân tạo (kể cả sợi từ 2 hoặc nhiều sợi monofilament thuộc Chương 54), độ mảnh trên 10.000 decitex;', '(c) Từ gai dầu hoặc lanh:', '(i) Đã chuốt hoặc làm bóng, độ mảnh từ 1.429 decitex trở lên; hoặc', '(ii) Chưa chuốt hoặc chưa làm bóng, độ mảnh trên 20.000 decitex;', '(d) Từ xơ dừa, gồm từ 3 sợi trở lên;', '(e) Từ xơ thực vật khác, độ mảnh trên 20.000 decitex; hoặc', '(f) Được tăng cường bằng chỉ kim loại.', '(B) Loại trừ:', '(a) Sợi bằng lông cừu hoặc lông động vật khác và bằng sợi giấy, trừ sợi được tăng cường bằng sợi kim loại;', '(b) Tô (tow) filament nhân tạo thuộc Chương 55 và sợi multifilament không xoắn hoặc xoắn dưới 5 vòng xoắn trên mét thuộc Chương 54;', '(c) Ruột con tằm thuộc nhóm 50.06, và các sợi monofilament thuộc Chương 54;', '(d) Sợi trộn kim loại thuộc nhóm 56.05; sợi được tăng cường bằng sợi kim loại đã nêu trong Phần (A) (f) trên; và', '(e) Sợi sơnin (chenille), sợi quấn và sợi sùi vòng thuộc nhóm 56.06.', '4. (A) Theo mục đích của các Chương 50, 51, 52, 54 và 55, khái niệm sợi "đóng gói để bán lẻ" có nghĩa là, lưu ý xem xét cả những loại trừ trong Phần (B) dưới đây, sợi (đơn, xe (folded) hoặc cáp) đóng gói ở các dạng:', '(a) Trên bìa, guồng gờ, ống tuýp hoặc cuộn có lõi tương tự, với khối lượng (kể cả lõi) không quá:', '(i) 85 g đối với tơ tằm, phế liệu tơ tằm hoặc sợi filament nhân tạo; hoặc', '(ii) 125 g đối với các loại sợi khác;', '(b) Dạng hình cầu, con sợi hoặc cuộn sợi với khối lượng không quá:', '(i) 85 g đối với sợi filament nhân tạo độ mảnh dưới 3.000 decitex, tơ tằm hoặc phế liệu tơ tằm;', '(ii) 125 g đối với các loại sợi khác có độ mảnh dưới 2.000 decitex; hoặc', '(iii) 500 g đối với các loại sợi khác.', '(c) Dạng con sợi hoặc cuộn sợi gồm các con sợi hoặc cuộn sợi nhỏ hơn được phân cách nhau bởi các đường chỉ làm cho chúng độc lập với nhau, mỗi con sợi hoặc cuộn sợi nhỏ có khối lượng đồng nhất không quá:', '(i) 85 g đối với tơ tằm, phế liệu tơ tằm hoặc sợi filament nhân tạo; hoặc', '(ii) 125 g đối với các loại sợi khác.', '(B) Loại trừ:', '(a) Sợi đơn bằng nguyên liệu dệt bất kỳ, trừ:', '(i) Sợi đơn bằng lông cừu hoặc lông động vật loại mịn, chưa tẩy trắng; và', '(ii) Sợi đơn bằng lông cừu hoặc lông động vật loại mịn, đã tẩy trắng, nhuộm hoặc đã in, độ mảnh trên 5.000 decitex;', '(b) Sợi xe (folded) hoặc sợi cáp, chưa tẩy trắng:', '(i) Bằng tơ tằm hoặc phế liệu tơ tằm, đã đóng gói; hoặc', '(ii) Bằng nguyên liệu dệt khác trừ lông cừu hoặc lông động vật loại mịn, ở dạng con sợi hoặc cuộn sợi;', '(c) Sợi xe (folded) hoặc sợi cáp bằng tơ tằm hoặc phế liệu tơ tằm, đã tẩy trắng, nhuộm hoặc in, độ mảnh từ 133 decitex trở xuống; và', '(d) Sợi đơn, sợi xe (folded) hoặc sợi cáp bằng nguyên liệu dệt bất kỳ:', '(i) Ở dạng con sợi hoặc cuộn sợi được guồng chéo; hoặc', '(ii) Cuộn trên lõi hoặc cuộn cách khác để sử dụng trong công nghiệp dệt (ví dụ, cuộn trên ống sợi con, ống sợi xe, suốt ngang, bobin côn hoặc cọc sợi, hoặc cuốn theo dạng kén tằm dùng cho các máy thêu).', '5. Theo mục đích của các nhóm 52.04, 54.01 và 55.08, khái niệm "chỉ khâu" có nghĩa là loại sợi xe (folded) hoặc sợi cáp:', '(a) Cuộn trên lõi (ví dụ, guồng gờ, ống tuýp) khối lượng không quá 1.000 g (kể cả lõi);', '(b) Đã hoàn tất để sử dụng làm chỉ khâu; và', '(c) Có xoắn "Z" cuối cùng.', '6. Theo mục đích của Phần này, khái niệm "sợi có độ bền cao" có nghĩa là loại sợi có độ bền tương đối đo bằng cN/tex (xen ti newton một tex), lớn hơn các tiêu chuẩn sau đây:', 'Sợi đơn bằng ni lông hoặc các polyamit khác, hoặc bằng polyeste………60cN/tex', 'Sợi xe (folded) hoặc sợi cáp bằng ni lông hoặc các polyamit khác, hoặc bằng polyeste……..53 cN/tex', 'Sợi đơn, sợi xe (folded) hoặc sợi cáp bằng viscose rayon……27 cN/tex.', '7. Theo mục đích của Phần này, khái niệm "hoàn thiện" nghĩa là:', '(a) Đã cắt thành hình trừ hình vuông hoặc hình chữ nhật;', '(b) Được tạo ra trong công đoạn hoàn thiện, sẵn sàng để sử dụng (hoặc chỉ cần tách ra bằng cách cắt các đường chỉ phân chia) mà không cần phải khâu, may hoặc gia công khác (ví dụ, khăn chuyên lau bụi, khăn lau, khăn trải bàn, khăn vuông, mền chăn);', '(c) Cắt theo cỡ và có ít nhất một cạnh được làm kín bằng nhiệt mà đường viền được nén hoặc vuốt thon nhận ra dễ dàng và các cạnh khác được xử lý như đã mô tả trong phần khác bất kỳ của Chú giải này, nhưng trừ các vải có các mép đã được làm cho khỏi sổ bằng cách cắt nóng hoặc bằng các phương pháp đơn giản khác;', '(d) Đã viền lại hoặc cuộn mép, hoặc thắt nút tại bất kỳ mép nào nhưng trừ các loại vải có các mép cắt được làm cho khỏi sổ bằng cách khâu vắt hoặc các cách đơn giản khác;', '(e) Cắt theo cỡ và đã trải qua công đoạn gia công rút chỉ;', '(f) Đã ghép bằng cách khâu, may, dán dính hoặc cách khác (trừ loại hàng dệt tấm gồm hai hoặc nhiều tấm trở lên có cùng chất liệu dệt được ghép nối đuôi nhau và những tấm làm từ hai hoặc nhiều loại vật liệu dệt trở lên được ghép thành lớp, có hoặc không có đệm);', '(g) Dệt kim hoặc móc thành các hình dạng, hoặc trình bày ở dạng các chi tiết riêng biệt hoặc ở dạng một số các chi tiết gắn thành một dải.', '8. Theo mục đích của các Chương từ 50 đến 60:', '(a) Các Chương từ 50 đến 55 và Chương 60 và, trừ khi có yêu cầu khác, các Chương từ 56 đến 59, không áp dụng cho hàng hóa hoàn thiện đã nêu tại Chú giải 7 trên đây; và', '(b) Các Chương từ 50 đến 55 và Chương 60 không áp dụng cho các hàng hóa của các Chương từ 56 đến 59.', '9. Vải dệt thoi thuộc các Chương từ 50 đến 55 kể cả các loại vải có các lớp sợi dệt song song được đan đặt lên nhau theo góc nhọn hoặc góc vuông. Những lớp này được gắn tại các giao điểm của sợi bằng các chất kết dính hoặc liên kết bằng nhiệt.', '10. Sản phẩm có tính đàn hồi bằng những vật liệu dệt kết hợp với sợi cao su cũng được phân loại trong Phần này.', '11. Theo mục đích của Phần này, khái niệm "đã ngâm tẩm" kể cả "đã nhúng".', '12. Theo mục đích của Phần này, khái niệm "polyamit" kể cả "aramit".', '13. Theo mục đích của Phần này và, cũng như một số trường hợp thuộc Danh mục này, khái niệm “sợi đàn hồi” có nghĩa là sợi filament, kể cả monofilament, bằng chất liệu dệt tổng hợp, trừ sợi dún, không bị đứt khi bị kéo dãn ra gấp ba lần độ dài ban đầu và khi kéo dãn ra gấp hai lần độ dài ban đầu trong thời gian năm phút sẽ co lại còn độ dài không lớn hơn 1,5 lần độ dài ban đầu.', '14. Trừ khi có quy định khác, hàng dệt may sẵn thuộc các nhóm khác nhau phải được phân loại theo các nhóm phù hợp của từng loại ngay cả khi sắp xếp theo bộ để bán lẻ. Theo mục đích của Chú giải này, khái niệm "hàng dệt may sẵn" nghĩa là các hàng hóa của các nhóm từ 61.01 đến 61.14 và từ 62.01 đến 62.11.', '15. Theo Chú giải 1 của Phần XI, hàng dệt, may và các mặt hàng dệt khác, kết hợp các thành phần hóa học, cơ khí hoặc điện tử để tạo thêm chức năng, cho dù được kết hợp dưới dạng các thành phần tích hợp hoặc bến trong sợi hoặc vải, được phân loại theo các nhóm tương ứng trong Phần XI với điều kiện là chúng vẫn giữ được đặc tính cơ bản của hàng hóa thuộc Phần này.', 'Chú giải Phân nhóm.', '1. Trong Phần này cũng như những Phần khác của Danh mục, các khái niệm dưới đây có ý nghĩa là:', '(a) Sợi chưa tẩy trắng', 'Là loại sợi:', '(i) có màu tự nhiên của các loại xơ gốc và chưa tẩy trắng, nhuộm (cả khối hoặc không) hoặc in; hoặc', '(ii) có màu không xác định được ("sợi mộc (grey yarn)"), được sản xuất từ nguyên liệu tái sinh.', 'Loại sợi này có thể được xử lý bằng cách hồ không màu hoặc nhuộm không bền màu (mất màu sau khi giặt bình thường bằng xà phòng) và, nếu là xơ nhân tạo thì có thể được xử lý cả khối với tác nhân khử bóng (ví dụ, titan đioxit).', '(b) Sợi đã tẩy trắng', 'Là loại sợi:', '(i) đã qua quá trình tẩy trắng, được làm từ các xơ đã tẩy trắng hoặc, trừ khi có yêu cầu khác, đã được nhuộm tăng trắng (cả khối hoặc không) hoặc đã xử lý bằng hồ trắng;', '(ii) gồm hỗn hợp của xơ đã tẩy trắng và chưa tẩy trắng; hoặc', '(iii) sợi xe (folded) hoặc sợi cáp được làm từ sợi đã tẩy trắng và chưa tẩy trắng.', '(c) Sợi màu (đã nhuộm hoặc đã in)', 'Là loại sợi:', '(i) đã nhuộm (cả khối hoặc không) trừ màu trắng hoặc màu không bền, hoặc đã in, hoặc làm từ các loại xơ đã nhuộm hoặc đã in;', '(ii) gồm hỗn hợp của các xơ đã nhuộm từ màu khác nhau hoặc hỗn hợp của xơ chưa tẩy trắng hoặc đã tẩy trắng với các xơ màu (sợi macnơ hoặc sợi hỗn hợp), hoặc được in một hoặc nhiều màu cách khoảng tạo thành các chấm đốm;', '(iii) làm từ cúi hoặc sợi thô đã in; hoặc', '(iv) là sợi xe (folded) hoặc sợi cáp và gồm cả sợi đã tẩy trắng hoặc chưa tẩy trắng và sợi màu', 'Những định nghĩa trên đây cũng áp dụng, một cách tương tự, cho sợi monofilament và dải hoặc dạng tương tự của Chương 54.', '(d) Vải dệt thoi chưa tẩy trắng', 'Vải dệt thoi được làm từ sợi chưa tẩy trắng và vải đó chưa được tẩy trắng, nhuộm hoặc in. Loại vải này có thể được xử lý bằng cách hồ không màu hoặc nhuộm không bền màu.', '(e) Vải dệt thoi đã tẩy trắng', 'Loại vải dệt thoi:', '(i) đã được tẩy trắng hoặc, trừ khi có yêu cầu khác, nhuộm tăng trắng, hoặc xử lý bằng loại hồ tăng trắng, ở dạng mảnh;', '(ii) dệt từ sợi đã tẩy trắng; hoặc', '(iii) dệt từ sợi đã tẩy trắng và sợi chưa tẩy trắng.', '(f) Vải dệt thoi đã nhuộm', 'Là loại vải dệt thoi:', '(i) đã được nhuộm đồng đều một màu trừ màu trắng (trừ một số trường hợp có yêu cầu khác) hoặc được xử lý bằng sự hoàn thiện màu trừ màu trắng (trừ một số trường hợp có yêu cầu khác), ở dạng mảnh; hoặc', '(ii) dệt từ sợi được nhuộm đồng đều một màu.', '(g) Vải dệt thoi bằng các loại sợi màu khác nhau', 'Là vải dệt thoi (trừ vải dệt thoi đã in):', '(i) bằng các loại sợi có màu khác nhau hoặc các loại sợi cùng màu có độ đậm nhạt (shades) khác nhau (trừ màu tự nhiên của các loại xơ hợp thành);', '(ii) bằng các loại sợi chưa tẩy trắng hoặc đã tẩy trắng và soi màu; hoặc', '(iii) dệt bằng sợi macnơ hoặc sợi hỗn hợp', '(Trong mọi trường hợp, các loại sợi dùng làm sợi biên hoặc sợi đầu tấm không được xem xét).', '(h) Vải dệt thoi đã in', 'Là loại vải dệt thoi đã được in ở dạng mảnh, được dệt hoặc không dệt từ các sợi có màu khác nhau.', '(Các loại sau đây cũng được xem như vải dệt thoi đã in: vải dệt thoi có các hình được tạo ra bằng cách, ví dụ, dùng bàn chải hoặc súng phun, dùng giấy chuyển màu, bằng cấy nhung hoặc bằng quá trình batik.)', 'Quá trình kiềm bóng không ảnh hưởng đến việc phân loại của các loại sợi hoặc các loại vải kể trên..', 'Các định nghĩa tại các phần từ (d) đến (h) nêu trên cũng được áp dụng tương tự với các loại vải dệt kim hoặc móc.', '(ij) Vải dệt vân điểm', 'Là loại vải có cấu trúc trong đó mỗi sợi ngang tuần tự đan xen ở trên và ở dưới sợi dọc kế tiếp và mỗi sợi dọc tuần tự đan xen ở trên và ở dưới sợi ngang kế tiếp.', '2. (A) Các sản phẩm thuộc các Chương 56 đến 63 làm từ hai hoặc nhiều vật liệu dệt được xem như làm từ toàn bộ một loại vật liệu dệt mà loại vật liệu dệt đó được lựa chọn theo Chú giải 2 Phần này để phân loại một sản phẩm thuộc các Chương từ 50 đến 55 hoặc thuộc nhóm 58.09 làm từ các vật liệu dệt giống nhau.', '(B) Để áp dụng qui tắc này:', '(a) trong trường hợp thích hợp, chỉ có phần quyết định việc phân loại theo Qui tắc tổng quát 3 mới được đưa ra xem xét;', '(b) trường hợp sản phẩm dệt làm từ một lớp vải nền và lớp bề mặt có tuyết hoặc vòng thì không cần xem xét đến vải nền;', '(c) trường hợp hàng thêu thuộc nhóm 58.10 và sản phẩm của nó, chỉ cần phân loại theo vải nền. Tuy nhiên, đồ thêu không lộ nền, và cả sản phẩm của nó, được phân loại theo chỉ thêu.']</t>
+  </si>
+  <si>
+    <t>['KIM LOẠI CƠ BẢN VÀ CÁC SẢN PHẨM BẰNG KIM LOẠI CƠ BẢN', 'Chú giải.', '1. Phần này không bao gồm:', '(a) Sơn, mực hoặc các sản phẩm khác đã được pha chế với chất cơ bản là vảy hoặc bột kim loại (các nhóm từ 32.07 đến 32.10, 32.12, 32.13 hoặc 32.15);', '(b) Hợp kim ferro-xeri hoặc các hợp kim tự cháy khác (nhóm 36.06);', '(c) Mũ và các vật đội đầu khác hoặc các bộ phận của chúng thuộc nhóm 65.06 hoặc 65.07;', '(d) Khung ô hoặc các sản phẩm khác thuộc nhóm 66.03;', '(e) Hàng hóa thuộc Chương 71 (ví dụ, hợp kim kim loại quý, kim loại cơ bản dát phủ kim loại quý, đồ trang sức làm bằng chất liệu khác);', '(f) Các sản phẩm thuộc Phần XVI (máy móc, các thiết bị cơ khí và đồ điện);', '(g) Đường ray đường sắt hoặc đường ray tàu điện đã được lắp ráp (nhóm 86.08) hoặc các sản phẩm khác thuộc Phần XVII (xe, tàu và thuyền, phương tiện bay);', '(h) Dụng cụ hoặc thiết bị phụ tùng thuộc Phần XVIII, kể cả dây cót của đồng hồ cá nhân hoặc đồng hồ thời gian khác;', '(ij) Các viên chì nhỏ được chế tạo để sản xuất đạn dược (nhóm 93.06) hoặc các sản phẩm khác thuộc Phần XIX (vũ khí và đạn dược);', '(k) Các mặt hàng thuộc Chương 94 (ví dụ, đồ nội thất, khung nệm, đèn (luminaires) và bộ đèn, biển hiệu được chiếu sáng, nhà lắp ghép);', '(l) Các sản phẩm thuộc Chương 95 (ví dụ, đồ chơi, thiết bị trò chơi, dụng cụ, thiết bị thể thao);', '(m) Giần, sàng bằng tay, khuy, bút máy, quản bút chì, ngòi bút, chân để loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các sản phẩm tương tự hoặc các sản phẩm khác thuộc Chương 96 (các mặt hàng khác); hoặc', '(n) Các sản phẩm thuộc Chương 97 (ví dụ, các tác phẩm nghệ thuật).', '2. Trong Danh mục này, khái niệm “các bộ phận có công dụng chung” có nghĩa:', '(a) Các sản phẩm thuộc nhóm 73.07, 73.12, 73.15, 73.17 hoặc 73.18 và các sản phẩm tương tự bằng kim loại cơ bản khác, trừ các sản phẩm được thiết kế đặc biệt để chuyên dùng cấy ghép trong y tế, phẫu thuật, nha khoa hoặc thú y (nhóm 90.21);', '(b) Lò xo và lá lò xo, bằng kim loại cơ bản, trừ dây cót dùng cho đồng hồ cá nhân hoặc đồng hồ thời gian khác (nhóm 91.14); và', '(c) Sản phẩm thuộc các nhóm 83.01, 83.02, 83.08, 83.10 và khung và gương, bằng kim loại cơ bản, thuộc nhóm 83.06.', 'Từ Chương 73 đến Chương 76 và từ Chương 78 đến Chương 82 (nhưng trừ nhóm 73.15) các bộ phận của hàng hóa thuộc các chương này không bao gồm các bộ phận có công dụng chung như đã nêu ở trên.', 'Theo nội dung trên và theo Chú giải 1 của Chương 83, các sản phẩm thuộc Chương 82 hoặc 83 được loại trừ khỏi các Chương từ Chương 72 đến Chương 76 và từ Chương 78 đến Chương 81.', '3. Trong Danh mục này, khái niệm “kim loại cơ bản” có nghĩa là: sắt và thép, đồng, niken, nhôm, chì, kẽm, thiếc, vonfram, molypđen, tantan, magiê, coban, bismut, cađimi, titan, zircon, antimon, mangan, berili, crôm, gemani, vanadi, gali, hafini, indi, niobi (columbi), rheni và tali.', '4. Trong Danh mục này, khái niệm “gốm kim loại” chỉ các sản phẩm có sự kết hợp dị thể của một thành phần kim loại và một thành phần gốm trong cấu trúc tế vi. Khái niệm “gốm kim loại” cũng kể cả carbua kim loại thiêu kết (carbua kim loại thiêu kết với một kim loại).', '5. Việc phân loại các hợp kim (trừ hợp kim fero và các hợp kim chủ như đã được xác định trong Chương 72 và 74):', '(a) Một hợp kim cấu thành từ các kim loại cơ bản được phân loại vào nhóm hợp kim của kim loại có hàm lượng trội hơn so với từng kim loại khác có trong hợp kim;', '(b) Một hợp kim mà thành phần gồm các kim loại cơ bản thuộc Phần này và các nguyên tố không thuộc Phần này thì hợp kim đó sẽ được coi như hợp kim của các kim loại thuộc phần này nếu tổng khối lượng của các kim loại cơ bản đó bằng hoặc lớn hơn tổng khối lượng của các thành phần khác có mặt trong hợp kim;', '(c) Trong Phần này khái niệm "hợp kim" kể cả hỗn hợp bột kim loại thiêu kết, hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại), và hợp chất liên kết kim loại (thường gọi là hợp chất liên kim).', '6. Trừ khi có những yêu cầu khác, khi việc xem xét có liên quan đến bất cứ một kim loại cơ bản nào trong Danh mục này, cũng cần phải xem xét những hợp kim mà chúng được phân loại như những hợp kim của kim loại đó theo Chú giải 5 ở trên.', '7. Việc phân loại các sản phẩm hỗn hợp:', 'Trừ khi các nhóm có yêu cầu khác, các sản phẩm bằng kim loại cơ bản (kể cả các sản phẩm bằng nguyên vật liệu pha trộn được coi như sản phẩm bằng kim loại cơ bản theo các Quy tắc tổng quát giải thích việc phân loại hàng hóa) gồm hai hoặc nhiều kim loại cơ bản thì được coi như sản phẩm của kim loại cơ bản nào có hàm lượng trội hơn tính theo khối lượng so với từng kim loại khác.', 'Theo mục đích này:', '(a) Sắt và thép, hoặc các dạng khác của sắt hoặc thép, được coi như là một và là cùng một kim loại;', '(b) Một hợp kim được coi như chứa toàn bộ một loại kim loại khi mà hợp kim của kim loại đó được phân loại theo Chú giải 5; và', '(c) Gốm kim loại của nhóm 81.13 được coi như một loại kim loại cơ bản.', '8. Trong Phần này, các khái niệm sau đây có nghĩa:', '(a) Phế liệu và mảnh vụn', '(i) Tất cả phế liệu và mảnh vụn kim loại;', '(ii) các sản phẩm bằng kim loại chắc chắn không thể sử dụng được vì nguyên nhân bị gãy, cắt ra, bị mài mòn hoặc các nguyên nhân khác.', '(b) Bột', 'Là sản phẩm có hàm lượng từ 90% trở lên tính theo khối lượng lọt qua được rây (sàng) có đường kính mắt rây bằng 1 mm.', '9. Theo mục đích của các Chương từ 74 đến 76 và 78 đến 81, các khái niệm sau đây có nghĩa:', '(a) Thanh và que', 'Các sản phẩm được cán, ép đùn, kéo hoặc rèn, không ở dạng cuộn, có mặt cắt ngang đông đặc đều nhau dọc theo chiều dài, hình dạng mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có hai cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm có mặt cắt ngang là hình chữ nhật (kể cả hình vuông), tam giác hoặc đa giác có thể có góc được làm tròn dọc theo chiều dài. Chiều dày của các sản phẩm có mặt cắt ngang hình chữ nhật (kể cả "hình chữ nhật biến dạng") phải trên 1/10 chiều rộng. Khái niệm này cũng áp dụng cho các sản phẩm được đúc hoặc thiêu kết có cùng hình dạng và kích thước đã được gia công thêm sau khi sản xuất (trừ cách cắt gọt đơn giản hoặc cạo gỉ), với điều kiện bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của các nhóm khác.', 'Tuy nhiên, các loại que và thanh dây thuộc Chương 74 có các đầu được làm nhọn hoặc được xử lý đơn giản khác để dễ đưa vào máy cho quá trình gia công tiếp theo, ví dụ, thành thanh kéo (thanh dây) hoặc ống, được đưa vào đồng chưa gia công thuộc nhóm 74.03. Quy định này áp dụng với những sửa đổi thích hợp đối với các sản phẩm thuộc Chương 81.', '(b) Dạng hình', 'Các sản phẩm được cán, ép đùn, kéo, rèn hoặc tạo hình, ở dạng cuộn hoặc không, mặt cắt ngang đều nhau dọc theo chiều dài, và khác với định nghĩa về thanh, que, dây, tấm, phiến, dải, lá mỏng, ống hoặc ống dẫn. Khái niệm này cũng kể cả các sản phẩm được đúc hoặc thiêu kết, có cùng hình dạng, đã được gia công thêm sau khi sản xuất (trừ cách cắt gọt đơn giản hoặc cạo gỉ), với điều kiện là bằng cách đó chúng không mang đặc tính của các mặt hàng hoặc sản phẩm của nhóm khác.', '(c) Dây', 'Các sản phẩm được cán, ép đùn hoặc kéo, ở dạng cuộn, có mặt cắt ngang đặc đều nhau dọc theo chiều dài, hình dạng mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi (kể cả "hình tròn phẳng" và "hình chữ nhật biến dạng", có hai cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song). Các sản phẩm có mặt cắt ngang hình chữ nhật (kể cả hình vuông), tam giác hoặc đa giác có thể có góc được làm tròn dọc theo chiều dài. Chiều dày của các sản phẩm này có mặt cắt ngang hình chữ nhật (kể cả "hình chữ nhật biến dạng") phải trên 1/10 chiều rộng.', '(d) Tấm, lá, dải và lá mỏng', 'Các sản phẩm có bề mặt được làm phẳng (trừ các sản phẩm chưa gia công), ở dạng cuộn hoặc không, có mặt cắt ngang đặc hình chữ nhật (trừ hình vuông) có hoặc không có các góc được làm tròn (kể cả "hình chữ nhật biến dạng", có 2 cạnh đối diện là vòng cung lồi, hai cạnh kia thẳng, chiều dài bằng nhau và song song) chiều dày bằng nhau, cụ thể:', '- với dạng hình chữ nhật (kể cả hình vuông) chiều dày không quá 1/10 chiều rộng;', '- với các hình dạng khác trừ hình chữ nhật và hình vuông, với mọi loại kích thước, với điều kiện chúng không mang đặc tính của mặt hàng hoặc sản phẩm của nhóm khác.', 'Các nhóm của tấm, lá, dải và lá mỏng, không kể những đề cập khác, áp dụng cho các tấm, lá, dải và lá mỏng đã gia công theo hình mẫu (ví dụ, rãnh, gân, carô, hình giọt nước, hình núm, hình thoi) và các sản phẩm đó được khoan, làm lượn sóng, đánh bóng hoặc tráng với điều kiện là bằng cách đó chúng không mang các đặc tính của mặt hàng hoặc sản phẩm của nhóm khác.', '(e) Ống và ống dẫn', 'Các sản phẩm rỗng, cuộn hoặc không, có mặt cắt ngang rỗng đều nhau dọc theo chiều dài, mặt cắt là hình tròn, bầu dục, chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi, độ dày thành ống bằng nhau. Các sản phẩm có mặt cắt ngang là hình chữ nhật (kể cả hình vuông), tam giác đều hoặc đa giác đều lồi có thể có góc được làm tròn dọc theo chiều dài, cũng được coi là ống hoặc ống dẫn với điều kiện là mặt cắt ngang bên trong và bên ngoài đồng tâm, đồng dạng và đồng hướng. Ống và ống dẫn có mặt cắt ngang như vậy có thể được đánh bóng, tráng, uốn cong, ren, khoan, thắt lại, nở ra, hình côn hoặc nối với các mặt bích, mép, đai hoặc vòng.']</t>
+  </si>
+  <si>
+    <t>['MÁY VÀ CÁC TRANG THIẾT BỊ CƠ KHÍ; THIẾT BỊ ĐIỆN; CÁC BỘ PHẬN CỦA CHÚNG; THIẾT BỊ GHI VÀ TÁI TẠO ÂM THANH, THIẾT BỊ GHI VÀ TÁI TẠO HÌNH ẢNH, ÂM THANH TRUYỀN HÌNH VÀ CÁC BỘ PHẬN VÀ PHỤ KIỆN CỦA CÁC THIẾT BỊ TRÊN', 'Chú giải', '1. Phần này không bao gồm:', '(a) Băng truyền hoặc băng tải hoặc dây đai, bằng plastic thuộc Chương 39, hoặc bằng cao su lưu hóa (nhóm 40.10), hoặc các sản phẩm khác sử dụng cho máy móc hoặc thiết bị cơ khí hoặc thiết bị điện hoặc sản phẩm sử dụng cho mục đích kỹ thuật khác, bằng cao su lưu hóa trừ loại cao su cứng (nhóm 40.16);', '(b) Các sản phẩm bằng da thuộc hoặc bằng da thuộc tổng hợp (nhóm 42.05) hoặc bằng da lông (nhóm 43.03), sử dụng trong các máy móc hoặc thiết bị cơ khí hoặc các mục đích kỹ thuật khác;', '(c) Ống chỉ, trục cuốn, ống lõi sợi con, lõi ống sợi, lõi ống côn, lõi guồng hoặc các loại lõi tương tự, bằng vật liệu bất kỳ (ví dụ, Chương 39, 40, 44 hoặc 48 hoặc Phần XV);', '(d) Thẻ đục lỗ dùng cho máy Jacquard hoặc các máy tương tự (ví dụ, Chương 39 hoặc 48 hoặc Phần XV);', '(e) Băng truyền hoặc băng tải hoặc dây curoa bằng vật liệu dệt (nhóm 59.10) hoặc các sản phẩm khác bằng vật liệu dệt dùng cho các mục đích kỹ thuật (nhóm 59.11);', '(f) Đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) thuộc các nhóm 71.02 đến 71.04, hoặc các sản phẩm làm toàn bộ bằng loại đá này thuộc nhóm 71.16, trừ đá saphia và kim cương đã được gia công nhưng chưa gắn để làm đầu kim đĩa hát (nhóm 85.22);', '(g) Các bộ phận có công dụng chung, như đã định nghĩa trong Chú giải 2 Phần XV, bằng kim loại cơ bản (Phần XV), hoặc các hàng hóa tương tự bằng plastic (Chương 39);', '(h) Ống khoan (nhóm 73.04);', '(ij) Đai liên tục bằng dây hoặc dải kim loại (Phần XV);', '(k) Các sản phẩm thuộc Chương 82 hoặc 83;', '(l) Các sản phẩm thuộc Phần XVII;', '(m) Các sản phẩm thuộc Chương 90;', '(n) Đồng hồ thời gian, đồng hồ cá nhân hoặc các sản phẩm khác thuộc Chương 91;', '(o) Các dụng cụ có thể thay đổi thuộc nhóm 82.07 hoặc bàn chải sử dụng như các bộ phận của máy (nhóm 96.03); những dụng cụ có thể thay đổi tương tự được phân loại theo vật liệu cấu thành bộ phận làm việc của chúng (ví dụ, trong Chương 40, 42, 43, 45 hoặc Chương 59 hoặc nhóm 68.04 hoặc 69.09);', '(p) Các sản phẩm thuộc Chương 95; hoặc', '(q) Ruy băng máy chữ hoặc ruy băng tương tự, đã hoặc chưa cuộn vào lõi hoặc nằm trong vỏ (được phân loại theo vật liệu cấu thành, hoặc trong nhóm 96.12 nếu chúng đã nạp mực hoặc được chuẩn bị khác để dùng cho in ấn), hoặc chân đế loại một chân (monopod), hai chân (bipod), ba chân (tripod) và các mặt hàng tương tự, thuộc nhóm 96.20.', '2. Theo Chú giải 1 của Phần này, Chú giải 1 Chương 84 và Chú giải 1 Chương 85, các bộ phận của máy (ngoài các bộ phận của hàng hóa thuộc nhóm 84.84, 85.44, 85.45, 85.46 hoặc 85.47) được phân loại theo các quy tắc sau:', '(a) Các bộ phận đã được chi tiết tại nhóm nào đó của Chương 84 hoặc 85 (trừ các nhóm 84.09, 84.31, 84.48, 84.66, 84.73, 84.87, 85.03, 85.22, 85.29, 85.38 và 85.48) được phân loại vào nhóm đó trong mọi trường hợp;', '(b) Các bộ phận khác, nếu phù hợp để chỉ sử dụng hoặc chủ yếu sử dụng cho các loại máy cụ thể, hoặc cho một số loại máy cùng nhóm (kể cả máy thuộc nhóm 84.79 hoặc 85.43) được phân loại theo nhóm của các máy cụ thể đó hoặc vào nhóm thích hợp như 84.09, 84.31, 84.48, 84.66, 84.73, 85.03, 85.22, 85.29 hoặc 85.38. Tuy nhiên, bộ phận phù hợp để chủ yếu sử dụng cho các hàng hóa thuộc các nhóm 85.17 và 85.25 đến 85.28 được phân loại vào nhóm 85.17; và bộ phận phù hợp để chỉ sử dụng hoặc chủ yếu sử dụng cho hàng hóa của nhóm 85.24 được phân loại vào nhóm 85.29;', '(c) Tất cả các bộ phận khác được phân loại trong nhóm thích hợp như 84.09, 84.31, 84.48, 84.66, 84.73, 85.03, 85.22, 85.29 hoặc 85.38 hoặc, nếu không thì, phân loại vào nhóm 84.87 hoặc 85.48.', '3. Trừ khi có yêu cầu cụ thể khác, các loại máy liên hợp gồm hai hoặc nhiều máy lắp ghép với nhau thành một thiết bị đồng bộ và các loại máy khác được thiết kế để thực hiện hai hoặc nhiều chức năng khác nhau hoặc bổ trợ lẫn nhau được phân loại theo bộ phận chính hoặc máy thực hiện chức năng chính.', '4. Khi một máy (kể cả một tổ hợp máy) gồm các bộ phận cấu thành riêng lẻ (dù tách biệt hoặc được liên kết với nhau bằng ống, bằng bộ phận truyền, bằng cáp điện hoặc bằng bộ phận khác) để thực hiện một chức năng được xác định rõ đã quy định chi tiết tại một trong các nhóm của Chương 84 hoặc Chương 85, thì toàn bộ máy đó phải được phân loại vào nhóm phù hợp với chức năng xác định của máy.', '5. Theo mục đích của Chú giải này, khái niệm “máy” có nghĩa là bất kỳ máy, máy móc, thiết bị, bộ dụng cụ hoặc dụng cụ đã nêu trong các nhóm của Chương 84 hoặc 85.', '6 (A) Trong toàn bộ Danh mục này, khái niệm “phế liệu và phế thải điện và điện tử” có nghĩa là các cụm linh kiện điện và điện tử, tấm mạch in, và các sản phẩm điện hoặc điện tử:', '(i) đã bị làm cho không sử dụng được cho các mục đích ban đầu của chúng do bị vỡ, cắt hoặc các quá trình khác hoặc không phù hợp về mặt kinh tế để sửa chữa, tân trang hoặc cải tạo để làm cho chúng phù hợp với mục đích ban đầu của chúng; và', '(ii) được đóng gói hoặc vận chuyển theo cách không nhằm mục đích bảo vệ các mặt hàng riêng lẻ khỏi bị hư hại trong quá trình vận chuyển, xếp và dỡ hàng hóa.', '(B) Các lô hàng hỗn hợp gồm “phế liệu và phế thải điện và điện tử” và phế liệu và phế thải khác được phân loại vào nhóm 85.49.', '(C) Phần này không bao gồm rác thải đô thị, như được định nghĩa trong Chú giải 4 của Chương 38.']</t>
+  </si>
+  <si>
+    <t>['XE CỘ, PHƯƠNG TIỆN BAY, TÀU THUYỀN VÀ CÁC THIẾT BỊ VẬN TẢI LIÊN HỢP', 'Chú giải.', '1.- Phần này không bao gồm các mặt hàng thuộc các nhóm 95.03 hoặc 95.08, hoặc xe trượt băng, xe trượt tuyết hoặc loại tương tự thuộc nhóm 95.06.', '2.- Khái niệm "bộ phận" và "bộ phận và phụ kiện" không áp dụng cho các sản phẩm sau đây, dù chúng có hoặc không được nhận biết như những bộ phận dùng cho hàng hoá thuộc Phần này:', '(a) Tấm đệm, vòng đệm hoặc loại tương tự bằng vật liệu bất kỳ (được phân loại theo vật liệu cấu thành hoặc được xếp vào nhóm 84.84) hoặc các sản phẩm khác bằng cao su lưu hoá trừ cao su cứng (nhóm 40.16);', '(b) Các bộ phận có công dụng chung, như đã định nghĩa tại Chú giải 2 của Phần XV, làm bằng kim loại cơ bản (Phần XV), hoặc các mặt hàng tương tự làm bằng plastic (Chương 39);', '(c) Các mặt hàng thuộc Chương 82 (dụng cụ các loại);', '(d) Các mặt hàng thuộc nhóm 83.06;', '(e) Máy móc hoặc thiết bị thuộc nhóm 84.01 đến 84.79, hoặc các bộ phận của chúng; các mặt hàng thuộc nhóm 84.81 hoặc 84.82 hoặc, các mặt hàng thuộc nhóm 84.83 với điều kiện là chúng cấu thành các bộ phận bên trong của động cơ hay mô tơ;', '(f) Máy điện hoặc thiết bị điện (Chương 85);', '(g) Các mặt hàng thuộc Chương 90;', '(h) Các mặt hàng thuộc Chương 91;', '(ij) Vũ khí (Chương 93);', '(k) Đèn (luminaires) và bộ đèn và các bộ phận của chúng thuộc nhóm 94.05; hoặc', '(l) Bàn chải các loại được sử dụng như là bộ phận của các phương tiện (nhóm 96.03).', '3.- Khi đề cập đến các Chương từ 86 đến Chương 88 khái niệm “bộ phận” hoặc "phụ kiện" không áp dụng cho loại bộ phận hoặc phụ kiện không phù hợp để chỉ dùng hoặc chủ yếu dùng với các mặt hàng thuộc các Chương này. Một loại bộ phận hoặc phụ kiện đáp ứng mô tả trong hai hay nhiều nhóm thuộc các Chương này phải phân loại vào nhóm tương ứng với công dụng chủ yếu của loại bộ phận hay phụ kiện ấy.', '4.- Theo mục đích của Phần này:', '(a) Các phương tiện được thiết kế đặc biệt để chạy cả trên đường bộ và đường ray được phân loại vào nhóm thích hợp của Chương 87;', '(b) Xe lội nước có động cơ được phân loại vào nhóm thích hợp của Chương 87;', '(c) Phương tiện bay được thiết kế đặc biệt để cũng có thể sử dụng như loại phương tiện đường bộ được phân loại vào nhóm thích hợp của Chương 88.', '5. Các phương tiện chạy trên đệm không khí được phân loại trong Phần này cùng với các phương tiện giống chúng nhất cụ thể như sau:', '(a) Xếp vào Chương 86 nếu chúng được thiết kế để chạy trên đường ray dẫn (tàu hoả chạy trên đệm không khí);', '(b) Xếp vào Chương 87 nếu chúng được thiết kế để chạy trên đất hoặc trên cả đất và nước;', '(c) Xếp vào Chương 89 nếu chúng được thiết kế để chạy trên nước, có hoặc không có khả năng đỗ xuống bờ hoặc bến tàu hoặc cũng có thể chạy trên băng.', 'Bộ phận và phụ kiện của các phương tiện chạy trên đệm không khí được phân loại theo cách phân loại các phương tiện chạy trên đệm không khí đã quy định trên đây.', 'Các bộ phận cố định và khớp nối của đường ray tàu chạy trên đệm không khí được phân loại như các bộ phận cố định và ghép nối của đường ray đường sắt, và thiết bị tín hiệu, an toàn hoặc điều khiển giao thông dùng cho hệ thống vận tải trên đệm không khí, được phân loại như thiết bị tín hiệu, an toàn hoặc điều khiển giao thông của đường sắt.']</t>
+  </si>
+  <si>
+    <t>['KHÁI QUÁT CHUNG', 'Chú giải 1.', 'Theo các quy định của mục (A) của Chú giải này, tất cả các nguyên tố hóa học phóng xạ và các đồng vị phóng xạ, và các hợp chất của các nguyên tố và các chất đồng vị (có thể là vô cơ hoặc hữu cơ, và đã hoặc chưa được xác định về mặt hóa học), được phân loại ở nhóm 28.44, ngay cả khi chúng cũng có thể được phân loại vào nhóm khác của Danh mục. Ví dụ, glyxerin phóng xạ và natri clorua phóng xạ được phân loại vào nhóm 28.44 chứ không được phân loại vào nhóm 25.01 hoặc 29.05. Tương tự, trong mọi trường hợp ethyl alcohol phóng xạ, vàng phóng xạ và coban phóng xạ sẽ được phân loại trong nhóm 28.44. Tuy nhiên, cũng cần chú ý, các loại quặng phóng xạ được phân loại trong Phần V của Danh mục.', 'Trong trường hợp các chất đồng vị không phóng xạ và các hợp chất của chúng, Chú giải quy định các chất này (ở dạng vô cơ hoặc hữu cơ, và đã hoặc chưa được xác định về mặt hóa học) được phân loại ở nhóm 28.45 và không được phân loại ở nơi nào khác trong Danh mục. Như vậy, các đồng vị của cacbon được phân loại vào nhóm 28.45 và không được phân loại vào nhóm 28.03.', 'Mục (B) của Chú giải quy định các hàng hóa được mô tả trong nhóm 28.43, 28.46 hoặc 28.52 được phân loại vào bất kỳ nhóm nào phù hợp trong các nhóm đó và không được phân loại vào nhóm khác ở Phần VI, với điều kiện là chúng không phải là chất phóng xạ hoặc không ở dạng đồng vị (trong trường hợp chúng được phân loại trong nhóm 28.44 hoặc nhóm 28.45). Do đó, mục này của Chú giải quy định, ví dụ, bạc caseinat được phân loại vào nhóm 28.43 chứ không được phân loại vào nhóm 35.01, và nitrat bạc, ngay cả khi được đóng gói để bán lẻ để sử dụng trong chụp ảnh, được phân loại vào nhóm 28.43 chứ không phải ở nhóm 37.07.', 'Tuy nhiên, cũng cần lưu ý các nhóm 28.43, 28.46 và 28.52 chỉ được ưu tiên hơn các nhóm khác trong Phần VI. Khi các hàng hóa được miêu tả trong nhóm 28.43, 28.46 hoặc 28.52 cũng được xếp vào các nhóm trong các Phần khác của Danh mục, việc phân loại các hàng hóa đó phụ thuộc vào việc áp dụng các Chú giải Phần hoặc Chương liên quan và các Quy tắc Tổng quát của Hệ thống Hài hòa. Theo đó, gadolinite, một hợp chất của kim loại đất hiếm và đã được nêu trong nhóm 28.46, vẫn được phân loại vào nhóm 25.30 bởi vì Chú giải 3 (a) của Chương 28 loại trừ tất cả sản phẩm khoáng của Phần V.', 'Chú giải 2.', 'Chú giải Phần 2 quy định các hàng hóa (trừ các loại đã được miêu tả trong nhóm từ 28.43 đến 28.46 hoặc 28.52) đã được nêu trong các nhóm 30.04, 30.05, 30.06, 32.12, 33.03, 33.04, 33.05, 33.06, 33.07, 35.06, 37.07 hoặc 38.08 vì đã được đóng gói theo liều lượng định sẵn hoặc để bán lẻ, sẽ được phân loại vào các nhóm đó mặc dù chúng cũng có thể được phân loại vào một vài nhóm khác của Danh mục. Ví dụ, lưu huỳnh được đóng gói để bán lẻ để điều trị bệnh được phân loại trong nhóm 30.04 và không được phân loại vào nhóm 25.03 hoặc 28.02, và dextrin được đóng gói để bán lẻ như là một loại keo được phân loại vào nhóm 35.06 và không được phân loại vào nhóm 35.05.', 'Chú giải 3.', 'Chú giải này liên quan đến phân loại của các sản phẩm được đóng gói thành bộ gồm hai hoặc nhiều thành phần riêng rẽ, một số hoặc tất cả các thành phần này được phân loại vào Phần VI. Tuy nhiên, Chú giải này được giới hạn bởi các bộ mà thành phần trong đó dự định được trộn cùng nhau để tạo ra một sản phẩm của Phần VI hoặc Phần VII. Những bộ sản phẩm đó sẽ được phân loại trong nhóm phù hợp với sản phẩm này với điều kiện là các bộ phận cấu thành phải đáp ứng các điều kiện từ mục (a) đến mục (c) của Chú giải.', 'Ví dụ về các hàng hóa trong những bộ sản phẩm như vậy là xi măng gắn răng và chất hàn răng khác thuộc nhóm 30.06 và một số loại vec ni và sơn của các nhóm từ 32.08 đến 32.10 và các loại ma tít, v.v, của nhóm 32.14. Liên quan đến phân loại các hàng hóa được đóng gói mà không có chất làm tăng độ cứng cần thiết, - hãy tham khảo Chú giải Chi tiết Tổng quát của Chương 32 và Chú giải Chi tiết nhóm 32.14.', 'Cần lưu ý rằng các hàng hóa được đóng gói thành bộ bao gồm hai hoặc nhiều thành phần riêng rẽ, một số hoặc tất cả các thành phần đó được xếp vào Phần VI, dự định được sử dụng lần lượt mà không cần trộn trước, sẽ không được phân loại theo Chú giải 3 của Phần này. Những hàng hóa được đóng gói để bán lẻ đó sẽ được phân loại khi áp dụng các Quy tắc Giải thích Tổng quát (thường là Quy tắc 3 (b)); trong trường hợp các sản phẩm đó không được đóng gói để bán lẻ thì các bộ phận cấu thành sẽ được phân loại riêng rẽ.', 'Chú giải 4.', 'Chú giải Phần 4 quy định rằng nhóm 38.27 không được ưu tiên hơn các nhóm khác trong Phần VI khi đề cập đến hàng hóa theo tên hoặc nhóm chức. Vì vậy, ví dụ, hàng hóa có thể thuộc loại đầu tiên của nhóm 38.14, như “hỗn hợp dung môi hữu cơ” và nhóm 38.27, sẽ được phân loại vào nhóm 38.14, mặc dù nội dung của các loại đầu tiên của nhóm 38.14 và nhóm 38.27 có cùng cụm từ “chưa được chi tiết hoặc ghi ở nơi khác”. Tuy nhiên, cần lưu ý rằng nhóm 38.27 được ưu tiên hơn nhóm 38.24 vì nhóm này không đề cập đến những hàng hóa đó theo tên hoặc nhóm chức.']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Chú giải Phần 1.', 'Chú giải này liên quan đến việc phân loại hàng hoá được đóng thành bộ bao gồm từ hai hay nhiều cấu thành riêng biệt, một số hoặc toàn bộ các cấu thành đó được xếp vào Phần VII. Tuy nhiên, Chú giải giới hạn ở những bộ hàng hoá mà trong đó các cấu thành dự kiến được trộn với nhau để tạo thành một sản phẩm của Phần VI hoặc Phần VII. Những bộ hàng hoá đó sẽ được phân loại vào nhóm phù hợp với sản phẩm đó với điều kiện các cấu thành đó đáp ứng các điều kiện trong các mục từ (a) đến (c) của Chú giải.', 'Cần lưu ý rằng các hàng hoá được đóng gói thành bộ bao gồm hai hoặc nhiều cấu thành riêng biệt, một số hoặc tất cả các thành phần đó được xếp vào Phần VII, nhằm được sử dụng lần lượt mà không trộn trước, thì không được phân loại theo Chú giải 1 của Phần này. Những hàng hóa như vậy được đóng gói để bán lẻ sẽ được phân loại bằng cách áp dụng các Quy tắc chú giải tổng quát (thường là Quy tắc 3 (b)); trong trường hợp mà các sản phẩm đó không được đóng gói để bán lẻ thì các cấu thành sẽ được phân loại riêng rẽ.', 'Chú giải Phần 2.', 'Hàng hoá của nhóm 39.18 (sản phẩm lát nền và phủ tường hoặc trần bằng plastic) và nhóm 39.19 (các tấm tự dính… bằng plastic), ngay cả khi chúng được in các motip, các ký tự hoặc các biểu tượng tranh ảnh, không chỉ đơn thuần phục vụ cho công dụng chính của sản phẩm đó, không được xếp vào Chương 49 mà vẫn được phân loại vào các nhóm được nhắc đến ở trên. Tuy nhiên, tất cả các hàng hoá khác bằng plastic hoặc cao su thuộc loại được miêu tả trong Phần này được xếp trong Chương 49 nếu như việc in trên chúng không chỉ đơn thuần phục vụ cho công dụng chính của chúng và plastic hoặc cao su chỉ đóng vai trò là trung gian để in.']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Nói chung, Phần XI bao gồm những loại nguyên liệu thô của công nghiệp dệt (tơ, lông cừu, bông, sợi nhân tạo, v.v.), các bán thành phẩm (Ví dụ như sợi và vải dệt thoi) và các mặt hàng hoàn chỉnh làm từ các bán thành phẩm này. Mặc dù vậy, phần XI loại trừ một số nguyên liệu và sản phẩm như đã đề cập trong Chú giải 1 Phần XI, Chú giải (của) các Chương nhất định hay theo các Chú giải chi tiết sau ở các nhóm trong phần này. Đặc biệt, những nhóm sau không được phân loại trong Phần XI:', '(a) Tóc người và các mặt hàng làm từ nó (thông thường thuộc nhóm 05.01, 67.03 hoặc 67.04), loại trừ loại vải lọc được sử dụng trong ép dầu hay loại tương tự (nhóm 59.11).', '(b) Sợi amiăng và các mặt hàng (sợi, vải , quần áo, v.v...) từ sợi amiăng (nhóm 25.24, 68.12 hay 68.13).', '(c) Sợi, xơ carbon và các loại sợi khoáng phi kim (Ví dụ: cacbua silicon, bông len đá) và các sản phẩm từ các loại sợi này (Chương 68).', '(d) Sợi thủy tinh, sợi, vải và các mặt hàng làm từ chúng, và các loại sản phẩm hỗn hợp làm từ sợi thủy tinh và sợi dệt có đặc tính như sản phẩm dệt từ sợi thủy tinh (Chương 70), trừ hàng thêu bằng chỉ thủy tinh trên vải lộ nền.', 'Phần XI được chia làm 14 Chương và có thể phân ra làm 2 phần nhỏ. Phần thứ nhất (các Chương từ 50 đến 55) được chia theo bản chất của vật liệu dệt và phần thứ hai (các Chương từ 56 đến 63), trừ các nhóm từ 58.09 và 59.02, bao gồm các sản phẩm không có sự phân biệt, ở cấp độ nhóm, theo bản chất của vật liệu dệt.', '(I) CÁC CHƯƠNG 50 ĐẾN 55', 'Các Chương từ 50 đến 55, mỗi chương đề cập đến một hay nhiều loại vật liệu dệt, những vật liệu này ở dạng đơn hoặc hỗn hợp, ở các giai đoạn sản xuất khác nhau bao gồm cả giai đoạn chuyển hoá thành vải dệt thoi như đã mô tả trong Phần (I)(C) dưới đây. Trong đa số các trường hợp, các chương này bao gồm nguyên liệu thô, phế phẩm thu lại (kể cả nguyên liệu tái chế nhưng không bao gồm vải vụn không rách), xơ đã được chải thô hay chải kỹ ở dạng cúi chải, sợi thô, v.v...sợi và vải dệt thoi', '(A) Phân loại các sản phẩm được tạo thành từ các nguyên liệu dệt hỗn hợp', '(xem Chú giải 2 Phần XI)', 'Một sản phẩm dệt có thể phân loại vào một nhóm bất kỳ trong các Chương từ 50 đến 55 (phế liệu, sợi, vải dệt thoi, ..v.v.) hoặc vào nhóm 58.09 hoặc nhóm 59.02 và từ hỗn hợp của hai hoặc nhiều nguyên liệu dệt khác nhau thì được phân loại theo hàng hóa được làm hoàn toàn từ nguyên liệu dệt chiếm tỷ trọng trội hơn so với bất kỳ từng nguyên liệu dệt khác.', 'Khi không có một loại nguyên liệu dệt nào chiếm tỷ trọng trội hơn thì hàng hóa trong trường hợp đó sẽ được phân loại theo hàng hóa được làm hoàn toàn từ một nguyên liệu dệt thuộc nhóm có số thứ tự sau cùng trong số những nhóm được xem xét ngang nhau:', 'Nguyên liệu dệt có thể được pha trộn:', '- trước hoặc trong quá trình kéo sợi;', '- trong quá trình xe sợi;', '- trong quá trình dệt.', 'Trong trường hợp có những sản phẩm (trừ loại ở nhóm 58.11) làm từ hai hay nhiều hơn các vải dệt có thành phần khác nhau kết hợp thành các lớp bằng cách khâu, dán vào nhau, v.v...thì việc phân loại để xác định phải phù hợp với Quy tắc 3. Theo đó, Chú giải 2 Phần XI chỉ áp dụng khi cần thiết cho việc xác định vật liệu dệt chiếm ưu thế về tỷ trọng vải được xem xét để phân loại sản phẩm nói chung.', 'Tương tự như vậy, các điều khoản của Chú giải 2 Phần XI áp dụng cho những sản phẩm đã được pha trộn (cấu thành) từ các nguyên liệu dệt và nguyên liệu không dệt chỉ khi, bởi vì các Quy tắc tổng quát giải thích Danh mục, chúng được phân loại như các sản phẩm dệt.', 'Để áp dụng Chú giải 2 của Phần này, cần chú ý rằng:', '(1) Khi một Chương hay một nhóm đề cập đến các sản phẩm được làm từ các loại nguyên liệu dệt khác nhau, những nguyên liệu này được kết hợp lại với nhau vì mục đích phân loại các sản phẩm tương tự chứa hỗn hợp của nguyên liệu đó với nguyên liệu khác; việc lựa chọn nhóm phù hợp trước tiên là xác định Chương, sau đó mới tới nhóm có thể phân loại trong Chương đó, mà không phụ thuộc vào bất kỳ nguyên liệu nào không được phân loại trong Chương đó.', 'Ví dụ:', '(a) Vải dệt thoi gồm:', 'Tỷ trọng xơ staple tổng hợp 40%', 'Tỷ trọng lông cừu chải kỹ 35%, và', 'Tỷ trọng lông động vật mịn chải kỹ 25%', 'thì không được phân loại trong nhóm 55.15 (những mặt hàng dệt thoi khác từ xơ staple tổng hợp) mà được phân loại trong nhóm 51.12 (vải dệt thoi từ sợi len lông cừu chải kỹ hoặc từ sợi lông động vật loại mịn chải kỹ) vì trong trường hợp này, tỷ lệ của lông cừu và lông động vật dạng mịn phải được cộng gộp lại.', '(b) Vải dệt thoi có trọng lượng 210g/m2 gồm:', 'Tỷ trọng bông 40%,', 'Tỷ trọng xơ staple tái tạo 30%, và', 'Tỷ trọng xơ staple tổng hợp 30%', 'thì không được phân loại trong nhóm 52.11 (vải dệt thoi từ sợi bông, có tỷ trọng bông dưới 85%, pha chủ yếu hay duy nhất với xơ sợi nhân tạo, có trọng lượng lớn hơn 200g/m2) hay trong nhóm 55.14 (vải dệt thoi từ xơ staple tổng hợp, có tỷ trọng loại xơ này dưới 85% pha chủ yếu hay pha duy nhất với bông có trọng lượng lớn hơn 170g/m2) mà lại đưa vào nhóm 55.16 (vải dệt thoi từ xơ staple tái tạo). Sự phân loại này đạt được bởi việc xác định trước nhất là Chương thích hợp (trong trường hợp này là Chương 55, vì tỷ lệ về xơ staple tổng hợp và xơ staple tái tạo được cộng lại), và sau đó là nhóm có thể phân loại trong Chương đó mà trong ví dụ này là nhóm 55.16, nhóm có số thứ tự sau cùng trong số những nhóm được xem xét (có giá trị) ngang nhau.', '(c) Vải dệt thoi bao gồm', 'Tỷ trọng lanh 35%', 'Tỷ trọng đay 25%', 'Tỷ trọng bông 40%', 'Hàng dệt này không được phân loại trong nhóm 52.12 (vải dệt thoi khác từ bông) nhưng lại được phân loại trong nhóm 53.09 (vải dệt thoi từ sợi lanh). Sự phân loại này đạt được bởi việc xác định trước nhất là Chương thích hợp (trong trường hợp này là Chương 53 vì tỷ lệ về sợi lanh và sợi đay được cộng lại) và sau đó là nhóm có thể phân loại trong Chương đó, ở ví dụ này là nhóm 53.09 vì tỷ lệ lanh trội hơn đay, tỷ lệ bông không được để ý đến theo Chú giải 2 (B) (b) của Phần này.', '(2) Sợi quấn từ lông đuôi và lông bờm ngựa và sợi trộn kim loại hoá được coi như những nguyên liệu dệt đơn và trọng lượng của chúng được tính gộp vào trọng lượng các thành phần cấu thành.', '(3) Trong quá trình phân loại vải dệt thoi, sợi kim loại được xem như là nguyên liệu dệt.', '(4) Khi cả hai Chương 54 và 55 đều có liên quan đến một Chương khác, thì Chương 54 và 55 được xem như một Chương.', 'Ví dụ:', 'Vải dệt thoi bao gồm:', 'Tỷ trọng sợi filament tổng hợp 35%,', 'Tỷ trọng xơ staple tổng hợp 25%, và', 'Tỷ trọng lông cừu chải kỹ 40%', 'thì không được phân loại trong nhóm 51.12 (vải dệt thoi từ lông cừu chải kỹ hoặc từ lông động vật loại mịn chải kỹ) nhưng lại được phân loại trong nhóm 54.07 (vải dệt thoi từ sợi filament tổng hợp), vì các tỷ lệ sợi filament tổng hợp và sợi staple tổng hợp, trong trường hợp này, phải được cộng lại.', '(5) Việc định kích cỡ vải hay hồ vải (ví dụ tăng trọng lượng (làm cho nặng thêm) trong trường hợp đối với tơ tằm) cũng như các chất dùng để ngâm tẩm, tráng, phủ hay bao bọc, được kết hợp với các sợi dệt đều không được coi là vật liệu không dệt. Nói một cách khác, trọng lượng của sợi dệt được tính toán dựa trên cơ sở trọng lượng của chúng ở trạng thái mà chúng hiện hữu.', 'Khi quyết định nếu việc pha trộn chủ yếu là từ một vật liệu dệt cụ thể, cần xem xét tới vật liệu dệt nào (đưa vào) chiếm ưu thế về tỷ trọng so với các vật liệu khác trong sự pha trộn đó.', 'Ví dụ:', 'Vải dệt thoi có trọng lượng không hơn 200g/m2 bao gồm:', 'Tỷ trọng bông 55%,', 'Tỷ trọng xơ sợi nhân tạo 22%,', 'Tỷ trọng lông cừu 21%, và', 'Tỷ trọng tơ tằm 2%', 'thì không thuộc nhóm 52.12 (vải dệt thoi khác từ sợi bông) mà ở trong nhóm 52.10 (các loại vải dệt thoi từ sợi bông, có tỷ trong bông dưới 85%, pha chủ yếu hay pha duy nhất với xơ sợi nhân tạo, trọng lượng không vượt quá 200g/m2).', '(B) Sợi', '(1) Khái quát chung.', 'Sợi dệt có thể là sợi đơn, sợi xe hay sợi cáp. Tùy theo mục đích của danh mục thì:', '(i) Sợi đơn là sợi được tạo thành bằng một trong 2 cách sau:', '(a) Những xơ ngắn thường được liên kết với nhau bằng quá trình xoắn (Sợi từ các xơ cắt ngắn); hay bằng', '(b) Một filament (mono filament) của các nhóm 54.02 đến 54.05 hoặc từ 2 hay nhiều filament của nhóm 54.02 hay 54.03 được liên kết với nhau, có hoặc không có xoắn (sợi liên tục).', '(ii) Sợi xe nghĩa là sợi có từ hai hay nhiều sợi đơn, kể cả loại được tạo thành từ những sợi mono filament của nhóm 54.04 hay 54.05 (sợi xe hai, xe ba, xe bốn, v.v...) được xoắn lại với nhau trong cùng một công đoạn xoắn. Tuy nhiên, những sợi được hình thành chủ yếu từ các sợi mono filament trong nhóm 54.02 hay 54.03, được liên kết với nhau bằng cách xoắn, thì không được xem là sợi xe.', 'Tao sợ của sợi xe là mỗi sợi đơn trong sợi xe tạo thành.', '(iii) Sợi cáp là sợi được hình thành từ hai hay nhiều sợi nhưng tối thiểu phải có ít nhất là một sợi xe, chúng được xoắn với nhau qua một hay nhiều công đoạn xoắn.', 'Tao sợi của sợi cáp có nghĩa là mỗi sợi đơn hay sợi xe trong sợi cáp tạo thành.', 'Sợi được đề cập ở trên có khi còn được gọi là sợi xoắn phức được tạo thành bởi việc ghép hai hay nhiều sợi đơn, sợi xe hay sợi cáp. Những sợi này được thừa nhận như là sợi đơn, sợi phức hay sợi cáp tùy theo loại sợi mà chúng bao hàm.', 'Sợi đơn, sợi phức hay sợi cáp có thể có những vòng nổi hay những mẩu sợi xe giữa các điểm cách khoảng. Chúng có thể bao gồm 2 hay nhiều sợi mà một sợi trong nó bị xoắn ngược với nhau tại giữa các điểm cách khoảng để mang lại hiệu ứng các vòng nổi hay phồng lên.', 'Sợi đã đánh bóng hay đã làm bóng là sợi đã được xử lý bằng các chất tự nhiên (sáp, parafin...) hay bằng các chất tổng hợp (nhựa acryic). Những sợi này được làm bóng bằng cách dùng trục lăn làm bóng.', 'Sợi được ký hiệu tùy theo độ mảnh của nó. Có nhiều hệ thống khác nhau để tính toán hoặc đo độ mảnh vẫn còn được sử dụng. Tuy nhiên, Danh mục vẫn sử dụng hệ đo phổ thông “Tex”, nó là một đơn vị diễn tả mật độ thẳng, tương đương với trọng lượng tính bằng gram trên một kilomet sợi, filament, sợi cơ bản hay các tao sợi dệt khác. Một decitex thì bằng 0,1 Tex. Công thức sau đây được áp dụng cho việc chuyển hoá chỉ số mét thành chỉ số decitex:', 'Sợi có thể ở dạng chưa được tẩy trắng, đã được tẩy, tẩy trắng, đã nhuộm màu, đã in, bôi macnơ v.v… Chúng cũng có thể đã được hơ trên đèn khí (tức là: Làm cháy xém để loại bỏ những xơ nhô ra bên ngoài bề mặt sợi), ngâm kiềm (tức là: xử lý dưới sức căng với hydroxit natri), ngâm dầu, v.v...', 'Mặc dầu vậy các Chương từ 50 đến 55 không bao gồm:', '(a) Chỉ cao su, vải đã được bọc và sợi dệt đã ngâm tẩm (kể cả nhúng), phủ, bao, hay bọc bằng cao su hay plastic của nhóm 56.04.', '(b) Sợi trộn kim loại (nhóm 56.05).', '(c) Sợi cuốn bọc, sợi sơnin và sợi sùi vòng (nhóm 56.06).', '(d) Sợi dệt bện (nhóm 56.07 hay nhóm 58.08 tùy trường hợp).', '(e) Sợi dệt được gia cố bằng chỉ kim loại (nhóm 56.07).', '(f) Sợi, monofilament hay xơ dệt được ghép song song và liên kết bằng chất kết dính (nhóm 58.06).', '(g) Sợi được ghép song song và được liên kết bằng cao su, nhóm 59.06', '(2) Sự khác biệt giữa các loại sơi đơn, sợi xe hay sợi cáp của các Chương từ 50 đến 55, dây xe, chão bện, thừng hoặc cáp của nhóm 56.07 và dải bện của nhóm 58.08', '(Xem Chú giải 3 Phần XI)', 'Các Chương từ 50 đến 55 không bao gồm tất cả các loại sợi. Những sợi mà đã được phân loại theo đặc tính của nó (độ mảnh, đã hay chưa đánh bóng hoặc làm bóng, số tao) trong các nhóm của Chương từ 50 đến 55 có liên quan tới các loại sợi, dây xe, chão bện, thừng hoặc cáp ở nhóm 56.07 hay như các dải bện ở nhóm 58.08. Bảng I dưới đây sẽ chỉ ra sự phân loại chính xác trong từng trường hợp riêng:', 'BẢNG I:', 'Sự phân loại sợi, dây xe, chão bện, thừng và cáp của vật liệu dệt', 'Chú thích cuối trang.', '(*) Các tham khảo về các nguyên liệu dệt khác nhau cũng được áp dụng cho các nguyên liệu dệt hỗn hợp được phân loại theo các điều khoản của Chú giải 2 Phần XI (xem Phần (I) (A) của Chú giải Tổng quát này).', '(**) Tơ từ ruột con tằm của nhóm 50.06, sợi multifilament không xoắn hay chỉ xoắn dưới năm vòng trên một mét và monofilament của Chương 54 và sợi tô (tow) filament nhân tạo của Chương 55 thì trong bất kỳ trường hợp nào cũng không được phân loại vào nhóm 56.07.', '(3) Sợi đã đóng gói để bán lẻ', '(xem Chú giải 4 Phần XI)', 'Các nhóm trong các Chương 50,51,52,54 và 55 được đưa vào các điều khoản về sợi dệt đóng gói để bán lẻ. Để được xếp trong các nhóm này, sợi phải thoả mãn được các tiêu chuẩn sẽ được đưa ra ở Bảng II dưới đây.', 'Mặc dù vậy các loại sợi dưới đây không bao giờ được đưa vào phần đóng gói để bán lẻ.', '(a) Sợi tơ đơn, phế liệu tơ, sợi bông hay sợi nhân tạo đã đóng gói.', '(b) Sợi đơn, xe từ lông cừu hay lông động vật dạng mịn đã tẩy trắng, nhuộm hay in, có độ mảnh 5.000 decitex trở xuống, đã đóng gói.', '(c) Sợi xe hay sợi cáp được xe từ tơ hay phế liệu tơ, chưa được tẩy trắng, đã đóng gói.', '(d) Sợi xe hay sợi cáp được xe từ bông hay xơ nhân tạo, chưa tẩy trắng ở dạng con sợi hoặc cuộn sợi.', '(e) Sợi xe hay sợi cáp làm từ tơ hay phế liệu tơ, đã tẩy trắng, nhuộm hay in có số đo từ 133 decitex trở xuống.', '(f) Sợi đơn, sợi xe hay sợi cáp làm từ vật liệu dệt bất kỳ, ở dạng con sợi hoặc cuộn sợi cuốn chéo. (*)', '(g) Sợi đơn, sợi xe hay sợi cáp làm từ vật liệu dệt bất kỳ đã cuốn trong các lõi (ví dụ; các ống sợi con, các ống sợi máy xe, các suốt sợi ngang, các ống sợi côn hay các cọc sợi) hay ở một vài dạng khác (ví dụ: ở dạng kén cho các máy thêu, dạng bánh được tạo ra từ các máy kéo sợi li tâm) đã được chỉ rõ để sử dụng trong công nghiệp dệt.', '*', '*    *', 'Chú thích cuối trang', '(*) Cuốn chéo là sợi được cuốn theo đường chéo qua lại con sợi, tránh cho sợi khỏi bị tụt ra. Cuốn chéo là phương pháp thường được sử dụng khi nhuộm các con sợi.', 'BẢNG II', 'Sợi đã đóng gói cho bán lẻ (tuân theo các loại trừ đã được đề cập ở trên)', 'Chú thích cuối trang', '(*) Liên quan tới các vật liệu dệt khác nhau cũng được áp dụng như đối với các nguyên liệu dệt hỗn hợp được phân loại theo các điều khoản của Chú giải 2 phần XI (xem Phần (I)(A) của Chú giải Tổng quát này).', '(**) Con sợi hay cuộn sợi bao gồm những con sợi hoặc cuộn sợi nhỏ hơn được tách riêng bằng một hoặc nhiều sợi phân tách dài liên tục, do vậy những con sợi hoặc những cuộn sợi thành phần dễ dàng được tách riêng. Người ta còn dùng một hay nhiều sợi riêng biệt xâu qua giữa các cuộn sợi và giữ cho chúng riêng biệt với các phần khác. Những con sợi hay cuộn sợi nhỏ hơn này thường được bọc quanh bằng băng giấy. Con sợi và cuộn sợi khác có cùng chiều dài liên tục, hoặc loại mà sợi phân tách không có chức năng chia con hoặc cuộn chính thành các con hoặc cuộn nhỏ hơn cùng trọng lượng nhưng chủ yếu là để tránh bị rối trong quá trình xử lý (ví dụ: nhuộm), thì không được coi là con hoặc cuộn được chia rẽ bởi các sợi phân tách và không được xem như là đã đóng gói để bán lẻ.', '(4) Chỉ khâu.', '(Xem Chú giải 5 Phần XI)', 'Với mục đích của các nhóm 52.04, 54.01 và 55.08 khái niệm “chỉ khâu” nghĩa là sợi xe hay sợi cáp:', '(a) Được cuốn trên các lõi (ví dụ: Các cuộn, các ống) có trọng lượng (kể cả lõi) không vượt quá 1.000g;', '(b) Đã hoàn tất để sử dụng làm chỉ khâu; và', '(c) Với xoắn hình chữ “Z” cuối cùng.', 'Thuật ngữ “hoàn tất” có nghĩa là quá trình xử lý hoàn thiện. Quá trình xử lý này được thực hiện để sử dụng sợi dệt được dễ dàng như là chỉ khâu, ví dụ: tạo cho chỉ có tính chống ma sát hoặc chịu nhiệt, ngăn ngừa sự tạo thành tĩnh điện hay cải thiện hình dạng bên ngoài của chỉ. Sự xử lý như vậy có liên quan tới việc sử dụng các chất như silicon, tinh bột, sáp, parafin, v.v...', 'Độ dài của cuộn chỉ thường được chỉ rõ trên lõi cuộn chỉ.', '(5) Sợi có độ bền cao.', '(Xem Chú giải 6 Phần XI)', 'Các Chương từ 50 đến 59 có các điều khoản “sợi có độ bền cao” và vải dệt từ sợi đó', 'Thuật ngữ “sợi có độ bền cao” là sợi có độ bền được tính bằng cN/tex (centinewtons một tex), phải lớn hơn:', 'Sợi đơn làm từ nylon hoặc các polyamid khác hoặc các polyester…….60 cN/tex', 'Sợi xe hay sợi cáp từ nylon, hay từ các polyamid khác, hay từ polyester.......53 cN/tex', 'Sợi đơn, sợi xe hay sợi cáp làm từ sợi viscô rayon……………….27 cN/tex', '(6) Sợi đàn hồi và sợi dún.', '(Xem Chú giải 13 của Phần XI)', 'Sợi đàn hồi được định nghĩa trong Chú giải 13 của Phần này. Lưu ý rằng, sợi dún được nêu ở đây được định nghĩa trong Chú giải Chi tiết phân nhóm của các phân nhóm từ 5402.31 đến 5402.39.', '(C) Vải dệt thoi', 'Vải dệt thoi ở các Chương từ 50 đến 55 là những sản phẩm thu được bằng cách liên kết các sợi dệt (có cả những loại đã được phân loại trong các Chương từ 50 đến 55 hay những sản phẩm được xem như là dây xe, chão bện, v.v... của nhóm 56.07), sợi thô, sợi monofilament hay sợi dải và sợi tương tự như của Chương 54, sợi sùi vòng, các dải băng hẹp, dây bện hay vải khổ hẹp (bao gồm toàn sợi dọc mà không có sợi ngang được liên kết với nhau nhờ chất keo dính v.v...) trên các máy dệt. Mặc dù vậy, vải dệt thoi vẫn loại trừ một số mặt hàng như:', '(a) Thảm và các loại thảm trải sàn khác (Chương 57)', '(b) Vải nổi vòng hoặc vải sơnin của nhóm 58.01, vải khăn lông và các loại vải dệt thoi tạo vòng lông tương tự nhóm 58.02, vải dệt quấn nhóm 58.03 thảm dệt tay nhóm 58.05 vải dệt thoi khổ hẹp nhóm 58.06 và vải dệt thoi từ sợi kim loại hoặc từ sợi trộn kim loại nhóm 58.09.', '(c) Các loại vải được tráng, ngâm tẩm v.v... của các nhóm 59.01 và 59.03 đến 59.07; vải mành dùng làm lốp của nhóm 59.02 hay các các vải dệt phục vụ cho mục đích kỹ thuật nhóm 59.11.', '(d) Các sản phẩm đã hoàn thiện theo nghĩa của Chú giải 7 Phần XI (xem đoạn II của Chú giải tổng quát này).', 'Theo các quy định từ (a) đến (d) ở trên vải dệt thoi từ Chương 50 đến 55, bằng việc áp dụng Chú giải 9 Phần XI, gồm, ví dụ, vải chứa:', '- một lớp các sợi “dọc” song song đặt chồng lên một lớp các sợi “ngang” song song theo các góc nhọn hay vuông.', '- hai lớp sợi “dọc” song song ở giữa hai lớp là một lớp sợi “ngang”, chúng được gài vào nhau tạo thành các góc nhọn hay vuông.', 'Đặc tính chủ yếu của các loại vải này là các sợi không đan vào nhau như những vải dệt thoi thông thường mà được liên kết ở các điểm giao nhau bằng một chất kết dính hay bằng liên kết nhiệt.', 'Những vải loại này đôi khi được xem như những tấm vải lưới lót, được sử dụng để gia cố cho các vật liệu khác (plastic, giấy, v.v...). Chúng còn được sử dụng ví dụ như các tấm che để bảo vệ dùng trong nông nghiệp.', 'Các loại vải dệt thoi ở các Chương từ 50 đến 55 có thể chưa được tẩy, đã giặt, đã tẩy, đã nhuộm, dệt từ các sợi có màu khác nhau, đã in, đã phủ màng, đã kiềm bóng, đã chuốt bóng, đã tạo nhiễu, đã chải tuyết (đã cào lông), đã xếp nếp, đã chuội và hồ, đã đốt lông (đốt đầu xơ) v.v... Vải dệt thoi ở đây còn bao gồm cả loại đã và chưa dệt hoa văn, và vải trang sức broché trong đó, nó được thiết kế bằng cách gài thêm những sợi dọc hoặc những sợi ngang theo mẫu trong quá trình dệt. Những vải này không được coi là những vải thêu.', 'Các Chương từ 50 đến 55 cũng bao gồm các loại vải mà những sợi ngang chỉ bị hoà tan tại những vị trí theo mẫu thiết kế, còn tại nơi khác thì cả sợi dọc lẫn sợi ngang vẫn còn (ví dụ: mặt hàng dệt nào đó có sợi dọc là sợi viscô rayon và sợi ngang là sợi từ xơ axetat, những sợi ngang đó một phần sẽ được loại bỏ bằng dung môi).', 'o', 'o    o', 'Chú giải chi tiết phân nhóm.', 'Các loại vải dệt thoi từ sợi có màu khác nhau', 'Các loại vải dệt thoi gồm những sợi đã được in màu khác nhau toàn bộ hay từng phần của sợi, hoặc là sợi đã in cùng một màu đậm nhạt khác nhau thì được coi như là “vải dệt thoi từ sợi có màu khác nhau” và cũng không phải là “vải dệt thoi đã nhuộm màu” hay “vải dệt thoi đã in màu”.', 'Các kiểu dệt', 'Kiểu dệt vân điểm đã được định nghĩa trong Chú giải phân nhóm 1 (ij) Phần XI như “Là loại vải có cấu trúc trong đó mỗi sợi ngang tuần tự đan xen ở trên và ở dưới sợi dọc kế tiếp và mỗi sợi dọc tuần tự đan xen ở trên và dưới sợi ngang kế tiếp', 'Kiểu dệt vân điểm được thể hiện ở biểu đồ dưới đây:', 'Dệt vân điểm là kiểu dệt được sử dụng phổ biến nhất và đơn giản nhất. Cả hai mặt của vải dệt vân điểm giống hệt nhau (vải 2 mặt) bởi tỷ lệ cân xứng của các sợi ngang và các sợi dọc có thể thấy được trên mỗi mặt vải.', 'Trong loại vải dệt vân chéo, sợi dọc đầu tiên (sợi dọc) được đan với sợi ngang đầu tiên (sợi ngang), sợi dọc thứ hai được đan với sợi ngang thứ hai, sợi dọc thứ ba được đan với sợi ngang thứ ba và cứ tiếp tục như vậy. Bước chuyển của kiểu dệt này là một đối với cả sợi dọc lẫn sợi ngang. Cách dệt cứ lặp đi lặp lại như vậy, nghĩa là: số sợi dọc và số sợi ngang yêu cầu lặp lại mẫu thì luôn luôn phải lớn hơn hai. Kiểu dệt vân chéo có cấu trúc chặt chẽ là kiểu dệt mà trong đó mỗi sợi ngang được đan (nổi qua) trên hai sợi dọc. Đây là dệt vân chéo ba sợi. Trong kiểu dệt vân chéo bốn sợi thì một sợi ngang được đan qua trên ba sợi dọc.', 'Trong kiểu dệt vân chéo, các sọc đường chéo được hình thành bởi bước chuyển của những điểm đan xen nhau, kéo dài từ biên vải bên này cho đến biên vải bên kia, tạo thành những lằn sọc và cho ta cảm giác vải dệt là dệt chéo. Những sọc này có thể chạy theo hướng từ phải sang trái hay từ trái sang phải. Một sự khác biệt được tạo thành giữa kiểu dệt vân chéo hiệu ứng ngang là trong đó các điểm nổi của sợi ngang nhiều hơn và kiểu dệt vân chéo có hiệu ứng dọc là trong đó các điểm nổi của sợi dọc nhiều hơn. Cả hai loại vải dệt vân chéo này đều có sự khác nhau giữa mặt phải và mặt trái của chúng. Tuy nhiên, có một loại vải dệt chéo gọi là vải chéo hai mặt hay gọi là vải chéo chữ nhân, vải đó có hai mặt đều giống nhau.', 'Vải chéo hai mặt hay vải chéo chữ nhân luôn có lặp lại kiểu dệt bằng nhau. Điểm nổi ngang hay điểm nổi dọc nổi giống nhau ở cả hai bề mặt của vải, chỉ có hướng của các sọc chéo là ngược nhau. Kiểu dệt đơn giản nhất là kiểu dệt chéo chữ nhân bốn sợi: trong đó mỗi sợi dọc được chồng lên trên hai sợi ngang liên tiếp và bị đè xuống bởi hai sợi tiếp sau.', 'Cần chú ý rằng trong các nhóm 52.08, 52.09, 52.10, 52.11, 55.13 và 55.14, các phân nhóm liên quan tới “vải vân chéo ba sợi hay bốn sợi, bao gồm cả vải vân chéo hai mặt hay vải chéo chữ nhân”, bởi vì phần diễn tả giới hạn của chúng chỉ bao gồm những loại vải chéo được dệt theo mẫu chỉ ra dưới đây:', 'Tuy nhiên, vải denim của các phân nhóm 5209.42 và 5211.42 không bao gồm vải chéo hai mặt 4 sợi hay vải chéo chữ nhân vì những phân nhóm này chỉ đề cập tới loại vải có hiệu ứng dọc (xem Chú giải phân nhóm 1 Chương 52). Hơn nữa là loại vải chéo 3 sợi có hiệu ứng dọc và vải chéo 4 sợi có hiệu ứng dọc thì những phân nhóm này cũng bao gồm cả vải vân chéo gẫy 4 sợi có hiệu ứng dọc, kiểu dệt của nó được thể hiện như hình dưới đây:', '(II) CÁC CHƯƠNG TỪ 56 ĐẾN 63', 'Các Chương từ 56 đến 63 bao gồm một số loại vải dệt và các mặt hàng dệt khác ngoài các Chương từ 50 đến 55 (ví dụ: vải có tạo vòng lông; vải dệt thoi hẹp; sợi sơnin, sợi quấn, dải viền, dải trang sức và trang trí khác thuộc nhóm 56.06 hoặc 58.08; Các loại vải tuyn và các loại vải lưới khác; ren; thêu trên vải dệt thoi hoặc các vật liệu dệt khác; dệt kim hoặc móc). Các chương này cũng bao gồm các sản phẩm dệt hoàn thiện (loại trừ các sản phẩm nhất định đã phân loại ở một Chương khác ngoài các Chương trong Phần XI).', 'Các mặt hàng hoàn thiện.', 'Theo Chú giải 7 của Phần này, khái niệm “hoàn thiện” trong các Chương từ 56 đến 63 có nghĩa là:', '(1) Chỉ được cắt thành hình, trừ dạng hình vuông hoặc hình chữ nhật, ví dụ: mẫu hàng may mặc bằng vật liệu dệt, hàng dệt có rìa viền đã được trang trí (ví dụ: một số loại khăn lau) cũng được coi như đã hoàn thiện.', '(2) Sản phẩm ở dạng hoàn thiện, đã sẵn sàng cho sử dụng (hoặc chỉ cần tách ra một cách đơn giản bằng cách cắt các đường chỉ phân chia), mà không phải may khâu hay gia công thêm. Hàng hóa thuộc loại này bao gồm những sản phẩm đan hoặc móc trực tiếp theo những hình dạng đã được định sẵn và một số khăn lau, khăn mặt, khăn trải bàn, khăn quàng cổ, chăn, v.v... với những sợi dọc, sợi ngang ở biên không được dệt mà được cắt để tạo thành diềm. Những mặt hàng như vậy có thể được dệt riêng biệt trên khung dệt, hay cũng có thể được cắt một cách đơn giản dọc theo chiều dài của tấm vải dài mà những tấm vải đó đã có sẵn cạnh biên với những sợi không được dệt để tạo thành tua ở mép biến (thường là những sợi dọc) với những khoảng cách đều đặn. Độ dài của các tấm vải dệt từ những mặt hàng làm sẵn được mô tả ở trên có thể nhận được bằng cách đơn giản là cắt các sợi phân chia thì cũng được coi như mặt hàng “hoàn thiện”.', 'Tuy nhiên, những mặt hàng hình chữ nhật (kể cả hình vuông) được cắt một cách đơn giản ra từ những tấm lớn hơn mà chưa gia công tiếp các công đoạn khác hay chưa tạo viền mép bằng cách cắt các sợi phân chia thì không được coi là “dạng hoàn thiện” với nghĩa của Chú giải này. Thực tế cho thấy rằng những mặt hàng này có thể được sắp xếp hay đưa vào đóng gói (ví dụ: để bán lẻ) thì cũng không ảnh hưởng tới sự phân loại của nó.', '(3) Cắt theo cỡ và có ít nhất một cạnh được làm kín bằng nhiệt mà đường viền được nén hoặc vuốt thon nhận ra dễ dàng và các cạnh khác được xử lý như đã mô tả trong phần khác bất kỳ của Chú giải này, nhưng trừ các vải có các mép đã được làm cho khỏi sổ bằng cách cát nóng hoặc bằng các phương pháp đơn giản khác.', '(4) Đã viền hoặc cuốn mép hay đính tua thắt nút (có hay không kết hợp với đường chỉ thêm) ở bất kỳ các cạnh nào (ví dụ: khăn tay với đường viền hay khăn trải bàn có đính tua thắt nút) nhưng trừ những loại vải dệt có mép cắt được làm cho khỏi xổ sợi bằng cách khâu vắt hoặc bàng các cách đơn giản khác.', '(5) Cắt theo cỡ và được gia công bằng cách rút chỉ. Về vấn đề này thì “gia công bằng cách rút chỉ” đơn giản có nghĩa là rút những sợi ngang hay sợi dọc sau khi dệt mà không làm thêm các công đoạn nào khác trên vải dệt (ví dụ như thêu). Những tấm vật liệu đã được xử lý đó thường dùng để sản xuất vải lót.', '(6) Được ghép bằng cách khâu may, dán dính hay bằng cách khác. Những mặt hàng này có nhiều loại, kể cả quần áo. Tuy nhiên, cần chú ý rằng các loại hàng dệt có thể bao gồm hai hay nhiều đoạn có chiều dài khác nhau của cùng một loại nguyên liệu giống nhau được nối với nhau, hoặc từ hai hay nhiều lớp vật liệu dệt được ghép thành lớp, thì không được coi là đã “hoàn thiện”. Kể cả các sản phẩm dệt ở dạng tấm có một hoặc nhiều lớp vật liệu dệt nhồi được ghép lại bằng cách khâu hay bằng cách khác.', '(7) Dệt kim hoặc móc thành các hình dạng, ở dạng các sản phẩm riêng biệt hoặc thể hiện ở dạng tập hợp một số chi tiết sản phẩm theo độ dài.', 'o', 'o    o', 'Chú giải Phân nhóm.', 'Các sản phẩm từ Chương 56 đến 63 có bề mặt tuyết nhung hay bề mặt tạo vòng', 'Các điều khoản của Chú giải Phân nhóm 2 (B) (b) Phần XI áp dụng cho vải nền dù có hay không thể quan sát được một phần trên bề mặt có tuyết nhung hoặc vòng lông.', '(III) CÁC SẢN PHẨM DỆT KẾT HỢP VỚI CHỈ CAO SU', 'Theo Chú giải 10 của Phần này, các sản phẩm có tính đàn hồi bao gồm vật liệu dệt kết hợp với chỉ cao su đã được phân loại ở Phần XI.', 'Chỉ cao su và sợi (cord) cao su, được bọc bằng vật liệu dệt nằm trong nhóm 56.04.', 'Những sản phẩm dệt khác được kết hợp với chỉ cao su tùy theo từng trường hợp, được phân loại chi tiết trong các Chương từ 50 đến 55, 58 hay 60 đến 63.', '(IV) MẶT HÀNG DỆT MAY KẾT HỢP CÁC THÀNH PHẦN HÓA HỌC, CƠ KHÍ HOẶC ĐIỆN TỬ', 'Theo mục đích của Chú giải 15 của Phần này, hàng dệt, may và các mặt hàng dệt khác, kết hợp các thành phần hóa học, cơ khí hoặc điện tử để tạo thêm chức năng, cho dù được kết hợp dưới dạng các thành phần tích hợp hoặc bên trong sợi hoặc vải, được phân loại theo các nhóm tương ứng trong Phần XI, với điều kiện là chúng vẫn giữ được đặc tính cơ bản của hàng hóa thuộc Phần này. Các mặt hàng dệt may có thể mặc được hoặc không. Chúng bao gồm, ví dụ:', '- Quần áo có tích hợp đèn LED và/hoặc thiết bị âm thanh;', '- Quần áo có tích hợp tai nghe có khung chụp qua đầu, kể cả ổ cắm cho điện thoại di động hoặc vật phẩm tương tự;', '- Quần áo có tích hợp thiết bị theo dõi chức năng cơ thể (ví dụ, áo lót thể thao có chức năng theo dõi nhịp tim và nhiệt độ);', '- Thảm có khả năng phát hiện áp lực hoặc chuyển động (phát hiện người nằm xuống hoặc phát hiện ngã);', '- Găng tay hoặc tất giữ nhiệt;', "- Lớp phủ tường chống động đất, đôi khi được gọi là 'giấy dán tường chống động đất', tích hợp các thành phần điện tử, như cảm biến quang học hoặc sợi quang, và được sử dụng trong xây dựng hoặc cải tạo các tòa nhà để gia cố và giám sát các công trình được xây dựng; và", '- Vải địa kỹ thuật có gán cảm biến hoặc sợi quang tích hợp hoàn toàn nhằm mục đích đo mức độ biến dạng và sức căng gây ra bởi, ví dụ, việc đào đất.', '(V) MÔI TRƯỜNG TIÊU CHUẨN ĐỂ ĐIỀU HÒA VÀ THỬ NGHIỆM VẬT LIỆU DỆT', '(A) Phạm vi và lĩnh vực áp dụng:', 'Các đặc điểm và sự sử dụng của các môi trường tiêu chuẩn cho việc điều hoà và xác định các tính chất vật lý và cơ học của vật liệu dệt được đưa ra ở sau đây để hướng dẫn.', '(B) Các định nghĩa:', '(a) Độ ẩm tương đối: Tỷ lệ giữa áp suất hơi nước thực trong khí quyển với áp suất hơi bão hoà ở cùng nhiệt độ. Tỷ lệ này thường được thể hiện bằng tỷ lệ phần trăm.', '(b) Môi trường điều hòa tiêu chuẩn: Một môi trường có độ ẩm tương đối là 65% và nhiệt độ là 20°C.', '(c) Môi trường điều hòa cho thử nghiệm: Một môi trường có độ ẩm tương đối là 65% và nhiệt độ là 20°C.', 'CHÚ Ý -Tính từ “điều hòa” như được sử dụng ở trên được lựa chọn để giới hạn việc sử dụng trong công nghiệp dệt.', '(C) Điều hoà sơ bộ.', 'Trước khi đưa vật liệu dệt vào điều hoà thì có thể cần phải điều hoà sơ bộ. Vì vậy, vật liệu dệt sẽ được làm cân bằng trong một môi trường có độ ẩm tương đối từ 10 đến 25% và nhiệt độ không được vượt quá 50°C.', 'Các điều kiện trên cũng có thể đạt được bằng cách đốt nóng không khí ở độ ẩm tương đối là 65% và nhiệt độ từ 20°C tới 50°C.', '(D) Điều hoà.', 'Trước khi vật liệu dệt được thử nghiệm để xác định tính chất vật lý và cơ học, mẫu sẽ được điều hoà bằng cách đưa nó vào môi trường điều hoà tiêu chuẩn để thử nghiệm, bằng cách như vậy, các dòng không khí được thổi tự đo qua mẫu (vật liệu dệt) và giữ nó ở đó cho tới thời gian yêu cầu để đạt được cân bằng đối với môi trường.', 'Trừ khi có cách khác quy định trong phương pháp thử, vật liệu dệt phải được xem xét trong trạng thái cân bằng khi, cách khoảng 2 giờ, việc cân liên tục mẫu để phơi ra trước luồng không khí di chuyển cho thấy không có sự thay đổi hơn 0,25% trọng lượng giữa hai lần cân.', '(E) Thử nghiệm.', 'Trừ các trường hợp đặc biệt (ví dụ: các phép thử ướt) các phép thử về cơ học và vật lý của vật liệu dệt được tiến hành trong trạng thái đã được điều hoà trong môi trường điều hòa tiêu chuẩn để thử nghiệm.']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', 'Phần này bao gồm kim loại cơ bản (bao gồm cả kim loại ở trạng thái tinh khiết hóa học) và các sản phẩm của chúng. Danh mục các sản phẩm bằng kim loại cơ bản không được bao gồm tại phần này được liệt kê lại tại phần cuối của Chú giải này. Phần này cũng bao gồm kim loại tự nhiên được tách ra từ đất đã lấy quặng và sten đồng, nicken hoặc cô ban (cobalt). Quặng kim loại và kim loại tự nhiên vẫn chứa đựng trong đất lấy quặng bị loại trừ (nhóm 26.01 tới 26.17).', 'Để phù hợp với Chú giải 3 phần này, trong toàn bộ Danh mục, thuật ngữ “kim loại cơ bản” có nghĩa: sắt và thép, đồng, nicken, nhôm, chì, kẽm, thiếc, vonfram, molipđen, tantan, magiê, côban, bismut, cađimi, titan, zircon, antimon, mangan, berili, crom, gemani, vanađi, gall, hafini, indi, niobi, rheni và tali.', 'Các Chương từ 72 tới 76 và 78 tới 81 bao gồm các kim loại cơ bản riêng chưa được gia công và các sản phẩm của kim loại đó như thanh, que, dây, lá và các sản phẩm của chúng, trừ một số các sản phẩm kim loại cơ bản cụ thể, không tính đến bản chất kim loại kết cấu, được phân loài vào Chương 82 và 83, các chương này được giới hạn trong các sản phẩm cụ thể.', '(A) HỢP KIM CỦA KIM LOẠI CƠ BẢN', 'Phù hợp với Chú giải 6 phần này, ngoại trừ những nội dung yêu cầu khác (ví dụ: trường hợp hợp kim thép), thi bất cứ dẫn chiếu về kim loại cơ bản từ Chương 72 tới 76 và 78 tới 81 hoặc nơi nào khác trong Danh mục cũng bao gồm hợp kim của kim loại đó. Tương tự, bất cứ dẫn chiếu nào tại Chương 82 hoặc 83 hoặc nơi khác về “kim loại cơ bản” bao gồm hợp kim được phân loại như hợp kim của kim loại cơ bản.', 'Theo Chú giải 5 Chương 71 và Chú giải 5 của phần này thì hợp kim kim loại cơ bản được phân loại như sau:', '(1) Hợp kim của kim loại cơ bản với kim loại quý.', 'Hợp kim này được phân loại như kim loại cơ bản với điều kiện là không một kim loại quý nào (bạc, vàng, bạch kim) cấu thành tới 2% trọng lượng của hợp kim. Các hợp kim khác của kim loại cơ bản với kim loại quí được phân loại vào Chương 71.', '(2) Hợp kim của kim loại cơ bản', 'Các hợp kim này được phân loại theo kim loại chiếm tỷ trọng trội hơn, loại trừ hợp kim Fero (xem Chú giải nhóm 72.02) và hợp kim đồng chủ (xem Chú giải nhóm 74.05).', '(3) Hợp kim của kim loại cơ bản của phần này với phi kim loại hoặc với kim loại nhóm 28.05.', 'Được phân loại như hợp kim của kim loại cơ bản thuộc Phần này với điều kiện là tổng trọng lượng kim loại cơ bản thuộc Phần này lớn hơn hoặc bằng tổng trọng lượng các thành phần khác. Nếu không thì hợp kim này thường được phân vào nhóm 38.24.', '(4) Hỗn hợp đã thiêu kết, hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại) và hợp chất liên kim.', 'Hỗn hợp bột kim loại thiêu kết và hỗn hợp dị thể trộn kỹ thu được bằng cách nung chảy (trừ gốm kim loại) được coi như hợp kim. Loại hỗn hợp thứ hai bao gồm các thỏi đặc biệt có thành phần thay đổi thu được từ nung chảy kim loại vụn.', 'Tuy nhiên, phân loại hỗn hợp bột kim loại không được thiêu kết được hướng dẫn tại Chú giải 7 phần này (Các sản phẩm hỗn hợp - xem phần (B) dưới đây).', 'Hợp chất liên kim gồm hai hay nhiều kim loại cơ bản cũng được coi như hợp kim. Sự khác biệt cơ bản giữa hợp chất liên kim và hợp kim là trong hợp chất liên kim thi các nguyên tử của kim loại khác nhau trong mạng tinh thể của hợp chất liên kim được sắp xếp có trật tự, trong khi trong một hợp kim thì không theo trật tự.', '(B) CÁC SẢN PHẨM KIM LOẠI CƠ BẢN', 'Theo Chú giải Phần 7, các sản phẩm kim loại cơ bản gồm hai hay nhiều kim loại cơ bản được phân loại theo các sản phẩm của kim loại có hàm lượng trội hơn các kim loại khác, trừ khi nhóm có những yêu cầu khác (Ví dụ: đinh sắt hoặc thép có đầu bịt đồng được phân loại vào nhóm 74.15 thậm chí khi đồng không phải là kết cấu chính). Qui tắc tương tự được áp dụng đối với các sản phẩm được làm một phần từ phi kim loại với điều kiện là theo Qui tắc Chú giải tổng quát, kim loại cơ bản tạo cho các sản phẩm tính chất chủ yếu của chúng.', 'Để tính toán tỷ lệ các kim loại theo mục đích của qui tắc này, nên lưu ý rằng:', '(1) Tất cả các loại sắt và thép được coi như cùng một kim loại.', '(2) Hợp kim được coi như chứa toàn bộ một loại kim loại khi mà hợp kim của kim loại đó được phân loại (ví dụ: vì một số mục đích, một phần được làm từ đồng pha kẽm (đồng thau) cũng được coi như nó hoàn toàn bằng đồng).', '(3) Gốm kim loại của nhóm 81.13 được coi như một loại kim loại cơ bản', '(C) BỘ PHẬN CỦA CÁC SẢN PHẨM', 'Nói chung, bộ phận của các sản phẩm xác định được thì phân loại như bộ phận đó theo các nhóm thích hợp của chúng trong danh mục.', 'Tuy nhiên, những bộ phận có công dụng chung (được định nghĩa tại Chú giải 2 Phần này) được trình bày riêng lẻ không được xem xét như là bộ phận của những sản phẩm nhưng vẫn được phân loại vào các nhóm phù hợp trong Phần này. Nhóm này cũng áp dụng, ví dụ, trong trường hợp với bu lông dùng trong lò sưởi trung tâm hoặc vòng đệm đặc biệt dùng trong xe mô tô. Bu lông thì được phân loại tại nhóm 73.18 (đối với bu lông) mà không phải nhóm 73.22 (như là những phần của lò sưởi trung tâm). Vòng đệm thì được phân loại tại nhóm 73.20 (đối với vòng đệm) và không được phân loại 87.08 (như là bộ phận của phương tiện môtô).', '*', '*    *', 'Cũng cần phải lưu ý rằng lò xo của đồng hồ cá nhân hoặc đồng hồ thời gian bị loại trừ bởi Chú giải (2) của Phần này và thuộc nhóm 91.14.', 'Ngoài những mặt hàng được đề cập tại Chú giải 1 của Phần này, nhóm này không bao gồm:', '(a) Hỗn hống của kim loại cơ bản (nhóm 28.53).', '(b) Dạng keo lỏng của kim loại cơ bản (thuộc nhóm 30.03 hoặc 30.04).', '(c) Xi măng hàn răng và các chất hàn răng khác (nhóm 30.06).', '(d) Các tấm để tạo ảnh có phủ lớp chất nhạy bằng kim loại, ví dụ bản khắc ảnh (nhóm 37.01).', '(e) Vật liệu chiếu sáng dùng trong chụp ảnh thuộc nhóm 37.07.', '(f) Sợi trộn kim loại (nhóm 56.05), vải dệt thoi từ sợi kim loại hoặc từ chỉ kim loại, sử dụng để trang trí, như các loại vải trang trí nội thất hoặc tương tự (nhóm 58.09).', '(g) Hàng thêu và các hàng hoá khác được miêu tả tại Phần XI, của chỉ kim loại.', 'Các bộ phận của giày, dép trừ các loại đã được đề cập tại Chú giải 2 Chương 64 (cụ thể: bộ phận bảo vệ, khoen, móc cài, khóa cài) (nhóm 64.06).', '(ij) Tiền kim loại (nhóm 71.18).', '(k) Phế liệu và phế thải của các loại pin và ắc quy điện; các loại pin và ắc quy điện đã sử dụng hết (nhóm 85.49).', '(l) Bàn chải (nhóm 96.03).']</t>
+  </si>
+  <si>
+    <t>['KHÁI QUÁT CHUNG', '(I) NỘI DUNG KHÁI QUÁT CHUNG CỦA PHẦN', '(A) Theo một số trường hợp ngoại lệ trong Chú giải của Phần này và của Chương 84 và 85 và trừ các hàng hóa được nêu đặc biệt trong các Phần khác, Phần này bao gồm tất cả các loại máy móc hoặc thiết bị, bộ phận, dụng cụ và các trang thiết bị cơ khí hoặc điện khác nhau, cùng với một số thiết bị và máy móc có thể không chạy bằng cơ khí hoặc điện (như các nồi hơi và thiết bị buồng đặt nồi hơi, thiết bị lọc...) và các bộ phận như các thiết bị và máy móc đó.', 'Những sản phẩm chính không bao gồm tại phần này là:', '(a) Ống suốt, bô bin, ống chỉ... bằng mọi chất liệu (được phân loại theo nguyên liệu cấu thành). Tuy nhiên, các trục cửi không được coi là suốt hoặc bô bin hoặc những bộ phận phụ trợ tương tự và thuộc nhóm 84.48.', '(b) Các bộ phận có công dụng chung như đã được định nghĩa tại Chú giải 2 của phần XV, như dây kim loại, xích, bu lông, đinh vít và lò xo, bằng sắt hoặc thép (nhóm 73.12, 73.15, 73.18 hoặc 73.20) và những sản phẩm tương tự làm bằng kim loại cơ bản khác (từ Chương 74 đến Chương 76 và từ Chương 78 đến Chương 81), khóa thuộc nhóm 83.01, các bộ phận ghép và lắp để lắp vào cửa ra vào, cửa sổ,... thuộc nhóm 83.02. Những hàng hóa tương tự bằng plastic không nằm trong Phần này và được xếp vào Chương 39.', '(c) Các dụng cụ có thể thay đổi thuộc nhóm 82.07; các dụng cụ có thể thay đổi được tương tự khác được phân loại theo chất liệu cấu thành của các phần làm việc của chúng (ví dụ, Chương 40 (cao su), Chương 42 (da thuộc), Chương 43 (da lông), Chương 45 (lie), hoặc Chương 59 (hàng dệt) hoặc trong nhóm 68.04 (vật liệu mài...) hoặc nhóm 69.09 (đồ gốm sứ),...).', '(d) Các hàng hóa khác thuộc Chương 82 (ví dụ, dụng cụ, mũi dụng cụ, dao và lưỡi cắt, tông đơ cắt tóc không chạy điện, và một số dụng cụ cơ khí khác dùng trong gia đình) và các sản phẩm thuộc Chương 83.', '(e) Các sản phẩm thuộc Phần XVII.', '(f) Các sản phẩm thuộc Phần XVIII.', '(g) Các loại vũ khí và đạn dược (Chương 93).', '(h) Máy móc và thiết bị mang tính chất của đồ chơi, trò chơi hoặc dụng cụ thể thao và các bộ phận và các phụ kiện của chúng (kể cả môtơ và động cơ không chạy điện nhưng trừ bơm chất lỏng và máy lọc hoặc tinh chế chất lỏng hoặc các loại khí thuộc nhóm 84.13 hoặc 84.21, và cũng loại trừ động cơ chạy điện, biến thế điện và máy điều khiển từ xa bằng sóng radio, được xếp trong nhóm 85.01, 85.04, hoặc 85.26) mà nó thích hợp chỉ dùng hoặc chủ yếu dùng cho đồ chơi, trò chơi hoặc các dụng cụ thể thao (Chương 95).', '(ij) Các loại chổi được dùng như là các bộ phận của máy móc (nhóm 96.03).', '(B) Thông thường, hàng hóa của phần này có thể bằng bất kỳ chất liệu nào. Trong phần lớn các trường hợp, hàng hóa có thể làm từ kim loại cơ bản, nhưng Phần này cũng bao gồm một số máy móc bằng các chất liệu khác (ví dụ, bơm hoàn toàn bằng plastic) và các bộ phận bằng plastic, gỗ, kim loại quý....', 'Tuy nhiên, phần này không bao gồm:', '(a) Băng truyền hoặc băng tải hoặc dây đai bằng plastic (Chương 39); các sản phẩm bằng cao su lưu hóa không được làm cứng (ví dụ băng truyền hoặc băng tải hoặc dây đai) (nhóm 40.10), các loại săm và lốp xe,... (các nhóm từ 40.11 đến 40.13) và vòng đệm,... (nhóm 40.16).', '(b) Các sản phẩm bằng da thuộc hoặc bằng da tổng hợp (ví dụ, miếng đệm trong khung cửi) (nhóm 42.05) hoặc bằng da lông (nhóm 43.03).', '(c) Những sản phẩm bằng vật liệu dệt như băng chuyền hoặc băng tải (nhóm 59.10), miếng đệm bằng phớt và đĩa đánh bóng (nhóm 59.11).', '(d) Một số hàng hóa bằng gốm sứ thuộc Chương 69 (xem Chú giải Tổng quát của Chương 84 và Chương 85).', '(e) Một số sản phẩm bằng thủy tinh của Chương 70 (xem Chú giải Tổng quát của Chương 84 và Chương 85).', '(f) Các sản phẩm hoàn toàn bằng đá quý hoặc đá bán quý (tự nhiên, tổng hợp hoặc tái tạo) (các nhóm 71.02, 71.03, 71.04 hoặc 71.16) trừ đá saphia và kim cương đã được gia công làm kim đĩa hát nhưng chưa được lắp ráp (nhóm 85.22).', '(g) Đai liên tục bằng dây hoặc dải kim loại (Phần XV).', '(II) CÁC BỘ PHẬN', '(Chú giải 2 của Phần này)', 'Thông thường, các bộ phận phù hợp chỉ để sử dụng hoặc chủ yếu sử dụng cho một loại máy hoặc thiết bị cụ thể (kể cả những hàng hóa thuộc nhóm 84.79 hoặc thuộc nhóm 85.43), hoặc với một nhóm máy móc và thiết bị được xếp cùng trong một nhóm, sẽ được phân loại vào cùng nhóm như là các máy móc và thiết bị đó với điều kiện không bị loại trừ theo quy định tại Phần (I) ở trên. Tuy nhiên, vẫn quy định các nhóm riêng rẽ đối với:', '(A) Các bộ phận của động cơ thuộc nhóm 84.07 hoặc 84.08 (nhóm 84.09).', '(B) Các bộ phận của máy móc thuộc các nhóm từ 84.25 đến 84.30 (nhóm 84.31).', '(C) Các bộ phận của máy dệt thuộc các nhóm từ 84.44 đến 84.47 (nhóm 84.48).', '(D) Các bộ phận của máy công cụ thuộc các nhóm từ 84.56 đến 84.65 (nhóm 84.66).', '(E) Các bộ phận của máy văn phòng thuộc các nhóm từ 84.70 đến 84.72 (nhóm 84.73).', '(F) Các bộ phận của máy thuộc nhóm 85.01 hoặc 85.02 (nhóm 85.03).', '(G) Các bộ phận của các thiết bị thuộc các nhóm từ 85.19 hoặc 85.21 (nhóm 85.22).', '(H) Các bộ phận của các thiết bị thuộc các nhóm từ 85.25 đến 85.28 (nhóm 85.29).', '(IJ) Các bộ phận của các thiết bị thuộc các nhóm 85.35, 85.36 hoặc 85.37 (nhóm 85.38).', 'Những nguyên tắc trên không áp dụng với các bộ phận mà chính bản thân chúng đã tạo thành một sản phẩm được xếp vào một nhóm của Phần này (trừ các nhóm 84.87 và 85.48); những bộ phận này trong mọi trường hợp sẽ phải xếp vào đúng nhóm hàng phù hợp với chứng ngay cả khi chúng được thiết kế đặc biệt để sử dụng như là bộ phận của một loại máy cụ thể. Nguyên tắc này áp dụng với:', '(1) Bơm và máy nén (nhóm 84.13 và 84.14).', '(2) Máy và thiết bị dùng để lọc, v.v..., thuộc nhóm 84.21.', '(3) Máy nâng và máy xếp hàng (thuộc các nhóm 84.25, 84.26, 84.28 hoặc 84.86).', '(4) Van vòi các loại.... (nhóm 84.81).', '(5) Ổ bi hoặc ổ đũa các loại, và các bi thép đã đánh bóng có dung sai không quá 1% hoặc 0.05 mm, theo mức dung sai nhỏ hơn (nhóm 84.82).', '(6) Trục truyền động (kể cả trục cam và trục khuỷu), tay biên, thân ổ, gối đỡ trục dừng ổ trượt, bánh răng và cụm bánh răng (bao gồm cả bánh răng ma sát, hộp số và các cơ cấu điều tốc khác), bánh đà, ròng rọc và khối puli, ly hợp và khớp nối trục (nhóm 84.83).', '(7) Đệm và gioăng tương tự thuộc nhóm 84.84.', '(8) Động cơ điện thuộc nhóm 85.01.', '(9) Biến thế điện và các máy móc và thiết bị khác thuộc nhóm 85.04.', '(10) Ắc quy điện đã được lắp ráp thành bộ hoàn chỉnh (heading 85.07).', '(11) Điện trở nhiệt điện (nhóm 85.16).', '(12) Tụ điện (nhóm 85.32).', '(13) Thiết bị điện dùng để ngắt mạch, bảo vệ mạch điện... (ví dụ, hộp đấu nối, cầu chì, bộ phận ngắt mạch...) (các nhóm 85.35 và 85.36).', '(14) Bảng, panen, giá đỡ, bàn tủ và các loại thiết bị khác dùng để điều khiển hoặc phân phối điện (nhóm 85.37).', '(15) Các loại đèn thuộc nhóm 85.39.', '(16) Đèn điện tử, ống điện tử thuộc nhóm 85.40 và điôt, tranzito... thuộc nhóm 85.41.', '(17) Điện cực than (ví dụ, điện cực than đèn hồ quang, điện cực than và chổi than) (nhóm 85.45).', '(18) Các bộ phận cách điện làm bằng chất liệu bất kỳ (nhóm 85.46).', '(19) Phụ kiện cách điện dùng cho máy điện... thuộc nhóm 85.47.', 'Những bộ phận khác mà có thể được nhận biết như trên, nhưng không phù hợp để chỉ dùng hoặc chủ yếu dùng cho một máy cụ thể hoặc cho một số máy (ví dụ, có thể sử dụng chung cho một số lượng máy thuộc các nhóm khác nhau) được phân loại vào nhóm 84.87 (nếu không chạy bằng điện) hoặc trong nhóm 85.48 (nếu chạy bằng điện), trừ khi chúng bị loại trừ bởi các quy định được nêu ở trên.', 'Các quy định để phân loại các bộ phận trên đây không áp dụng với các bộ phận của các hàng hóa nằm trong các nhóm 84.84 (đệm,...), 85.44 (dây cách điện), 85.45 (điện cực than), 85.46 (cách điện các loại) hoặc 85.47 (ống dẫn dây điện); nói chung, các bộ phận như vậy được phân loại theo Chương của chất liệu cấu thành phù hợp.', 'Các bộ phận máy móc dù đã hoặc chưa là thành phẩm để sẵn sàng sử dụng vẫn được phân loại trong phần này. Tuy nhiên, những phôi kim loại thô bằng sắt hoặc thép được phân loại vào nhóm 72.07.', '(III) CÁC THIẾT BỊ PHỤ TRỢ', '(Xem Quy tắc chú giải tổng quát 2 (a) và 3(b) và Chú giải Phần 3 và 4 của Phần này)', 'Các công cụ và thiết bị phụ trợ (ví dụ, áp kế, nhiệt kế, máy đo mức hoặc những dụng cụ đo lường hoặc kiểm tra, máy đếm sản phẩm, công tắc hẹn giờ, bảng panel điều khiển, bộ điều chính tự động) gắn cùng với máy hoặc thiết bị mà chúng thường được phân loại cùng máy và thiết bị đó, nếu các bộ phận này được thiết kế để đo, kiểm tra, điều khiển, điều chỉnh một máy móc hoặc thiết bị đặc biệt (chúng có thể là sự kết hợp của các máy) (xem phần VI dưới đây) hoặc một khối chức năng (xem phần VII dưới đây)). Tuy nhiên, các dụng cụ và máy móc phụ trợ, được thiết kế để đo lường, kiểm tra, kiểm định hoặc điều chỉnh nhiều máy móc (dù cùng hoặc khác loại) sẽ được xếp vào nhóm phù hợp với chúng.', '(IV) MÁY MÓC CHƯA HOÀN CHỈNH', '(Xem Quy tắc Chú giải Tổng quát 2 (a))', 'Trong toàn bộ nội dung Phần XVI, khi nhắc đến khái niệm máy móc hoặc thiết bị thì không chỉ bao gồm máy móc hoàn chỉnh, mà còn liên quan đến máy móc chưa hoàn chỉnh (ví dụ: việc lắp ráp các bộ phận của máy tới mức mà nó đã có những đặc trưng cơ bản của chiếc máy hoàn chỉnh). Như vậy, một máy móc chỉ thiếu tay lái, đế, trục cán là, giá để dụng cụ.... được phân loại vào cùng nhóm với máy móc đó, và không phân loại riêng rẽ vào bất kỳ nhóm nào quy định cho các bộ phận. Tương tự, máy móc hoặc thiết bị thường có gắn động cơ điện (ví dụ, dụng cụ cơ điện cầm tay thuộc nhóm 84.67) được phân loại trong cùng nhóm như là một máy móc hoàn chỉnh ngay cả khi chúng chưa được gắn động cơ.', '(V) MÁY MÓC ĐƯỢC THÁO RỜI', '(Xem Quy tắc Chú giải Tổng quát 2 (a))', 'Để tiện cho việc vận chuyển, nhiều máy móc và thiết bị được vận chuyển ở tình trạng tháo rời. Mặc dù, trên thực tế, hàng hóa là một tập hợp của những bộ phận tháo rời, chúng được phân loại như máy móc hoàn chỉnh đang được xem xét và không được phân loại vào bất kỳ nhóm riêng rẽ dành cho các bộ phận. Quy tắc tương tự được áp dụng với máy móc chưa hoàn chỉnh có. các đặc tính của máy móc hoàn chỉnh (xem phần (IV) ở trên), được tháo rời (xem Quy tắc chú giải tổng quát của chương 84 và 85). Tuy nhiên, các bộ phận được tháo rời vượt quá số lượng cần thiết của một máy móc hoàn chỉnh hoặc một máy móc chưa hoàn chỉnh có các đặc điểm của một máy móc hoàn chỉnh, sẽ được phân loại vào từng nhóm phù hợp với chúng.', '(VI) MÁY ĐA CHỨC NĂNG VÀ CÁC MÁY TỔ HỢP', '(Chú giải Phần 3)', 'Thông thường, máy đa chức năng được phân loại theo chức năng chính của máy.', 'Máy đa chức năng là các máy, ví dụ, máy công cụ để gia công kim loại sử dụng các công cụ có thể hoán đổi cho nhau, cho phép các máy này thực hiện nhiều chức năng hoạt động khác nhau (ví dụ, cán, khoan, mài).', 'Khi không thể xác định được chức năng chính, và trong trường hợp, như quy định tại Chú giải 3 của phần này, khi không có yêu cầu khác, thì cần áp dụng Quy tắc chú giải tổng quát 3 (c); Trong những trường hợp như vậy, đối với các máy đa chức năng có thể được phân loại trong các nhóm từ 84.25 đến 84.30, trong các nhóm từ 84.58 đến 84.63 hoặc trong các nhóm từ 84.70 đến 84.72.', 'Các loại máy tổ hợp bao gồm từ hai hoặc nhiều máy hoặc thiết bị thuộc các loại khác nhau, được lắp ráp lại để tạo thành một tổ hợp, để thực hiện liên tục hoặc đồng thời các chức năng riêng biệt mà các chức năng này thường mang tính bổ sung và được mô tả trong các nhóm khác nhau thuộc phần XVI, cũng được phân loại theo chức năng chính của máy tổ hợp.', 'Dưới đây là các ví dụ về những loại máy tổ hợp: ví dụ, máy in có gắn máy phụ để cấp giấy (nhóm 84.43); máy làm hộp bìa giấy kết hợp với máy hỗ trợ để in tên và các biểu tượng đơn giản (nhóm 84.41); các loại lò nung, lò luyện dùng trong công nghiệp được kết hợp với các thiết bị dùng để nâng hoặc chuyển hàng (thuộc các nhóm 84.17 hoặc 85.14); các loại máy sản xuất thuốc lá kết hợp với những máy đóng gói (nhóm 84.78).', 'Theo các quy định trên, máy móc thuộc các chủng loại khác nhau được lắp cùng với nhau để tạo thành một tổ hợp, khi một loại được lắp vào trong hoặc được lắp lên trên loại khác, hoặc được lắp trên cùng một giá hoặc một khung đỡ hoặc được đặt trong một khung máy.', 'Các tập hợp máy không được xem là lắp cùng với nhau để tạo thành một tổ hợp trừ khi các máy này được thiết kế để lắp ráp vĩnh viễn với nhau hoặc lắp với một giá, đế, khung máy chung,... Loại này không bao gồm những tổ hợp máy chỉ lắp gá tạm thời hoặc không phù hợp với việc lắp ráp bình thường một máy tổ hợp.', 'Đế, khung hoặc khung máy chung có thể được đặt trên các bánh xe để máy tổ hợp có thể di chuyển trong quá trình sử dụng, với điều kiện không mang tính chất của một sản phẩm độc lập (như một phương tiện) có thể được phân loại vào một nhóm cụ thể của Danh mục.', 'Nền, bệ đế bằng bê tông, tường, vách ngăn, trần, v.v... ngay cả khi được thiết kế đặc biệt để phù hợp với các máy hoặc thiết bị, cũng không được coi là đế chung liên kết các máy hoặc thiết bị ở dạng tổ hợp.', 'Chú giải 3 của phần XVI không cần được áp dụng khi máy tổ hợp đã được phân loại cụ thể vào một nhóm, ví dụ một số loại máy điều hòa nhiệt độ (nhóm 84.15).', 'Chú ý máy đa chức năng sẽ được phân loại theo quy định tại Chú giải 8 của Chương 84, (ví dụ, máy công cụ để gia công kim loại nhưng đồng thời cũng để gia công các chất liệu khác, các loại máy đột lỗ, được sử dụng rộng rãi trong công nghiệp dệt cũng như trong công nghiệp giấy, da, plastic...).', '(VII) CÁC ĐƠN VỊ MÁY CHỨC NĂNG', '(Chú giải phần 4)', 'Chú giải này áp dụng khi một máy (kể cả một tổ hợp máy) gồm nhiều bộ phận riêng biệt nhưng dự kiến được sử dụng để cùng nhau thực hiện một chức năng được xác định cụ thể như được nêu tại một nhóm thuộc Chương 84, hoặc phổ biến hơn trong Chương 85. Cả tổ hợp sẽ được phân loại vào nhóm phù hợp với chức năng này, khi mà những thành phần khác nhau (để thuận tiện hoặc do những lý do khác) vấn đề riêng lẻ hoặc được kết nối với nhau qua hệ thống ống dẫn (dẫn không khí, khí nén, dầu, v.v...) bằng các thiết bị được dùng để truyền năng lượng, bằng dây cáp điện hoặc bằng các thiết bị khác.', 'Theo mục đích của Chú giải này, thuật ngữ “dự kiến được sử dụng để cùng nhau thực hiện một chức năng được xác định cụ thể” chỉ bao gồm các loại máy và tổ hợp máy chủ yếu thực hiện chức năng cụ thể của tổ hợp máy đó, do đó, loại trừ những máy móc hoặc thiết bị đảm nhiệm các chức năng phụ trợ và các chức năng phụ trợ này không tạo nên chức năng chủ yếu của cả tổ hợp nói trên.', 'Dưới đây là những ví dụ về các đơn vị máy chức năng thuộc loại này theo Chú giải 4 của Phần này:', '(1) Hệ thống thủy lực bao gồm một bộ phận tạo nguồn thủy lực (chủ yếu bao gồm một bơm thủy lực, một động cơ điện, van điều khiển và thùng chứa dầu), xi lanh thủy lực và ống dẫn hoặc ống nhỏ cần thiết để nối xi lanh với đơn vị năng lượng thủy lực (nhóm 84.12).', '(2) Thiết bị làm lạnh gồm có các bộ phận không được lắp cùng nhau để tạo thành một tổ hợp máy móc và được kết nối với nhau bởi các ống dẫn vận chuyển chất lỏng để làm lạnh (nhóm 84.18).', '(3) Các hệ thống tưới bao gồm một trạm điều khiển gồm thiết bị lọc, bơm phun, van đo... các hệ thống ống dẫn nhánh ở dưới đất và một mạng lưới đặt trên bề mặt (nhóm 84.24).', '(4) Máy vắt sữa với các bộ phận riêng rẽ (bơm chân không, bộ phận gây xung động, cốc dùng để vắt sữa và những thùng đựng) được kết nối với nhau thông qua các ống mềm hoặc cứng (nhóm 84.34).', '(5) Tổ hợp máy làm bia bao gồm, không kể những cái khác, máy kích thích hoặc nảy mầm, máy nghiền mạch nha, thùng nguyên liệu, thùng lọc, v.v... (nhóm 84.38). Tuy nhiên, các thiết bị phụ trợ, (ví dụ, máy đóng chai và máy in nhãn mác) không được xếp ở đây và được phân loại trong nhóm phù hợp với chúng.', '(6) Các hệ thống sắp xếp thư chủ yếu bao gồm nhóm bàn điều khiển mã, hệ thống kênh sắp xếp trước, máy sắp xếp trung gian, máy sắp xếp cuối cùng, tất cả được điều khiển bởi một máy xử lý dữ liệu tự động (nhóm 84.72).', '(7) Máy rải nhựa đường bao gồm các bộ phận riêng rẽ như phễu đổ nguyên liệu, băng chuyền, máy sấy, động cơ rung, máy trộn, tháp dự trữ và bộ phận điều khiển, được sắp xếp cùng nhau (nhóm 84.74).', '(8) Các máy móc dùng để lắp ráp đèn điện, trong đó các bộ phận cấu thành được gắn với nhau bởi băng tải, bao gồm những thiết bị dùng để xử lý nhiệt thủy tinh, bơm và những bộ phận để thử đèn (nhóm 84.75).', '(9) Thiết bị hàn bao gồm mỏ hàn hoặc cặp hàn, với máy biến thế, máy phát điện hoặc nắn dòng để cung cấp điện (nhóm 85.15).', '(10) Máy phát điện thoại không dây cầm tay và microphone cầm tay kèm theo với nó (nhóm 85.17).', '(11) Thiết bị Ra đa và bộ phận tiếp năng lượng, bộ khuếch đại của ra đa... (nhóm 85.26)', '(12) Hệ thống thu tín hiệu truyền hình qua vệ tinh gồm có một bộ phận thu tín hiệu, một chảo pa ra bôn phản quang, một rô ta tô kiểm soát dùng cho chảo thu tín hiệu, cần thu tín hiệu (định hướng sóng), kính phân cực, khối giảm nhiễu (LNB), bộ chuyển đổi và kiểm soát từ xa bằng tia hồng ngoại (nhóm 85.28).', '(13) Chuông chống trộm, ví dụ bao gồm một đèn tia hồng ngoại, một tế bào quang điện và một chuông (nhóm 85.31).', 'Chú ý các bộ phận không phù hợp với các quy định của Chú giải 4 của phần XVI được xếp trong các nhóm phù hợp với chúng. Ví dụ, quy định áp dụng cho các hệ thống giám sát video mạch kín, bao gồm một tổ hợp các camera và màn hiển thị video được kết nối bằng cáp đồng trục tới một bộ điều khiển, chuyển mạch, thu phát âm thanh và có thể là các máy xử lý dữ liệu tự động (để lưu dữ liệu) và/ hoặc máy ghi hình (để ghi hình).', '(VIII) MÁY MÓC DI ĐỘNG', 'Giống như đối với các máy tự hành hoặc những máy móc di động khác, xem Chú giải của các nhóm dành cho các loại máy móc (ví dụ, máy nâng và xếp thuộc các nhóm từ 84.25 đến 84.28, và máy đào thuộc các nhóm từ 84.29 đến 84.30...), tham khảo các Chú giải của các Chương và nhóm thuộc Phần XVII.', '(IX) MÁY MÓC VÀ THIẾT BỊ SỬ DỤNG TRONG PHÒNG THÍ NGHIỆM', 'Máy móc và thiết bị của loại thuộc Phần này vẫn được xếp trong Phần này ngay cả khi chúng chuyên được sử dụng trong các phòng thí nghiệm hoặc có liên quan đến các dụng cụ đo lường và khoa học, với điều kiện chúng không tạo thành các thiết bị dùng để trưng bày-không cho các mục đích công nghiệp của nhóm 90.23 hoặc các phương tiện đo lường, kiểm tra thuộc Chương 90. Ví dụ, các lò nung nhỏ, thiết bị chưng cất, máy nghiền, trộn, biến thế điện và tụ điện, dùng trong phòng thí nghiệm, vẫn được phân loại trong phần này.', '(X) PHẾ LIỆU VÀ PHẾ THẢI ĐIỆN VÀ ĐIỆN TỬ', '(Chú giải phần 6)', 'Khái niệm “mục đích ban đầu”, trong Chú giải 6 của phần XVI, đề cập đến việc sử dụng chức năng như là hàng hóa điện hoặc điện tử.']</t>
+  </si>
+  <si>
+    <t>['TỔNG QUÁT', '(I) NỘI DUNG TỔNG QUÁT CỦA PHẦN NÀY', 'Phần này bao gồm tất các phương tiện chạy trên đường ray và tàu chạy trên đệm hơi (chương 86), các phương tiện chạy trên mặt đất khác, kể cả các phương tiện chạy trên đệm khí (chương 87), phương tiện bay và tàu vũ trụ (chương 88) và tàu biển, xuồng, tàu chạy nhờ đệm khí và cấu trúc nổi (chương 89), trừ những trường hợp sau:', '(a) Một số loại máy di động (xem Phần (II) dưới đây).', '(b) Các mẫu dùng để trưng bày thuộc nhóm 90.23.', '(c) Các đồ chơi, một số thiết bị thể thao mùa đông, và các phương tiện được thiết kế đặc biệt cho trò chơi di chuyển trong công viên giải trí (amusement park rides) và trò chơi công viên nước (water park amusements); trò chơi hội chợ (fairground amusements). Phần này không bao gồm, ví dụ, các xe đạp đồ chơi (trừ xe đạp thường), xe ô tô đạp, vv... được thiết kế để trẻ em sử dụng, các xuồng đồ chơi và phương tiện bay đồ chơi (nhóm 95.03); xe trượt tuyết, xe trượt bằng và loại tương tự (nhóm 95.06); trò chơi xe đụng (dodge em car), xe kéo và các phương tiện khác, kể cả rơ- moóc, được thiết kế đặc biệt cho và là bộ phận cấu thành của trò chơi hội chợ (ví dụ, xe rơ-moóc cho trò chơi ném vòng (ring-stand trailers)) (nhóm 95.08).', 'Hơn nữa, Phần này cũng bao gồm một số loại phương tiện vận tải như công ten nơ được thiết kế đặc biệt và được trang bị để vận chuyển theo một hoặc nhiều phương thức, một số thiết bị hoặc dụng cụ đường ray đường sắt hoặc ray xe điện, và các máy (kể cả điện cơ) thiết bị tín hiệu (Chương 86) và dù các loại, thiết bị phóng tàu vũ trụ, bàn phanh hoặc thiết bị tuơng tự và các thiết bị huấn luyện bay (Chương 88).', 'Theo các quy định của phần (III) dưới đây, Phần này cũng bao gồm các bộ phận và phụ kiện của các xe cộ, phương tiện bay, vv… của các Chương từ 86 đến 88.', '(II) CÁC LOẠI MÁY TỰ HÀNH HOẶC MÁY DI ĐỘNG KHÁC', 'Một số loại máy hoặc thiết bị (đặc biệt là loại thuộc phần XVI) có thể được lắp lên khung gầm các phương tiện hoặc trên các đế nổi (floating base) của phần XVII; việc phân loại máy di động có được phụ thuộc vào nhiều yếu tố khác nhau, đặc biệt là loại đế.', 'Ví dụ, tất cả các loại máy di động, được tạo thành bởi việc lắp một máy lên trên một đế nổi được phân loại trong Chương 89 (ví dụ, cần cẩu nổi, máy nạo vét lòng sông, máy hút hạt ngũ cốc, vv…). Để phân loại các máy di động được tạo thành bởi việc lắp thiết bị trên một khung xe cộ thuộc chương 86 hoặc 87, xem Chú giải chi tiết của nhóm 86.04, 87.01, 87.09 hoặc 87.16.', '(III) CÁC BỘ PHẬN VÀ PHỤ TÙNG', 'Cần chú ý là Chương 89 không quy định cho các bộ phận (trừ thân tàu) hoặc các phụ kiện của tàu biển, thuyền hoặc các cấu trúc nổi. Những bộ phận và phụ kiện như vậy, ngay cả khi có được nhận dạng là dùng cho các tàu biển, vv… được phân loại vào các nhóm tương ứng của chúng tại các chương khác. Các chương khác thuộc phần này quy định việc phân loại các bộ phận và phụ kiện của các xe cộ, phương tiện bay hoặc thiết bị liên quan.', 'Tuy nhiên, cần chú ý là những nhóm này chỉ áp dụng cho những bộ phận và phụ kiện thỏa mãn với cả ba điều kiện sau:', '(a) Chúng không được loại trừ theo quy định của Chú giải 2 của Phần này (xem đoạn (A) dưới đây).', 'và (b) Chúng phải phù hợp để sử dụng duy nhất hoặc chủ yếu cho các sản phẩm thuộc các chương từ 86 đến 88 (xem đoạn (B) dưới đây).', 'và (c) Chúng không được nêu cụ thể hơn ở bất kỳ nơi khác nào trong Danh mục (xem đoạn (C) dưới đây).', '(A) Các bộ phận và phụ kiện bị loại trừ theo Chú giải 2 của Phần XVII', 'Chú giải này loại trừ các bộ phận và phụ kiện sau, dù cho chúng có hoặc không được xác định là hàng hóa của Phần này:', '(1) Khớp nối, miếng đệm, vòng đệm hoặc loại tương tự, bằng vật liệu bất kỳ (được phân loại theo vật liệu cấu thành hoặc được xếp vào nhóm 84.84) và các sản phẩm khác bằng cao su lưu hoá trừ cao su cứng (ví dụ, vành chắn bùn và cái bọc bàn đạp) (nhóm 40.16);', '(2) Các bộ phận có công dụng chung như đã được định nghĩa tại Chú giải 2 của phần XV, ví dụ, dây cáp và xích (đã hoặc chưa được cắt theo chiều dài nhất định hoặc được gắn với các thiết bị đầu cuối, trừ cáp phanh, cáp kéo hoặc các loại tương tự phù hợp cho việc sử dụng trong phương tiện có động cơ của Chương 87), đinh, chốt, chi tiết, vòng đệm, then và chốt định vị, lò xo (kể cả lò xo lá của các xe cộ) (các sản phẩm như thế bằng kim loại cơ bản được xếp trong các Chương từ 73 đến 76 và 78 đến 81, và các sản phẩm tương tự bằng nhựa được xếp vào Chương 39), và khoá, thiết bị hoặc khung của thùng xe (ví dụ được các trang trí thành xe, bản lề, tay cầm mở cửa, tay phanh, chỗ để chân, có chế mở cửa sổ), biển số, biển quốc tịch, vv… (những hàng hoá như thế làm bằng kim loại cơ bản được xếp trong Chương 83, và các hàng hoá tương tự bằng nhựa được xếp vào Chương 39).', '(3) Chìa vặn đai ốc, cờ lê và các dụng cụ khác thuộc chương 82.', '(4) Chuông (ví dụ, dùng cho xe đạp) và các sản phẩm khác thuộc nhóm 83.06.', '(5) Các máy và dụng cụ cơ khí, và các bộ phận của chúng, thuộc các nhóm 84.01 đến 84.79, ví dụ:', '(a) Nồi hơi và trang thiết bị nồi hơi (nhóm 84.02 hoặc 84.04).', '(b) Máy sản xuất chất khí (ví dụ, dùng cho xe ô tô) (nhóm 84.05).', '(c) Tua bin hơi nước thuộc nhóm 84.06', '(d) Động cơ các loại kể cả động cơ có gắn hộp số và các bộ phận của chúng, được xếp trong các nhóm từ 84.07 đến 84.12.', '(e) Bơm, máy nén và quạt (nhóm 84.13 hoặc 84.14).', '(f) Các máy điều hoà không khí (nhóm 84.15).', '(g) Các dụng cụ cơ khí để phun, phun rải hoặc phun áp lực các chất lỏng hoặc bột; bình cứu hoả (nhóm 84.24).', '(h) Các máy nâng, chuyển hàng, xếp hoặc dỡ hàng, (ví dụ, tời nâng, kích, cần cẩu), các máy dùng để di chuyển, phân loại, san ủi, cạp đất, xúc, đầm đất, nén, tách hoặc máy khoan đào, cho đất, khoáng sản hoặc quặng (nhóm 84.25, 84.26, 84.28, 84.30 hoặc 84.31).', '(ij) Các máy nông nghiệp của nhóm 84.32 hoặc 84.33 (ví dụ máy đập lúa, gieo hạt, chuyển hạt, vv…và phụ kiện kèm theo) được thiết kế để lắp trên xe cộ.', '(k) Máy thuộc loại đã được mô tả trong nhóm 84.74.', '(l) Cơ cấu lau kính chắn gió xe ô tô thuộc nhóm 84.79.', '(6) Một số sản phẩm khác thuộc chương 84, ví dụ:', '(a) Vòi, vòi nuớc, van và các thiết bị tương tự (ví dụ, vòi hút tản nhiệt, van săm) (nhóm 84.81).', '(b) Ổ bi hoặc ổ đũa (nhóm 84.82).', '(c) Các bộ phận bên trong của động cơ hoặc máy (trục khủyu, trục cam, bánh lái, vv…) được xếp trong nhóm 84.83.', '(7) Các máy hoặc thiết bị điện thuộc chương 85, ví dụ:', '(a) Động cơ điện, máy phát điện, máy biến biến thế, vv… thuộc nhóm 85.01 hoặc 85.04.', '(b) Nam châm điện, ly hợp điện từ, phanh điện từ, vv… thuộc nhóm 85.05.', '(c) Ắc quy điện (nhóm 85.07).', '(d) Thiết bị đánh lửa hoặc khởi động bằng điện loại được dùng cho các động cơ đốt trong đốt cháy bằng tia lửa điện hoặc bằng sức nén (bu gi, động cơ khởi động, vv...) (nhóm 85.11).', '(e) Thiết bị chiếu sáng, phát tín hiệu, gạt nước, chống tạo sương và tuyết họat động bằng điện dùng cho xe đạp hoặc các phương tiện có động cơ (nhóm 85.12); thiết bị báo tín hiệu họat động bằng điện dùng cho các xe cộ khác (ví dụ dùng cho tàu hoả) hoặc cho phương tiện bay hoặc tàu biển (nhóm 85.31); các thiết bị chống tạo sương hay tuyết họat động bằng điện cho những phương tiện khác, phương tiện bay hay tàu biển (nhóm 85.43).', '(f) Thiết bị làm nóng bằng điện dùng cho ô tô hoặc tàu hỏa, phương tiện bay, vv... (nhóm 85.16).', '(g) Micro, loa, và các thiết bị điện khuếch đại âm tần (nhóm 85.18).', '(h) Bộ thu và phát sóng vô tuyến (nhóm 85.25 hoặc 85.27).', '(ij) Tụ điện (nhóm 85.32).', '(k) Thiết bị truyền tải điện và các thiết bị góp điện khác dùng cho các xe kéo điện, cầu trì, công tắc và các thiết bị điện khác thuộc nhóm 85.35 hoặc 85.36.', '(l) Đèn điện dây tóc và các đèn phóng điện, kể cả đèn pha gắn kín, thuộc nhóm 85.39.', '(m) Các thiết bị điện khác, như dây và cáp cách điện (kể cả các bộ dây dẫn điện) và các sản phẩm điện bằng than chì hoặc các bon, đã hoặc chưa gắn với các đầu nối; cách điện, thiết bị cách điện (các nhóm từ 85.44 đến 85.48).', '(8) Các dụng cụ và thiết bị thuộc Chương 90, kể cả các loại được sử dụng trên một số phương tiện như:', '(a) Máy ảnh hoặc máy quay phim (nhóm 90.06 hoặc 90.07).', '(b) Thiết bị và dụng cụ dẫn đường (nhóm 90.14).', '(c) Thiết bị và dụng cụ được sử dụng trong các ngành y tế, phẫu thuật, nha khoa hoặc thú y (nhóm 90.18).', '(d) Các thiết bị sử dụng tia X và các thiết bị khác thuộc nhóm 90.22.', '(e) Cáp kế (nhóm 90.26).', '(f) Máy đếm vòng quay, đồng hồ tính tiền gắn trên xe tắc-xi, đồng hồ chỉ thị tốc độ và máy đo tốc độ góc và các dụng cụ, thiết bị khác thuộc nhóm 90.29.', '(g) Dụng cụ đo lường hoặc kiểm tra, dụng cụ và máy thuộc nhóm 90.31.', '(9) Đồng hồ (ví dụ, các bảng đồng hồ) (Chương 91).', '(10) Vũ khí (Chương 93)', '(11) Đèn (Luminaires) và bộ đèn (ví dụ, đèn pha dùng cho phương tiện bay hoặc xe lửa) của nhóm 94.05.', '(12) Chổi (ví dụ, chổi lắp trên xe quét đường) (nhóm 96.03).', '(B) Tiêu chí chỉ dùng hoặc chủ yếu dùng.', '(1) Các bộ phận và phụ kiện có thể phân loại vào cả Phần XVII và Phần khác.', 'Theo Chú giải 3 của Phần, các bộ phận và phụ kiện không phù hợp để chỉ dùng hoặc chủ yếu dùng với các mặt hàng thuộc Chương 86 đến 88 bị loại trừ khỏi các Chương đó.', 'Do đó, Chú giải 3 có hiệu lực khi một bộ phận hoặc phụ kiện có thể phân loại vào một hoặc nhiều Phần khác cũng như vào Phần XVII, việc phân loại cuối cùng được quyết định bởi mục đích sử dụng chính của mặt hàng. Theo đó, cơ cấu lái, hệ thống phanh, bánh xe, chắn bùn, v.v., được dùng trên nhiều loại máy di động thuộc Chương 84, gần như giống hệt với loại dùng trên xe tải thuộc Chương 87, và do mục đích sử dụng chính của các bộ phận và phụ kiện đó là với các xe tải nên chúng được phân loại ở Phần này.', '(2) Các bộ phận và phụ kiện có thể phân loại vào hai hoặc nhiều nhóm của Phần này.', 'Một số bộ phận và phụ kiện phù hợp sử dụng cho nhiều hơn một loại phương tiện (ô tô, phương tiện bay, xe mô tô, v.v); ví dụ về các mặt hàng như vậy gồm phanh, hệ thống lái, bánh xe, trục xe, v.v. Các bộ phận và phụ kiện như vậy được phân loại và nhóm liên quan đến bộ phận và phụ kiện của phương tiện mà chúng được chủ yếu dùng cùng.', '(C) Các bộ phận và phụ kiện được mô tả cụ thể hơn tại nơi khác trong Danh mục.', 'Các bộ phận và phụ kiện, ngay cả khi xác định được sử dụng cho hàng hóa thuộc Phần này vẫn bị loại trừ nếu chúng được mô tả cụ thể hơn bởi một nhóm thuộc Phần khác trong Danh mục, ví dụ:', '(1) Dạng hình của cao su lưu hóa trừ cao su cứng, đã hoặc chưa cắt thành từng đoạn (nhóm 40.08).', '(2) Băng truyền bằng cao su lưu hóa (nhóm 40.10).', '(3) Lốp, hoa lốp, lót vành và săm thay thế được, bằng cao su (nhóm 40.11 đến 40.13).', '(4) Túi đựng dụng cụ bằng da thuộc hoặc da thuộc tổng hợp, bằng sợi lưu hóa, v.v. (nhóm 42.02).', '(5) Lưới xe đạp hay khí cầu (nhóm 56.08).', '(6) Thừng kéo (nhóm 56.09).', '(7) Thảm dệt (Chương 57).', '(8) Kính an toàn chưa có khung bao gồm kính tôi hoặc kính dán nhiều lớp, đã hoặc chưa được định hình (nhóm 70.07).', '(9) Gương chiếu hậu (nhóm 70.09 hoặc Chương 90 - xem chú giải chi tiết tương ứng).', '(10) Kính chưa có khung cho đèn pha của phương tiện (nhóm 70.14) và hàng hóa của Chương 70 nói chung.', '(11) Trục mềm cho chỉ báo tốc độ, máy đếm vòng quay, v.v. (nhóm 84.83).', '(12) Ghế ngồi của phương tiện thuộc nhóm 94.01.']</t>
   </si>
 </sst>
 </file>
@@ -552,18 +573,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="122.140625" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="4" max="4" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,236 +595,257 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
